--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0B82F-22AB-4770-9E07-A1835F38A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9236227-90E3-422B-AF73-84E4B34E3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="657">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3020,10 +3020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>室内·霍德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏日特别行动！
 RABBIT小队与虾的消失之谜
 （泳五）</t>
@@ -3122,10 +3118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标TM难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>野外·鸡斯拉
 1档</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3149,6 +3141,14 @@
   <si>
     <t>圣诞节</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内·霍德
+1档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM</t>
   </si>
 </sst>
 </file>
@@ -4345,9 +4345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G471" sqref="G471"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J595" sqref="J595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7353,7 +7353,7 @@
       <c r="E331" s="88"/>
       <c r="F331" s="79"/>
       <c r="G331" s="112" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9494,11 +9494,11 @@
         <v>45715</v>
       </c>
       <c r="C576" s="113" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D576" s="114"/>
       <c r="G576" s="113" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -9557,7 +9557,7 @@
         <v>625</v>
       </c>
       <c r="C583" s="109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D583" s="109" t="s">
         <v>628</v>
@@ -9616,7 +9616,7 @@
         <v>626</v>
       </c>
       <c r="C590" s="109" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D590" s="109" t="s">
         <v>629</v>
@@ -9627,8 +9627,8 @@
       <c r="F590" s="80">
         <v>1</v>
       </c>
-      <c r="G590" s="112" t="s">
-        <v>631</v>
+      <c r="G590" s="109" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -9684,13 +9684,13 @@
         <v>45736</v>
       </c>
       <c r="C597" s="109" t="s">
+        <v>631</v>
+      </c>
+      <c r="D597" s="109" t="s">
         <v>632</v>
       </c>
-      <c r="D597" s="109" t="s">
-        <v>633</v>
-      </c>
       <c r="E597" s="109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -9747,7 +9747,7 @@
       <c r="C604" s="110"/>
       <c r="D604" s="110"/>
       <c r="G604" s="112" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -10062,11 +10062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174900A-500F-4D9E-B37A-2A32C96980DD}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10094,7 +10094,7 @@
         <v>582</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G1" s="74" t="s">
         <v>583</v>
@@ -11253,7 +11253,7 @@
         <v>45728</v>
       </c>
       <c r="F71" s="114" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G71" s="114" t="s">
         <v>400</v>
@@ -12119,6 +12119,9 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="114"/>
+      <c r="C138" s="74" t="s">
+        <v>595</v>
+      </c>
       <c r="F138" s="114"/>
       <c r="G138" s="114"/>
       <c r="H138" s="114"/>
@@ -12571,10 +12574,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13120,10 +13123,10 @@
         <v>246</v>
       </c>
       <c r="I18" s="133" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J18" s="133" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13204,7 +13207,7 @@
         <v>246</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -13250,7 +13253,7 @@
         <v>246</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -13356,7 +13359,7 @@
         <v>246</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -13448,7 +13451,7 @@
         <v>246</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -13679,7 +13682,7 @@
         <v>539</v>
       </c>
       <c r="J42" s="133" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -13798,10 +13801,10 @@
         <v>251</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -13817,8 +13820,11 @@
       <c r="D48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>650</v>
+      <c r="F48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -13829,13 +13835,13 @@
         <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>247</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -13900,10 +13906,10 @@
   <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13941,10 +13947,10 @@
         <v>560</v>
       </c>
       <c r="J1" s="96" t="s">
+        <v>638</v>
+      </c>
+      <c r="K1" s="97" t="s">
         <v>639</v>
-      </c>
-      <c r="K1" s="97" t="s">
-        <v>640</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>554</v>
@@ -14403,7 +14409,7 @@
         <v>45267</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="11" customFormat="1" ht="14.4" thickBot="1">

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9236227-90E3-422B-AF73-84E4B34E3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856C2B1-7D14-47CA-A917-B0088723C31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="角色" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">总力战!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">总力战!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="662">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3149,6 +3149,27 @@
   </si>
   <si>
     <t>TM</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟，小春，水大狐狸，伊织。千寻，水白子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪，佳门，未花（A），忧。亚子，otto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃美，宫子，星野，未花。春锅，小护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天炸一票，票票不一样
+为了保住前2000，拼了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10062,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174900A-500F-4D9E-B37A-2A32C96980DD}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
@@ -12121,6 +12142,9 @@
       <c r="A138" s="114"/>
       <c r="C138" s="74" t="s">
         <v>595</v>
+      </c>
+      <c r="D138" s="74" t="s">
+        <v>657</v>
       </c>
       <c r="F138" s="114"/>
       <c r="G138" s="114"/>
@@ -12571,13 +12595,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13808,46 +13832,91 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2">
+      <c r="A48" s="135">
         <v>45729</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="134">
         <v>43</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="134"/>
+      <c r="F48" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="134"/>
+      <c r="H48" s="134" t="s">
         <v>656</v>
       </c>
+      <c r="I48" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J48" s="133" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="2">
+      <c r="A49" s="135"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J49" s="133"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="135"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J50" s="133"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2">
         <v>45743</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B51" s="1">
         <v>44</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>652</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F49" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}"/>
+  <autoFilter ref="A1:F51" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}"/>
   <dataConsolidate/>
-  <mergeCells count="30">
+  <mergeCells count="39">
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
@@ -13881,19 +13950,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F1048576 F36:F42 F2:F18 F20:F34" xr:uid="{F79B75D9-2FC7-4867-AF95-6C11973CC200}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F34 F36:F42 F2:F18 F44:F48 F51:F1048576" xr:uid="{F79B75D9-2FC7-4867-AF95-6C11973CC200}">
       <formula1>"一档,二档,三档,四档"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44:E1048576 E36:E42 E2:E18 E20:E34" xr:uid="{FD89D216-83E0-409A-B376-D92CCA6A35F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E34 E36:E42 E2:E18 E44:E48 E51:E1048576" xr:uid="{FD89D216-83E0-409A-B376-D92CCA6A35F2}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576 D36:D42 D2:D18 D20:D34" xr:uid="{52174696-2274-4E37-A830-E25AC656904C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D34 D36:D42 D2:D18 D44:D48 D51:D1048576" xr:uid="{52174696-2274-4E37-A830-E25AC656904C}">
       <formula1>"街区,野外,室内"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18 H20:H1048576" xr:uid="{7106043A-7F7F-493C-85C0-9B7BAD5032DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H18 H20:H48 H51:H1048576" xr:uid="{7106043A-7F7F-493C-85C0-9B7BAD5032DD}">
       <formula1>"N,HD,VH,HC,EX,INS,TM,LU"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C18 C20:C1048576" xr:uid="{79AD0C39-A281-4023-A9E2-93120626CCD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C18 C20:C48 C51:C1048576" xr:uid="{79AD0C39-A281-4023-A9E2-93120626CCD2}">
       <formula1>"大蛇,球,黑白,主教,寿司人,鸡斯拉,霍德,格兹,格里高利,气垫船,黑影"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856C2B1-7D14-47CA-A917-B0088723C31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A16819-B135-4D31-A223-97D0B559CFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12598,7 +12598,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L52" sqref="L52"/>

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A5E3A6-A4B0-48C0-A60B-F0C26B89B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D53EB1-4487-4A1C-B18E-16758C0226BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="663">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3169,6 +3169,10 @@
   <si>
     <t>天天炸一票，票票不一样
 为了保住前2000，拼了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10084,10 +10088,10 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomRight" activeCell="H152" sqref="H152:H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11317,7 +11321,9 @@
       <c r="D74" s="75">
         <v>45357</v>
       </c>
-      <c r="E74" s="75"/>
+      <c r="E74" s="75">
+        <v>45370</v>
+      </c>
       <c r="F74" s="115" t="s">
         <v>298</v>
       </c>
@@ -12322,8 +12328,12 @@
     <row r="158" spans="1:8">
       <c r="A158" s="121"/>
       <c r="F158" s="121"/>
-      <c r="G158" s="121"/>
-      <c r="H158" s="121"/>
+      <c r="G158" s="121" t="s">
+        <v>662</v>
+      </c>
+      <c r="H158" s="121" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="122"/>
@@ -12597,11 +12607,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13974,13 +13984,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6971D054-8E3F-4D93-B6CE-28E918989E2D}">
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomRight" activeCell="AE125" sqref="AE125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13994,7 +14004,7 @@
     <col min="54" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="45" customFormat="1" ht="14.4" thickBot="1">
+    <row r="1" spans="1:29" s="45" customFormat="1" ht="14.4" thickBot="1">
       <c r="B1" s="46"/>
       <c r="C1" s="60" t="s">
         <v>553</v>
@@ -14036,7 +14046,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:29" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>584</v>
       </c>
@@ -14121,8 +14131,11 @@
       <c r="AB2" s="24" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="5" customFormat="1" ht="14.4" thickTop="1">
+      <c r="AC2" s="24" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="14.4" thickTop="1">
       <c r="A3" s="140" t="s">
         <v>336</v>
       </c>
@@ -14142,7 +14155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" s="141"/>
       <c r="B4" s="137"/>
       <c r="C4" s="63" t="s">
@@ -14161,7 +14174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="141"/>
       <c r="B5" s="137"/>
       <c r="C5" s="63" t="s">
@@ -14174,7 +14187,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="141"/>
       <c r="B6" s="137"/>
       <c r="C6" s="63" t="s">
@@ -14187,7 +14200,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="10" customFormat="1" ht="14.4" thickBot="1">
+    <row r="7" spans="1:29" s="10" customFormat="1" ht="14.4" thickBot="1">
       <c r="A7" s="142"/>
       <c r="B7" s="143"/>
       <c r="C7" s="64" t="s">
@@ -14203,7 +14216,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.4" thickTop="1">
+    <row r="8" spans="1:29" ht="14.4" thickTop="1">
       <c r="A8" s="141" t="s">
         <v>337</v>
       </c>
@@ -14220,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="141"/>
       <c r="B9" s="137"/>
       <c r="C9" s="63" t="s">
@@ -14230,7 +14243,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" s="141"/>
       <c r="B10" s="137"/>
       <c r="C10" s="63" t="s">
@@ -14243,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" s="141"/>
       <c r="B11" s="137"/>
       <c r="C11" s="63" t="s">
@@ -14253,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="9" customFormat="1" ht="14.4" thickBot="1">
+    <row r="12" spans="1:29" s="9" customFormat="1" ht="14.4" thickBot="1">
       <c r="A12" s="141"/>
       <c r="B12" s="138"/>
       <c r="C12" s="65" t="s">
@@ -14263,7 +14276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" s="141"/>
       <c r="B13" s="136" t="s">
         <v>483</v>
@@ -14284,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" s="141"/>
       <c r="B14" s="137"/>
       <c r="C14" s="63" t="s">
@@ -14297,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" s="141"/>
       <c r="B15" s="137"/>
       <c r="C15" s="63" t="s">
@@ -14310,7 +14323,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.4" thickBot="1">
+    <row r="16" spans="1:29" ht="14.4" thickBot="1">
       <c r="A16" s="141"/>
       <c r="B16" s="138"/>
       <c r="C16" s="63" t="s">

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947F3425-A901-4C78-8901-2EAE2E591D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B9156C-CCA9-4B53-8372-114E79BE2F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="912">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,10 +1422,6 @@
   </si>
   <si>
     <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灾厄之狐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4292,6 +4288,14 @@
   </si>
   <si>
     <t>最后一天第2张票的最后15秒打出来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气垫船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5720,9 +5724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C632" sqref="C632:C647"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H632" sqref="H632:H635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5752,7 +5756,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="74" t="s">
         <v>1</v>
@@ -5761,13 +5765,13 @@
         <v>208</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J1" s="130"/>
       <c r="K1" s="131"/>
@@ -5809,7 +5813,7 @@
       <c r="E4" s="76"/>
       <c r="F4" s="79"/>
       <c r="J4" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5820,7 +5824,7 @@
       <c r="E5" s="76"/>
       <c r="F5" s="79"/>
       <c r="J5" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5831,7 +5835,7 @@
       <c r="E6" s="76"/>
       <c r="F6" s="79"/>
       <c r="J6" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7263,7 +7267,7 @@
         <v>29</v>
       </c>
       <c r="C170" s="132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D170" s="135" t="s">
         <v>28</v>
@@ -7508,7 +7512,7 @@
       </c>
       <c r="C196" s="133"/>
       <c r="D196" s="132" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E196" s="132" t="s">
         <v>194</v>
@@ -8202,7 +8206,7 @@
         <v>45414</v>
       </c>
       <c r="C275" s="132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D275" s="144" t="s">
         <v>54</v>
@@ -8276,7 +8280,7 @@
         <v>45421</v>
       </c>
       <c r="C282" s="132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D282" s="136"/>
       <c r="E282" s="87"/>
@@ -8648,7 +8652,7 @@
       </c>
       <c r="C322" s="133"/>
       <c r="D322" s="132" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E322" s="135" t="s">
         <v>206</v>
@@ -8732,7 +8736,7 @@
       <c r="E331" s="88"/>
       <c r="F331" s="79"/>
       <c r="G331" s="139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9590,7 +9594,7 @@
         <v>45568</v>
       </c>
       <c r="C429" s="132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D429" s="132" t="s">
         <v>93</v>
@@ -9970,7 +9974,7 @@
       </c>
       <c r="C471" s="133"/>
       <c r="D471" s="132" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E471" s="132" t="s">
         <v>220</v>
@@ -10214,7 +10218,7 @@
       <c r="D499" s="136"/>
       <c r="E499" s="87"/>
       <c r="G499" s="132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -10276,7 +10280,7 @@
         <v>45645</v>
       </c>
       <c r="B506" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C506" s="133" t="s">
         <v>118</v>
@@ -10387,22 +10391,22 @@
         <v>45659</v>
       </c>
       <c r="B520" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C520" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="C520" s="132" t="s">
+      <c r="D520" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="D520" s="134" t="s">
-        <v>281</v>
-      </c>
       <c r="E520" s="132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F520" s="80">
         <v>1</v>
       </c>
       <c r="G520" s="132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -10508,16 +10512,16 @@
         <v>45673</v>
       </c>
       <c r="B534" s="75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C534" s="132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D534" s="132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G534" s="132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -10573,13 +10577,13 @@
         <v>45680</v>
       </c>
       <c r="C541" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D541" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="E541" s="134" t="s">
         <v>284</v>
-      </c>
-      <c r="D541" s="132" t="s">
-        <v>286</v>
-      </c>
-      <c r="E541" s="134" t="s">
-        <v>285</v>
       </c>
       <c r="F541" s="80">
         <v>1</v>
@@ -10636,7 +10640,7 @@
       <c r="C548" s="133"/>
       <c r="D548" s="133"/>
       <c r="G548" s="132" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -10692,13 +10696,13 @@
         <v>45694</v>
       </c>
       <c r="C555" s="132" t="s">
+        <v>422</v>
+      </c>
+      <c r="D555" s="132" t="s">
         <v>423</v>
       </c>
-      <c r="D555" s="132" t="s">
+      <c r="E555" s="74" t="s">
         <v>424</v>
-      </c>
-      <c r="E555" s="74" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -10748,16 +10752,16 @@
         <v>45701</v>
       </c>
       <c r="C562" s="132" t="s">
+        <v>425</v>
+      </c>
+      <c r="D562" s="132" t="s">
+        <v>427</v>
+      </c>
+      <c r="E562" s="74" t="s">
         <v>426</v>
       </c>
-      <c r="D562" s="132" t="s">
-        <v>428</v>
-      </c>
-      <c r="E562" s="74" t="s">
-        <v>427</v>
-      </c>
       <c r="G562" s="132" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -10813,13 +10817,13 @@
         <v>45708</v>
       </c>
       <c r="C569" s="132" t="s">
+        <v>428</v>
+      </c>
+      <c r="D569" s="132" t="s">
         <v>429</v>
       </c>
-      <c r="D569" s="132" t="s">
+      <c r="E569" s="132" t="s">
         <v>430</v>
-      </c>
-      <c r="E569" s="132" t="s">
-        <v>431</v>
       </c>
       <c r="F569" s="80">
         <v>1</v>
@@ -10873,11 +10877,11 @@
         <v>45715</v>
       </c>
       <c r="C576" s="132" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D576" s="133"/>
       <c r="G576" s="132" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -10933,16 +10937,16 @@
         <v>45722</v>
       </c>
       <c r="B583" s="75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C583" s="127" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D583" s="127" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E583" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -10992,22 +10996,22 @@
         <v>45729</v>
       </c>
       <c r="B590" s="75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C590" s="127" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D590" s="127" t="s">
+        <v>486</v>
+      </c>
+      <c r="E590" s="74" t="s">
         <v>487</v>
-      </c>
-      <c r="E590" s="74" t="s">
-        <v>488</v>
       </c>
       <c r="F590" s="80">
         <v>1</v>
       </c>
       <c r="G590" s="127" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -11063,13 +11067,13 @@
         <v>45736</v>
       </c>
       <c r="C597" s="127" t="s">
+        <v>488</v>
+      </c>
+      <c r="D597" s="127" t="s">
         <v>489</v>
       </c>
-      <c r="D597" s="127" t="s">
-        <v>490</v>
-      </c>
       <c r="E597" s="127" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -11126,7 +11130,7 @@
       <c r="C604" s="140"/>
       <c r="D604" s="140"/>
       <c r="G604" s="127" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -11182,16 +11186,16 @@
         <v>45750</v>
       </c>
       <c r="C611" s="127" t="s">
+        <v>877</v>
+      </c>
+      <c r="D611" s="127" t="s">
+        <v>879</v>
+      </c>
+      <c r="E611" s="74" t="s">
         <v>878</v>
       </c>
-      <c r="D611" s="127" t="s">
-        <v>880</v>
-      </c>
-      <c r="E611" s="74" t="s">
-        <v>879</v>
-      </c>
       <c r="G611" s="127" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -11247,10 +11251,10 @@
         <v>45757</v>
       </c>
       <c r="C618" s="127" t="s">
+        <v>882</v>
+      </c>
+      <c r="D618" s="127" t="s">
         <v>883</v>
-      </c>
-      <c r="D618" s="127" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -11286,13 +11290,13 @@
         <v>45762</v>
       </c>
       <c r="C623" s="127" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D623" s="127" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E623" s="74" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -11309,7 +11313,7 @@
       <c r="C625" s="140"/>
       <c r="D625" s="140"/>
       <c r="G625" s="139" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -11365,19 +11369,19 @@
         <v>45771</v>
       </c>
       <c r="C632" s="127" t="s">
+        <v>887</v>
+      </c>
+      <c r="D632" s="148" t="s">
         <v>888</v>
       </c>
-      <c r="D632" s="148" t="s">
-        <v>889</v>
-      </c>
       <c r="E632" s="151" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F632" s="80">
         <v>1</v>
       </c>
       <c r="H632" s="127" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -11437,7 +11441,7 @@
       <c r="C639" s="140"/>
       <c r="D639" s="149"/>
       <c r="G639" s="139" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -11454,10 +11458,10 @@
       </c>
       <c r="C641" s="140"/>
       <c r="D641" s="152" t="s">
+        <v>892</v>
+      </c>
+      <c r="E641" s="125" t="s">
         <v>893</v>
-      </c>
-      <c r="E641" s="125" t="s">
-        <v>894</v>
       </c>
       <c r="F641" s="80">
         <v>1</v>
@@ -11515,13 +11519,13 @@
         <v>45787</v>
       </c>
       <c r="C648" s="139" t="s">
+        <v>897</v>
+      </c>
+      <c r="D648" s="127" t="s">
+        <v>899</v>
+      </c>
+      <c r="E648" s="127" t="s">
         <v>898</v>
-      </c>
-      <c r="D648" s="127" t="s">
-        <v>900</v>
-      </c>
-      <c r="E648" s="127" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -11539,7 +11543,7 @@
       <c r="C650" s="140"/>
       <c r="D650" s="140"/>
       <c r="E650" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -11563,7 +11567,7 @@
       <c r="C653" s="140"/>
       <c r="D653" s="140"/>
       <c r="G653" s="139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -11870,11 +11874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174900A-500F-4D9E-B37A-2A32C96980DD}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F140" sqref="F140:F142"/>
+      <selection pane="bottomRight" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11890,25 +11894,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="E1" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="F1" s="74" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="74" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="74" t="s">
+      <c r="H1" s="74" t="s">
         <v>442</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11916,7 +11920,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C2" s="75">
         <v>44252</v>
@@ -11930,22 +11934,22 @@
       <c r="F2" s="133"/>
       <c r="G2" s="133"/>
       <c r="H2" s="133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="133"/>
       <c r="B3" s="74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" s="75">
         <v>44529</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
@@ -11954,7 +11958,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="133"/>
       <c r="B4" s="74" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="75">
         <v>45155</v>
@@ -11974,7 +11978,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C5" s="75">
         <v>44315</v>
@@ -11988,22 +11992,22 @@
       <c r="F5" s="133"/>
       <c r="G5" s="133"/>
       <c r="H5" s="133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="133"/>
       <c r="B6" s="74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F6" s="133"/>
       <c r="G6" s="133"/>
@@ -12012,7 +12016,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="133"/>
       <c r="B7" s="74" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C7" s="75">
         <v>45183</v>
@@ -12032,7 +12036,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" s="75">
         <v>44377</v>
@@ -12047,25 +12051,25 @@
         <v>157</v>
       </c>
       <c r="G8" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H8" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="133"/>
       <c r="B9" s="74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -12074,7 +12078,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="133"/>
       <c r="B10" s="74" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="75">
         <v>45225</v>
@@ -12094,7 +12098,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" s="75">
         <v>44406</v>
@@ -12109,25 +12113,25 @@
         <v>158</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="133"/>
       <c r="B12" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
@@ -12136,7 +12140,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="133"/>
       <c r="B13" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C13" s="75">
         <v>45267</v>
@@ -12166,22 +12170,22 @@
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H14" s="133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="133"/>
       <c r="C15" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
@@ -12195,7 +12199,9 @@
       <c r="D16" s="75">
         <v>45519</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75">
+        <v>45757</v>
+      </c>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133"/>
@@ -12215,22 +12221,22 @@
       </c>
       <c r="F17" s="133"/>
       <c r="G17" s="133" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="133"/>
       <c r="C18" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="133"/>
       <c r="G18" s="133"/>
@@ -12257,27 +12263,27 @@
         <v>44501</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F20" s="133"/>
       <c r="G20" s="133"/>
       <c r="H20" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="133"/>
       <c r="C21" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
@@ -12289,10 +12295,10 @@
         <v>45414</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
@@ -12306,7 +12312,7 @@
         <v>44509</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E23" s="75">
         <v>45315</v>
@@ -12314,19 +12320,19 @@
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="133"/>
       <c r="C24" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D24" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>453</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>454</v>
       </c>
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
@@ -12338,7 +12344,7 @@
         <v>45281</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
@@ -12359,22 +12365,22 @@
       </c>
       <c r="F26" s="133"/>
       <c r="G26" s="133" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H26" s="133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="133"/>
       <c r="C27" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F27" s="133"/>
       <c r="G27" s="133"/>
@@ -12407,25 +12413,25 @@
         <v>45301</v>
       </c>
       <c r="F29" s="133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G29" s="133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H29" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="133"/>
       <c r="C30" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F30" s="133"/>
       <c r="G30" s="133"/>
@@ -12458,23 +12464,23 @@
         <v>45336</v>
       </c>
       <c r="F32" s="132" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32" s="133"/>
       <c r="H32" s="133" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="133"/>
       <c r="C33" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F33" s="133"/>
       <c r="G33" s="133"/>
@@ -12509,19 +12515,19 @@
       <c r="F35" s="133"/>
       <c r="G35" s="133"/>
       <c r="H35" s="133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="133"/>
       <c r="C36" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F36" s="133"/>
       <c r="G36" s="133"/>
@@ -12556,19 +12562,19 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="133"/>
       <c r="C39" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D39" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F39" s="133"/>
       <c r="G39" s="133"/>
@@ -12603,19 +12609,19 @@
       <c r="F41" s="133"/>
       <c r="G41" s="133"/>
       <c r="H41" s="133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="133"/>
       <c r="C42" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F42" s="133"/>
       <c r="G42" s="133"/>
@@ -12639,10 +12645,10 @@
         <v>137</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E44" s="75">
         <v>45315</v>
@@ -12650,19 +12656,19 @@
       <c r="F44" s="133"/>
       <c r="G44" s="133"/>
       <c r="H44" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="133"/>
       <c r="C45" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D45" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E45" s="74" t="s">
         <v>453</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>454</v>
       </c>
       <c r="F45" s="133"/>
       <c r="G45" s="133"/>
@@ -12674,7 +12680,7 @@
         <v>45421</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F46" s="133"/>
       <c r="G46" s="133"/>
@@ -12697,22 +12703,22 @@
         <v>159</v>
       </c>
       <c r="G47" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H47" s="133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="133"/>
       <c r="C48" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F48" s="133"/>
       <c r="G48" s="133"/>
@@ -12742,24 +12748,24 @@
         <v>45124</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F50" s="133"/>
       <c r="G50" s="133"/>
       <c r="H50" s="133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="133"/>
       <c r="C51" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D51" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E51" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F51" s="133"/>
       <c r="G51" s="133"/>
@@ -12772,7 +12778,7 @@
       </c>
       <c r="D52" s="75"/>
       <c r="E52" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F52" s="133"/>
       <c r="G52" s="133"/>
@@ -12783,10 +12789,10 @@
         <v>140</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E53" s="75">
         <v>45315</v>
@@ -12794,19 +12800,19 @@
       <c r="F53" s="133"/>
       <c r="G53" s="133"/>
       <c r="H53" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="133"/>
       <c r="C54" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D54" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E54" s="74" t="s">
         <v>453</v>
-      </c>
-      <c r="E54" s="74" t="s">
-        <v>454</v>
       </c>
       <c r="F54" s="133"/>
       <c r="G54" s="133"/>
@@ -12818,7 +12824,7 @@
         <v>45477</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F55" s="133"/>
       <c r="G55" s="133"/>
@@ -12838,22 +12844,22 @@
         <v>45459</v>
       </c>
       <c r="F56" s="132" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G56" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H56" s="133" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="133"/>
       <c r="C57" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D57" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="133"/>
@@ -12889,19 +12895,19 @@
       <c r="F59" s="133"/>
       <c r="G59" s="133"/>
       <c r="H59" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="133"/>
       <c r="C60" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E60" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F60" s="133"/>
       <c r="G60" s="133"/>
@@ -12934,22 +12940,22 @@
         <v>45637</v>
       </c>
       <c r="F62" s="139" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G62" s="133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H62" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="133"/>
       <c r="C63" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E63" s="75"/>
       <c r="F63" s="140"/>
@@ -12984,17 +12990,17 @@
       </c>
       <c r="F65" s="140"/>
       <c r="G65" s="133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H65" s="133"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="133"/>
       <c r="C66" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E66" s="75"/>
       <c r="F66" s="140"/>
@@ -13017,10 +13023,10 @@
         <v>145</v>
       </c>
       <c r="C68" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D68" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E68" s="75">
         <v>45315</v>
@@ -13028,16 +13034,16 @@
       <c r="F68" s="133"/>
       <c r="G68" s="133"/>
       <c r="H68" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="133"/>
       <c r="C69" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D69" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F69" s="133"/>
       <c r="G69" s="133"/>
@@ -13049,7 +13055,7 @@
         <v>45526</v>
       </c>
       <c r="D70" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F70" s="133"/>
       <c r="G70" s="133"/>
@@ -13069,22 +13075,22 @@
         <v>45728</v>
       </c>
       <c r="F71" s="133" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G71" s="133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H71" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="133"/>
       <c r="C72" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D72" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E72" s="75"/>
       <c r="F72" s="133"/>
@@ -13116,22 +13122,22 @@
         <v>45370</v>
       </c>
       <c r="F74" s="133" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G74" s="133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H74" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="133"/>
       <c r="C75" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D75" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E75" s="75"/>
       <c r="F75" s="133"/>
@@ -13157,13 +13163,13 @@
         <v>44950</v>
       </c>
       <c r="D77" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F77" s="132" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G77" s="133"/>
       <c r="H77" s="133"/>
@@ -13171,13 +13177,13 @@
     <row r="78" spans="1:8">
       <c r="A78" s="133"/>
       <c r="C78" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F78" s="133"/>
       <c r="G78" s="133"/>
@@ -13189,10 +13195,10 @@
         <v>45603</v>
       </c>
       <c r="D79" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E79" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F79" s="133"/>
       <c r="G79" s="133"/>
@@ -13206,13 +13212,13 @@
         <v>44979</v>
       </c>
       <c r="D80" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E80" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F80" s="132" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G80" s="133"/>
       <c r="H80" s="133"/>
@@ -13220,13 +13226,13 @@
     <row r="81" spans="1:8" ht="13.2" customHeight="1">
       <c r="A81" s="133"/>
       <c r="C81" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D81" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E81" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F81" s="133"/>
       <c r="G81" s="133"/>
@@ -13238,10 +13244,10 @@
         <v>45631</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E82" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F82" s="133"/>
       <c r="G82" s="133"/>
@@ -13255,13 +13261,13 @@
         <v>44988</v>
       </c>
       <c r="D83" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F83" s="127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G83" s="133"/>
       <c r="H83" s="133"/>
@@ -13269,13 +13275,13 @@
     <row r="84" spans="1:8">
       <c r="A84" s="133"/>
       <c r="C84" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D84" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E84" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F84" s="128"/>
       <c r="G84" s="133"/>
@@ -13287,10 +13293,10 @@
         <v>45645</v>
       </c>
       <c r="D85" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E85" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F85" s="128"/>
       <c r="G85" s="133"/>
@@ -13304,10 +13310,10 @@
         <v>44997</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E86" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F86" s="128"/>
       <c r="G86" s="133"/>
@@ -13316,13 +13322,13 @@
     <row r="87" spans="1:8">
       <c r="A87" s="133"/>
       <c r="C87" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D87" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E87" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F87" s="128"/>
       <c r="G87" s="133"/>
@@ -13334,10 +13340,10 @@
         <v>45649</v>
       </c>
       <c r="D88" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E88" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F88" s="129"/>
       <c r="G88" s="133"/>
@@ -13358,19 +13364,19 @@
       </c>
       <c r="F89" s="133"/>
       <c r="G89" s="133" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H89" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="133"/>
       <c r="C90" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E90" s="75"/>
       <c r="F90" s="133"/>
@@ -13402,16 +13408,16 @@
       <c r="F92" s="133"/>
       <c r="G92" s="133"/>
       <c r="H92" s="133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="133"/>
       <c r="C93" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E93" s="75"/>
       <c r="F93" s="133"/>
@@ -13444,19 +13450,19 @@
         <v>156</v>
       </c>
       <c r="G95" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H95" s="133" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="133"/>
       <c r="C96" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D96" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E96" s="75"/>
       <c r="F96" s="133"/>
@@ -13485,19 +13491,19 @@
         <v>45539</v>
       </c>
       <c r="F98" s="132" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G98" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H98" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="133"/>
       <c r="C99" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F99" s="133"/>
       <c r="G99" s="133"/>
@@ -13525,16 +13531,16 @@
       <c r="F101" s="133"/>
       <c r="G101" s="133"/>
       <c r="H101" s="133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="133"/>
       <c r="C102" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D102" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F102" s="133"/>
       <c r="G102" s="133"/>
@@ -13562,13 +13568,13 @@
       <c r="F104" s="133"/>
       <c r="G104" s="133"/>
       <c r="H104" s="133" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="133"/>
       <c r="C105" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F105" s="133"/>
       <c r="G105" s="133"/>
@@ -13587,27 +13593,15 @@
       <c r="C107" s="75">
         <v>45223</v>
       </c>
-      <c r="D107" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E107" s="74" t="s">
-        <v>453</v>
-      </c>
       <c r="F107" s="133"/>
       <c r="G107" s="133"/>
       <c r="H107" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="133"/>
       <c r="C108" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="D108" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E108" s="74" t="s">
         <v>453</v>
       </c>
       <c r="F108" s="133"/>
@@ -13616,12 +13610,6 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="133"/>
-      <c r="D109" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="E109" s="74" t="s">
-        <v>453</v>
-      </c>
       <c r="F109" s="133"/>
       <c r="G109" s="133"/>
       <c r="H109" s="133"/>
@@ -13634,29 +13622,29 @@
         <v>45266</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E110" s="75">
         <v>45315</v>
       </c>
       <c r="F110" s="133"/>
       <c r="G110" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H110" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="133"/>
       <c r="C111" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D111" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" s="74" t="s">
         <v>453</v>
-      </c>
-      <c r="E111" s="74" t="s">
-        <v>454</v>
       </c>
       <c r="F111" s="133"/>
       <c r="G111" s="133"/>
@@ -13668,7 +13656,7 @@
         <v>45526</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F112" s="133"/>
       <c r="G112" s="133"/>
@@ -13685,19 +13673,19 @@
         <v>45700</v>
       </c>
       <c r="F113" s="133" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G113" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H113" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="133"/>
       <c r="C114" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F114" s="133"/>
       <c r="G114" s="133"/>
@@ -13723,16 +13711,16 @@
         <v>175</v>
       </c>
       <c r="G116" s="133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H116" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="133"/>
       <c r="C117" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F117" s="133"/>
       <c r="G117" s="133"/>
@@ -13751,18 +13739,21 @@
       <c r="C119" s="75">
         <v>45343</v>
       </c>
+      <c r="D119" s="75">
+        <v>45756</v>
+      </c>
       <c r="F119" s="133"/>
       <c r="G119" s="133" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H119" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="133"/>
       <c r="C120" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F120" s="133"/>
       <c r="G120" s="133"/>
@@ -13783,16 +13774,16 @@
       </c>
       <c r="F122" s="133"/>
       <c r="G122" s="133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H122" s="133" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="133"/>
       <c r="C123" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F123" s="133"/>
       <c r="G123" s="133"/>
@@ -13813,16 +13804,16 @@
       </c>
       <c r="F125" s="133"/>
       <c r="G125" s="133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H125" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="133"/>
       <c r="C126" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F126" s="133"/>
       <c r="G126" s="133"/>
@@ -13845,16 +13836,16 @@
         <v>170</v>
       </c>
       <c r="G128" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H128" s="133" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="133"/>
       <c r="C129" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F129" s="133"/>
       <c r="G129" s="133"/>
@@ -13874,19 +13865,19 @@
         <v>45495</v>
       </c>
       <c r="F131" s="132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G131" s="133" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H131" s="133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="133"/>
       <c r="C132" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F132" s="133"/>
       <c r="G132" s="133"/>
@@ -13907,16 +13898,16 @@
       </c>
       <c r="F134" s="133"/>
       <c r="G134" s="133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H134" s="133" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="133"/>
       <c r="C135" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F135" s="133"/>
       <c r="G135" s="133"/>
@@ -13936,20 +13927,20 @@
         <v>45560</v>
       </c>
       <c r="F137" s="133" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G137" s="133"/>
       <c r="H137" s="133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="133"/>
       <c r="C138" s="74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D138" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F138" s="133"/>
       <c r="G138" s="133"/>
@@ -13970,10 +13961,10 @@
       </c>
       <c r="F140" s="133"/>
       <c r="G140" s="133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H140" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -13990,7 +13981,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="133" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C143" s="75">
         <v>45602</v>
@@ -13998,7 +13989,7 @@
       <c r="F143" s="133"/>
       <c r="G143" s="133"/>
       <c r="H143" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -14015,17 +14006,17 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C146" s="75">
         <v>45650</v>
       </c>
       <c r="F146" s="133"/>
       <c r="G146" s="133" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H146" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -14042,19 +14033,19 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="133" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C149" s="75">
         <v>45677</v>
       </c>
       <c r="F149" s="133" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G149" s="133" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H149" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -14071,7 +14062,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="133" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C152" s="75">
         <v>45691</v>
@@ -14079,7 +14070,7 @@
       <c r="F152" s="133"/>
       <c r="G152" s="133"/>
       <c r="H152" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -14096,7 +14087,7 @@
     </row>
     <row r="155" spans="1:8" ht="15.6" customHeight="1">
       <c r="A155" s="155" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B155" s="92"/>
       <c r="C155" s="75">
@@ -14104,10 +14095,10 @@
       </c>
       <c r="F155" s="139"/>
       <c r="G155" s="139" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H155" s="139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -14128,10 +14119,10 @@
       <c r="A158" s="139"/>
       <c r="F158" s="139"/>
       <c r="G158" s="139" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H158" s="139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -14406,10 +14397,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14436,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>230</v>
@@ -14451,16 +14442,16 @@
         <v>229</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>230</v>
@@ -14482,6 +14473,9 @@
       <c r="A2" s="2">
         <v>45148</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>911</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>237</v>
       </c>
@@ -14527,10 +14521,10 @@
         <v>264</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -14553,10 +14547,10 @@
         <v>260</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -14579,10 +14573,10 @@
         <v>264</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -14596,7 +14590,7 @@
         <v>243</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>255</v>
@@ -14634,10 +14628,10 @@
         <v>263</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -14660,10 +14654,10 @@
         <v>263</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -14680,13 +14674,13 @@
         <v>243</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G9" s="1">
         <v>91228</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>258</v>
@@ -14698,10 +14692,10 @@
         <v>264</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -14718,16 +14712,16 @@
         <v>233</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G10" s="1">
         <v>93025</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>264</v>
@@ -14736,10 +14730,10 @@
         <v>263</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -14756,7 +14750,7 @@
         <v>231</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G11" s="1">
         <v>67203</v>
@@ -14765,7 +14759,7 @@
         <v>235</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>265</v>
+        <v>910</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>260</v>
@@ -14777,7 +14771,7 @@
         <v>232</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -14794,7 +14788,7 @@
         <v>243</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G12" s="1">
         <v>62577</v>
@@ -14806,7 +14800,7 @@
         <v>259</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>263</v>
@@ -14815,7 +14809,7 @@
         <v>234</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -14832,7 +14826,7 @@
         <v>233</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G13" s="1">
         <v>71558</v>
@@ -14855,7 +14849,7 @@
         <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G14" s="1">
         <v>64868</v>
@@ -14878,7 +14872,7 @@
         <v>243</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G15" s="1">
         <v>56699</v>
@@ -14901,7 +14895,7 @@
         <v>233</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G16" s="1">
         <v>65196</v>
@@ -14930,7 +14924,7 @@
         <v>242</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14955,10 +14949,10 @@
         <v>242</v>
       </c>
       <c r="I18" s="159" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -15039,7 +15033,7 @@
         <v>242</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -15085,7 +15079,7 @@
         <v>242</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -15191,7 +15185,7 @@
         <v>242</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -15217,7 +15211,7 @@
         <v>247</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -15283,7 +15277,7 @@
         <v>242</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -15310,10 +15304,10 @@
         <v>247</v>
       </c>
       <c r="I34" s="159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J34" s="159" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -15351,7 +15345,7 @@
         <v>247</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -15377,7 +15371,7 @@
         <v>247</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -15400,7 +15394,7 @@
         <v>247</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -15426,7 +15420,7 @@
         <v>247</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -15455,7 +15449,7 @@
         <v>247</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -15481,10 +15475,10 @@
         <v>247</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -15511,10 +15505,10 @@
         <v>247</v>
       </c>
       <c r="I42" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J42" s="159" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -15552,7 +15546,7 @@
         <v>247</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -15578,10 +15572,10 @@
         <v>247</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -15607,7 +15601,7 @@
         <v>247</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -15633,10 +15627,10 @@
         <v>247</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -15660,13 +15654,13 @@
         <v>1654</v>
       </c>
       <c r="H48" s="158" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J48" s="159" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -15679,7 +15673,7 @@
       <c r="G49" s="158"/>
       <c r="H49" s="158"/>
       <c r="I49" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J49" s="159"/>
     </row>
@@ -15693,7 +15687,7 @@
       <c r="G50" s="158"/>
       <c r="H50" s="158"/>
       <c r="I50" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J50" s="159"/>
     </row>
@@ -15705,7 +15699,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>243</v>
@@ -15720,10 +15714,10 @@
         <v>247</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -15753,7 +15747,7 @@
         <v>45792</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>231</v>
@@ -15830,10 +15824,10 @@
   <dimension ref="A1:AD197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomRight" activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15852,149 +15846,149 @@
     <row r="1" spans="1:30" s="45" customFormat="1" ht="14.4" thickBot="1">
       <c r="B1" s="46"/>
       <c r="E1" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>495</v>
+      </c>
+      <c r="N1" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="K1" s="52" t="s">
+      <c r="O1" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="L1" s="96" t="s">
-        <v>495</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>496</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="O1" s="45" t="s">
+      <c r="P1" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="54" t="s">
         <v>421</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="A2" s="124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>476</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="T2" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="T2" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="W2" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Z2" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AA2" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="AA2" s="24" t="s">
-        <v>321</v>
-      </c>
       <c r="AB2" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC2" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A3" s="165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="109" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F3" s="27">
         <v>45141</v>
@@ -16010,13 +16004,13 @@
       <c r="A4" s="166"/>
       <c r="B4" s="162"/>
       <c r="C4" s="63" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F4" s="28">
         <v>45141</v>
@@ -16035,13 +16029,13 @@
       <c r="A5" s="166"/>
       <c r="B5" s="162"/>
       <c r="C5" s="63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F5" s="98">
         <v>45141</v>
@@ -16054,10 +16048,10 @@
       <c r="A6" s="166"/>
       <c r="B6" s="162"/>
       <c r="C6" s="63" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E6" s="110"/>
       <c r="F6" s="28">
@@ -16071,10 +16065,10 @@
       <c r="A7" s="167"/>
       <c r="B7" s="168"/>
       <c r="C7" s="64" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="30">
@@ -16089,16 +16083,16 @@
     </row>
     <row r="8" spans="1:30" ht="18.600000000000001" thickTop="1">
       <c r="A8" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" s="164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" s="63" t="s">
+        <v>686</v>
+      </c>
+      <c r="D8" s="110" t="s">
         <v>687</v>
-      </c>
-      <c r="D8" s="110" t="s">
-        <v>688</v>
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="72">
@@ -16112,10 +16106,10 @@
       <c r="A9" s="166"/>
       <c r="B9" s="162"/>
       <c r="C9" s="63" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D9" s="110" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="28">
@@ -16126,10 +16120,10 @@
       <c r="A10" s="166"/>
       <c r="B10" s="162"/>
       <c r="C10" s="63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E10" s="110"/>
       <c r="F10" s="100">
@@ -16143,10 +16137,10 @@
       <c r="A11" s="166"/>
       <c r="B11" s="162"/>
       <c r="C11" s="63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F11" s="31">
         <v>1</v>
@@ -16156,10 +16150,10 @@
       <c r="A12" s="166"/>
       <c r="B12" s="163"/>
       <c r="C12" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="D12" s="114" t="s">
         <v>684</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>685</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="32">
@@ -16169,16 +16163,16 @@
     <row r="13" spans="1:30" ht="18">
       <c r="A13" s="166"/>
       <c r="B13" s="161" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F13" s="28">
         <v>45141</v>
@@ -16197,13 +16191,13 @@
       <c r="A14" s="166"/>
       <c r="B14" s="162"/>
       <c r="C14" s="63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E14" s="116" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F14" s="28">
         <v>45281</v>
@@ -16216,13 +16210,13 @@
       <c r="A15" s="166"/>
       <c r="B15" s="162"/>
       <c r="C15" s="63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F15" s="28">
         <v>45141</v>
@@ -16235,10 +16229,10 @@
       <c r="A16" s="166"/>
       <c r="B16" s="163"/>
       <c r="C16" s="63" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E16" s="110"/>
       <c r="F16" s="28">
@@ -16251,13 +16245,13 @@
     <row r="17" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A17" s="166"/>
       <c r="B17" s="161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="33">
@@ -16274,10 +16268,10 @@
       <c r="A18" s="166"/>
       <c r="B18" s="162"/>
       <c r="C18" s="63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E18" s="110"/>
       <c r="F18" s="101">
@@ -16294,13 +16288,13 @@
       <c r="A19" s="166"/>
       <c r="B19" s="162"/>
       <c r="C19" s="63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F19" s="101">
         <v>45141</v>
@@ -16319,10 +16313,10 @@
       <c r="A20" s="166"/>
       <c r="B20" s="163"/>
       <c r="C20" s="63" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E20" s="110"/>
       <c r="F20" s="101">
@@ -16341,13 +16335,13 @@
     <row r="21" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A21" s="166"/>
       <c r="B21" s="161" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="102">
@@ -16364,10 +16358,10 @@
       <c r="A22" s="166"/>
       <c r="B22" s="163"/>
       <c r="C22" s="63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F22" s="101">
         <v>45141</v>
@@ -16379,13 +16373,13 @@
     <row r="23" spans="1:30" s="11" customFormat="1">
       <c r="A23" s="166"/>
       <c r="B23" s="161" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F23" s="33">
         <v>45141</v>
@@ -16401,10 +16395,10 @@
       <c r="A24" s="166"/>
       <c r="B24" s="162"/>
       <c r="C24" s="63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E24" s="113"/>
       <c r="F24" s="101">
@@ -16418,13 +16412,13 @@
       <c r="A25" s="166"/>
       <c r="B25" s="162"/>
       <c r="C25" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E25" s="116" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F25" s="101">
         <v>45141</v>
@@ -16437,10 +16431,10 @@
       <c r="A26" s="166"/>
       <c r="B26" s="163"/>
       <c r="C26" s="63" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F26" s="28">
         <v>45141</v>
@@ -16455,16 +16449,16 @@
     <row r="27" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="166"/>
       <c r="B27" s="58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F27" s="33">
         <v>45335</v>
@@ -16476,16 +16470,16 @@
     <row r="28" spans="1:30" s="11" customFormat="1">
       <c r="A28" s="166"/>
       <c r="B28" s="161" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F28" s="34">
         <v>1</v>
@@ -16495,10 +16489,10 @@
       <c r="A29" s="166"/>
       <c r="B29" s="163"/>
       <c r="C29" s="63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E29" s="110"/>
       <c r="F29" s="35">
@@ -16508,13 +16502,13 @@
     <row r="30" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A30" s="166"/>
       <c r="B30" s="161" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E30" s="112"/>
       <c r="F30" s="34">
@@ -16525,10 +16519,10 @@
       <c r="A31" s="166"/>
       <c r="B31" s="163"/>
       <c r="C31" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E31" s="110"/>
       <c r="F31" s="31">
@@ -16547,16 +16541,16 @@
     </row>
     <row r="34" spans="1:29" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A34" s="165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E34" s="109"/>
       <c r="F34" s="70">
@@ -16568,13 +16562,13 @@
       <c r="A35" s="166"/>
       <c r="B35" s="162"/>
       <c r="C35" s="63" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E35" s="116" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F35" s="28">
         <v>45141</v>
@@ -16590,10 +16584,10 @@
       <c r="A36" s="166"/>
       <c r="B36" s="162"/>
       <c r="C36" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E36" s="110"/>
       <c r="F36" s="35">
@@ -16607,10 +16601,10 @@
       <c r="A37" s="166"/>
       <c r="B37" s="163"/>
       <c r="C37" s="63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E37" s="110"/>
       <c r="F37" s="35">
@@ -16626,16 +16620,16 @@
     <row r="38" spans="1:29" s="11" customFormat="1">
       <c r="A38" s="166"/>
       <c r="B38" s="161" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F38" s="33">
         <v>45141</v>
@@ -16651,10 +16645,10 @@
       <c r="A39" s="166"/>
       <c r="B39" s="162"/>
       <c r="C39" s="63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E39" s="110"/>
       <c r="F39" s="101">
@@ -16671,10 +16665,10 @@
       <c r="A40" s="166"/>
       <c r="B40" s="162"/>
       <c r="C40" s="63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D40" s="110" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="28">
@@ -16691,10 +16685,10 @@
       <c r="A41" s="166"/>
       <c r="B41" s="162"/>
       <c r="C41" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F41" s="101">
         <v>45141</v>
@@ -16710,13 +16704,13 @@
       <c r="A42" s="166"/>
       <c r="B42" s="163"/>
       <c r="C42" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E42" s="116" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F42" s="29">
         <v>45631</v>
@@ -16731,13 +16725,13 @@
     <row r="43" spans="1:29" s="11" customFormat="1" ht="12.6" customHeight="1">
       <c r="A43" s="166"/>
       <c r="B43" s="169" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F43" s="33">
         <v>45183</v>
@@ -16753,10 +16747,10 @@
       <c r="A44" s="166"/>
       <c r="B44" s="170"/>
       <c r="C44" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D44" s="110" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E44" s="110"/>
       <c r="F44" s="101">
@@ -16773,10 +16767,10 @@
       <c r="A45" s="166"/>
       <c r="B45" s="170"/>
       <c r="C45" s="63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E45" s="110"/>
       <c r="F45" s="28">
@@ -16793,13 +16787,13 @@
       <c r="A46" s="166"/>
       <c r="B46" s="170"/>
       <c r="C46" s="63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D46" s="110" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E46" s="116" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F46" s="28">
         <v>45169</v>
@@ -16815,10 +16809,10 @@
       <c r="A47" s="166"/>
       <c r="B47" s="171"/>
       <c r="C47" s="63" t="s">
+        <v>834</v>
+      </c>
+      <c r="D47" s="110" t="s">
         <v>835</v>
-      </c>
-      <c r="D47" s="110" t="s">
-        <v>836</v>
       </c>
       <c r="E47" s="116"/>
       <c r="F47" s="31">
@@ -16829,13 +16823,13 @@
     <row r="48" spans="1:29" s="11" customFormat="1">
       <c r="A48" s="166"/>
       <c r="B48" s="161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F48" s="102">
         <v>45141</v>
@@ -16848,10 +16842,10 @@
       <c r="A49" s="166"/>
       <c r="B49" s="162"/>
       <c r="C49" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D49" s="110" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E49" s="110"/>
       <c r="F49" s="101">
@@ -16865,10 +16859,10 @@
       <c r="A50" s="166"/>
       <c r="B50" s="163"/>
       <c r="C50" s="63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F50" s="28">
         <v>45141</v>
@@ -16880,13 +16874,13 @@
     <row r="51" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A51" s="166"/>
       <c r="B51" s="161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E51" s="112"/>
       <c r="F51" s="33">
@@ -16900,10 +16894,10 @@
       <c r="A52" s="166"/>
       <c r="B52" s="163"/>
       <c r="C52" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D52" s="110" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E52" s="110"/>
       <c r="F52" s="28">
@@ -16916,13 +16910,13 @@
     <row r="53" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A53" s="166"/>
       <c r="B53" s="161" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D53" s="112" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E53" s="112"/>
       <c r="F53" s="33">
@@ -16939,10 +16933,10 @@
       <c r="A54" s="166"/>
       <c r="B54" s="162"/>
       <c r="C54" s="63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F54" s="101">
         <v>45141</v>
@@ -16958,10 +16952,10 @@
       <c r="A55" s="166"/>
       <c r="B55" s="162"/>
       <c r="C55" s="63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D55" s="110" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E55" s="110"/>
       <c r="F55" s="101">
@@ -16978,10 +16972,10 @@
       <c r="A56" s="166"/>
       <c r="B56" s="163"/>
       <c r="C56" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D56" s="110" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E56" s="110"/>
       <c r="F56" s="28">
@@ -16997,13 +16991,13 @@
     <row r="57" spans="1:30" s="11" customFormat="1" ht="18">
       <c r="A57" s="166"/>
       <c r="B57" s="161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D57" s="112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E57" s="112"/>
       <c r="F57" s="33">
@@ -17017,10 +17011,10 @@
       <c r="A58" s="166"/>
       <c r="B58" s="163"/>
       <c r="C58" s="63" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D58" s="110" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="31">
@@ -17030,13 +17024,13 @@
     <row r="59" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A59" s="166"/>
       <c r="B59" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D59" s="112" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F59" s="34">
         <v>0</v>
@@ -17054,19 +17048,19 @@
     </row>
     <row r="62" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A62" s="165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D62" s="109" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E62" s="118" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F62" s="37">
         <v>45631</v>
@@ -17076,10 +17070,10 @@
       <c r="A63" s="166"/>
       <c r="B63" s="162"/>
       <c r="C63" s="63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D63" s="110" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F63" s="72">
         <v>1</v>
@@ -17089,13 +17083,13 @@
       <c r="A64" s="166"/>
       <c r="B64" s="163"/>
       <c r="C64" s="63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D64" s="113" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E64" s="113" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F64" s="38">
         <v>45603</v>
@@ -17107,13 +17101,13 @@
     <row r="65" spans="1:26" s="11" customFormat="1" ht="18">
       <c r="A65" s="166"/>
       <c r="B65" s="161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E65" s="112"/>
       <c r="F65" s="33">
@@ -17130,13 +17124,13 @@
       <c r="A66" s="166"/>
       <c r="B66" s="162"/>
       <c r="C66" s="63" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D66" s="110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E66" s="116" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F66" s="101">
         <v>45141</v>
@@ -17149,13 +17143,13 @@
       <c r="A67" s="166"/>
       <c r="B67" s="162"/>
       <c r="C67" s="63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E67" s="116" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F67" s="28">
         <v>45148</v>
@@ -17168,10 +17162,10 @@
       <c r="A68" s="166"/>
       <c r="B68" s="163"/>
       <c r="C68" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F68" s="31">
         <v>1</v>
@@ -17183,13 +17177,13 @@
     <row r="69" spans="1:26" s="11" customFormat="1">
       <c r="A69" s="166"/>
       <c r="B69" s="161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F69" s="39">
         <v>45620</v>
@@ -17205,13 +17199,13 @@
       <c r="A70" s="166"/>
       <c r="B70" s="162"/>
       <c r="C70" s="63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F70" s="28">
         <v>45351</v>
@@ -17224,10 +17218,10 @@
       <c r="A71" s="166"/>
       <c r="B71" s="163"/>
       <c r="C71" s="63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D71" s="110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E71" s="110"/>
       <c r="F71" s="101">
@@ -17243,16 +17237,16 @@
     <row r="72" spans="1:26" s="11" customFormat="1" ht="18">
       <c r="A72" s="166"/>
       <c r="B72" s="161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D72" s="112" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E72" s="117" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F72" s="33">
         <v>45589</v>
@@ -17265,10 +17259,10 @@
       <c r="A73" s="166"/>
       <c r="B73" s="162"/>
       <c r="C73" s="63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D73" s="110" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E73" s="110"/>
       <c r="F73" s="101">
@@ -17282,10 +17276,10 @@
       <c r="A74" s="166"/>
       <c r="B74" s="163"/>
       <c r="C74" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F74" s="101">
         <v>45141</v>
@@ -17300,13 +17294,13 @@
     <row r="75" spans="1:26" s="11" customFormat="1" ht="18">
       <c r="A75" s="166"/>
       <c r="B75" s="161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C75" s="66" t="s">
+        <v>669</v>
+      </c>
+      <c r="D75" s="112" t="s">
         <v>670</v>
-      </c>
-      <c r="D75" s="112" t="s">
-        <v>671</v>
       </c>
       <c r="E75" s="112"/>
       <c r="F75" s="102">
@@ -17317,10 +17311,10 @@
       <c r="A76" s="166"/>
       <c r="B76" s="163"/>
       <c r="C76" s="63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D76" s="110" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F76" s="35">
         <v>45694</v>
@@ -17329,13 +17323,13 @@
     <row r="77" spans="1:26" s="11" customFormat="1" ht="18">
       <c r="A77" s="166"/>
       <c r="B77" s="161" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D77" s="112" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E77" s="112"/>
       <c r="F77" s="33">
@@ -17349,10 +17343,10 @@
       <c r="A78" s="166"/>
       <c r="B78" s="163"/>
       <c r="C78" s="63" t="s">
+        <v>704</v>
+      </c>
+      <c r="D78" s="110" t="s">
         <v>705</v>
-      </c>
-      <c r="D78" s="110" t="s">
-        <v>706</v>
       </c>
       <c r="F78" s="101">
         <v>45141</v>
@@ -17361,16 +17355,16 @@
     <row r="79" spans="1:26" s="11" customFormat="1" ht="18">
       <c r="A79" s="166"/>
       <c r="B79" s="161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D79" s="112" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E79" s="117" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F79" s="33">
         <v>45141</v>
@@ -17383,10 +17377,10 @@
       <c r="A80" s="166"/>
       <c r="B80" s="162"/>
       <c r="C80" s="63" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D80" s="110" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E80" s="110"/>
       <c r="F80" s="101">
@@ -17400,10 +17394,10 @@
       <c r="A81" s="166"/>
       <c r="B81" s="162"/>
       <c r="C81" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D81" s="110" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E81" s="110"/>
       <c r="F81" s="28">
@@ -17417,10 +17411,10 @@
       <c r="A82" s="166"/>
       <c r="B82" s="163"/>
       <c r="C82" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D82" s="110" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E82" s="110"/>
       <c r="F82" s="28">
@@ -17433,13 +17427,13 @@
     <row r="83" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A83" s="166"/>
       <c r="B83" s="161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C83" s="66" t="s">
+        <v>706</v>
+      </c>
+      <c r="D83" s="112" t="s">
         <v>707</v>
-      </c>
-      <c r="D83" s="112" t="s">
-        <v>708</v>
       </c>
       <c r="F83" s="102">
         <v>45141</v>
@@ -17452,10 +17446,10 @@
       <c r="A84" s="166"/>
       <c r="B84" s="162"/>
       <c r="C84" s="63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F84" s="28">
         <v>45477</v>
@@ -17468,10 +17462,10 @@
       <c r="A85" s="166"/>
       <c r="B85" s="162"/>
       <c r="C85" s="63" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D85" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E85" s="110"/>
       <c r="F85" s="28">
@@ -17485,10 +17479,10 @@
       <c r="A86" s="166"/>
       <c r="B86" s="163"/>
       <c r="C86" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="D86" s="110" t="s">
         <v>679</v>
-      </c>
-      <c r="D86" s="110" t="s">
-        <v>680</v>
       </c>
       <c r="E86" s="110"/>
       <c r="F86" s="101">
@@ -17510,16 +17504,16 @@
     </row>
     <row r="89" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A89" s="165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" s="164" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D89" s="109" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E89" s="109"/>
       <c r="F89" s="27">
@@ -17536,10 +17530,10 @@
       <c r="A90" s="166"/>
       <c r="B90" s="162"/>
       <c r="C90" s="63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F90" s="98">
         <v>45295</v>
@@ -17552,10 +17546,10 @@
       <c r="A91" s="166"/>
       <c r="B91" s="163"/>
       <c r="C91" s="63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D91" s="110" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E91" s="110"/>
       <c r="F91" s="28">
@@ -17568,13 +17562,13 @@
     <row r="92" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A92" s="166"/>
       <c r="B92" s="161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D92" s="112" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F92" s="40">
         <v>45183</v>
@@ -17587,10 +17581,10 @@
       <c r="A93" s="166"/>
       <c r="B93" s="163"/>
       <c r="C93" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F93" s="35">
         <v>45561</v>
@@ -17602,13 +17596,13 @@
     <row r="94" spans="1:25" s="11" customFormat="1" ht="14.4" thickBot="1">
       <c r="A94" s="166"/>
       <c r="B94" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C94" s="66" t="s">
+        <v>711</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="F94" s="39">
         <v>45722</v>
@@ -17617,16 +17611,16 @@
     <row r="95" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A95" s="166"/>
       <c r="B95" s="161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D95" s="112" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F95" s="33">
         <v>45787</v>
@@ -17639,10 +17633,10 @@
       <c r="A96" s="166"/>
       <c r="B96" s="163"/>
       <c r="C96" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="D96" s="110" t="s">
         <v>716</v>
-      </c>
-      <c r="D96" s="110" t="s">
-        <v>717</v>
       </c>
       <c r="F96" s="28">
         <v>45787</v>
@@ -17651,13 +17645,13 @@
     <row r="97" spans="1:21" s="11" customFormat="1">
       <c r="A97" s="166"/>
       <c r="B97" s="161" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F97" s="34">
         <v>0</v>
@@ -17667,10 +17661,10 @@
       <c r="A98" s="166"/>
       <c r="B98" s="163"/>
       <c r="C98" s="63" t="s">
+        <v>719</v>
+      </c>
+      <c r="D98" s="110" t="s">
         <v>720</v>
-      </c>
-      <c r="D98" s="110" t="s">
-        <v>721</v>
       </c>
       <c r="F98" s="31">
         <v>0</v>
@@ -17688,16 +17682,16 @@
     </row>
     <row r="101" spans="1:21" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A101" s="165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" s="164" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C101" s="62" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D101" s="109" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F101" s="36">
         <v>0</v>
@@ -17707,10 +17701,10 @@
       <c r="A102" s="166"/>
       <c r="B102" s="162"/>
       <c r="C102" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="D102" s="110" t="s">
         <v>732</v>
-      </c>
-      <c r="D102" s="110" t="s">
-        <v>733</v>
       </c>
       <c r="F102" s="35">
         <v>45701</v>
@@ -17720,10 +17714,10 @@
       <c r="A103" s="166"/>
       <c r="B103" s="163"/>
       <c r="C103" s="63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D103" s="110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F103" s="101">
         <v>45141</v>
@@ -17735,13 +17729,13 @@
     <row r="104" spans="1:21" s="11" customFormat="1" ht="18">
       <c r="A104" s="166"/>
       <c r="B104" s="161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C104" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="D104" s="115" t="s">
         <v>725</v>
-      </c>
-      <c r="D104" s="115" t="s">
-        <v>726</v>
       </c>
       <c r="F104" s="102">
         <v>45155</v>
@@ -17754,10 +17748,10 @@
       <c r="A105" s="166"/>
       <c r="B105" s="162"/>
       <c r="C105" s="63" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D105" s="110" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F105" s="101">
         <v>45141</v>
@@ -17770,10 +17764,10 @@
       <c r="A106" s="166"/>
       <c r="B106" s="163"/>
       <c r="C106" s="63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D106" s="110" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
@@ -17782,13 +17776,13 @@
     <row r="107" spans="1:21" s="11" customFormat="1">
       <c r="A107" s="166"/>
       <c r="B107" s="161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C107" s="66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F107" s="102">
         <v>45141</v>
@@ -17801,10 +17795,10 @@
       <c r="A108" s="166"/>
       <c r="B108" s="162"/>
       <c r="C108" s="63" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D108" s="110" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E108" s="110"/>
       <c r="F108" s="28">
@@ -17818,10 +17812,10 @@
       <c r="A109" s="166"/>
       <c r="B109" s="163"/>
       <c r="C109" s="63" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D109" s="110" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F109" s="41">
         <v>45400</v>
@@ -17833,13 +17827,13 @@
     <row r="110" spans="1:21" s="11" customFormat="1" ht="18">
       <c r="A110" s="166"/>
       <c r="B110" s="161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C110" s="66" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D110" s="112" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F110" s="105">
         <v>45400</v>
@@ -17849,10 +17843,10 @@
       <c r="A111" s="166"/>
       <c r="B111" s="162"/>
       <c r="C111" s="63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D111" s="110" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E111" s="110"/>
       <c r="F111" s="28">
@@ -17866,10 +17860,10 @@
       <c r="A112" s="166"/>
       <c r="B112" s="163"/>
       <c r="C112" s="63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D112" s="110" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F112" s="28">
         <v>45400</v>
@@ -17878,13 +17872,13 @@
     <row r="113" spans="1:25" s="11" customFormat="1">
       <c r="A113" s="166"/>
       <c r="B113" s="161" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C113" s="66" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F113" s="34">
         <v>0</v>
@@ -17894,10 +17888,10 @@
       <c r="A114" s="166"/>
       <c r="B114" s="162"/>
       <c r="C114" s="63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F114" s="31">
         <v>1</v>
@@ -17907,10 +17901,10 @@
       <c r="A115" s="166"/>
       <c r="B115" s="162"/>
       <c r="C115" s="63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D115" s="110" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F115" s="31">
         <v>1</v>
@@ -17920,10 +17914,10 @@
       <c r="A116" s="166"/>
       <c r="B116" s="163"/>
       <c r="C116" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="D116" s="110" t="s">
         <v>728</v>
-      </c>
-      <c r="D116" s="110" t="s">
-        <v>729</v>
       </c>
       <c r="F116" s="31">
         <v>1</v>
@@ -17932,13 +17926,13 @@
     <row r="117" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A117" s="166"/>
       <c r="B117" s="161" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C117" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F117" s="34">
         <v>0</v>
@@ -17948,10 +17942,10 @@
       <c r="A118" s="166"/>
       <c r="B118" s="163"/>
       <c r="C118" s="63" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D118" s="110" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F118" s="31">
         <v>0</v>
@@ -17960,13 +17954,13 @@
     <row r="119" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A119" s="166"/>
       <c r="B119" s="59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C119" s="66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F119" s="34">
         <v>0</v>
@@ -17975,16 +17969,16 @@
     <row r="120" spans="1:25" s="11" customFormat="1" ht="12.6" customHeight="1" thickBot="1">
       <c r="A120" s="166"/>
       <c r="B120" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C120" s="66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E120" s="117" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F120" s="42">
         <v>45330</v>
@@ -18005,16 +17999,16 @@
     </row>
     <row r="123" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A123" s="165" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B123" s="164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D123" s="109" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E123" s="109"/>
       <c r="F123" s="36">
@@ -18028,13 +18022,13 @@
       <c r="A124" s="166"/>
       <c r="B124" s="163"/>
       <c r="C124" s="63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E124" s="116" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F124" s="35">
         <v>45708</v>
@@ -18046,16 +18040,16 @@
     <row r="125" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A125" s="166"/>
       <c r="B125" s="161" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C125" s="66" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D125" s="112" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E125" s="117" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F125" s="33">
         <v>45141</v>
@@ -18071,13 +18065,13 @@
       <c r="A126" s="166"/>
       <c r="B126" s="162"/>
       <c r="C126" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E126" s="116" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F126" s="28">
         <v>45519</v>
@@ -18090,10 +18084,10 @@
       <c r="A127" s="166"/>
       <c r="B127" s="163"/>
       <c r="C127" s="63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F127" s="31">
         <v>0</v>
@@ -18102,13 +18096,13 @@
     <row r="128" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A128" s="166"/>
       <c r="B128" s="161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D128" s="112" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F128" s="107">
         <v>45708</v>
@@ -18124,10 +18118,10 @@
       <c r="A129" s="166"/>
       <c r="B129" s="163"/>
       <c r="C129" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F129" s="31">
         <v>1</v>
@@ -18139,13 +18133,13 @@
     <row r="130" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A130" s="166"/>
       <c r="B130" s="58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D130" s="112" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F130" s="43">
         <v>45141</v>
@@ -18157,13 +18151,13 @@
     <row r="131" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A131" s="166"/>
       <c r="B131" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D131" s="112" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F131" s="34">
         <v>0</v>
@@ -18173,10 +18167,10 @@
     <row r="132" spans="1:25" s="11" customFormat="1" ht="14.4" thickBot="1">
       <c r="A132" s="166"/>
       <c r="B132" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F132" s="34">
         <v>0</v>
@@ -18186,13 +18180,13 @@
     <row r="133" spans="1:25" s="11" customFormat="1" ht="13.2" customHeight="1" thickBot="1">
       <c r="A133" s="166"/>
       <c r="B133" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D133" s="112" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F133" s="34">
         <v>0</v>
@@ -18210,16 +18204,16 @@
     </row>
     <row r="136" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A136" s="165" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B136" s="164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C136" s="62" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D136" s="109" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F136" s="108">
         <v>45610</v>
@@ -18232,10 +18226,10 @@
       <c r="A137" s="166"/>
       <c r="B137" s="163"/>
       <c r="C137" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D137" s="110" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F137" s="31">
         <v>0</v>
@@ -18244,13 +18238,13 @@
     <row r="138" spans="1:25" s="11" customFormat="1" ht="18">
       <c r="A138" s="166"/>
       <c r="B138" s="161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C138" s="66" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D138" s="112" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F138" s="102">
         <v>45253</v>
@@ -18263,10 +18257,10 @@
       <c r="A139" s="166"/>
       <c r="B139" s="163"/>
       <c r="C139" s="63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D139" s="110" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F139" s="98">
         <v>45330</v>
@@ -18287,16 +18281,16 @@
     </row>
     <row r="142" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A142" s="165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B142" s="164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C142" s="62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D142" s="109" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E142" s="109"/>
       <c r="F142" s="27">
@@ -18310,10 +18304,10 @@
       <c r="A143" s="166"/>
       <c r="B143" s="162"/>
       <c r="C143" s="63" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E143" s="110"/>
       <c r="F143" s="35">
@@ -18327,10 +18321,10 @@
       <c r="A144" s="166"/>
       <c r="B144" s="162"/>
       <c r="C144" s="63" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F144" s="28">
         <v>45386</v>
@@ -18343,10 +18337,10 @@
       <c r="A145" s="166"/>
       <c r="B145" s="163"/>
       <c r="C145" s="63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D145" s="110" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E145" s="110"/>
       <c r="F145" s="28">
@@ -18359,13 +18353,13 @@
     <row r="146" spans="1:19" s="11" customFormat="1" ht="18">
       <c r="A146" s="166"/>
       <c r="B146" s="161" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C146" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D146" s="112" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E146" s="112"/>
       <c r="F146" s="34">
@@ -18376,10 +18370,10 @@
       <c r="A147" s="166"/>
       <c r="B147" s="162"/>
       <c r="C147" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F147" s="31">
         <v>0</v>
@@ -18389,10 +18383,10 @@
       <c r="A148" s="166"/>
       <c r="B148" s="162"/>
       <c r="C148" s="63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F148" s="31">
         <v>0</v>
@@ -18402,10 +18396,10 @@
       <c r="A149" s="166"/>
       <c r="B149" s="163"/>
       <c r="C149" s="63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D149" s="110" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F149" s="31">
         <v>0</v>
@@ -18423,19 +18417,19 @@
     </row>
     <row r="152" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A152" s="165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B152" s="164" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D152" s="109" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E152" s="118" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F152" s="27">
         <v>45428</v>
@@ -18444,20 +18438,20 @@
         <v>1</v>
       </c>
       <c r="S152" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="18">
       <c r="A153" s="166"/>
       <c r="B153" s="162"/>
       <c r="C153" s="63" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D153" s="110" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F153" s="28">
         <v>45428</v>
@@ -18470,13 +18464,13 @@
       <c r="A154" s="166"/>
       <c r="B154" s="162"/>
       <c r="C154" s="63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D154" s="110" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E154" s="116" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F154" s="35">
         <v>45428</v>
@@ -18489,13 +18483,13 @@
       <c r="A155" s="166"/>
       <c r="B155" s="163"/>
       <c r="C155" s="63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D155" s="110" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F155" s="35">
         <v>45428</v>
@@ -18516,16 +18510,16 @@
     </row>
     <row r="158" spans="1:19" s="5" customFormat="1" ht="13.2" customHeight="1" thickTop="1">
       <c r="A158" s="165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" s="164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D158" s="109" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F158" s="36">
         <v>0</v>
@@ -18535,10 +18529,10 @@
       <c r="A159" s="166"/>
       <c r="B159" s="163"/>
       <c r="C159" s="63" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D159" s="110" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F159" s="31">
         <v>0</v>
@@ -18558,16 +18552,16 @@
     </row>
     <row r="162" spans="1:9" s="5" customFormat="1" ht="19.2" thickTop="1" thickBot="1">
       <c r="A162" s="165" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B162" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C162" s="62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D162" s="109" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F162" s="36">
         <v>0</v>
@@ -18576,13 +18570,13 @@
     <row r="163" spans="1:9" s="11" customFormat="1" ht="18">
       <c r="A163" s="166"/>
       <c r="B163" s="161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C163" s="66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D163" s="112" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F163" s="34">
         <v>0</v>
@@ -18592,10 +18586,10 @@
       <c r="A164" s="166"/>
       <c r="B164" s="163"/>
       <c r="C164" s="63" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D164" s="110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F164" s="31">
         <v>0</v>
@@ -18615,16 +18609,16 @@
     </row>
     <row r="167" spans="1:9" ht="19.2" thickTop="1" thickBot="1">
       <c r="A167" s="165" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B167" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D167" s="110" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F167" s="31">
         <v>0</v>
@@ -18642,19 +18636,19 @@
     </row>
     <row r="170" spans="1:9" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1">
       <c r="A170" s="165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B170" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F170" s="37">
         <v>45414</v>
@@ -18663,16 +18657,16 @@
     <row r="171" spans="1:9" s="11" customFormat="1" ht="18">
       <c r="A171" s="166"/>
       <c r="B171" s="161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D171" s="112" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E171" s="112" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F171" s="71">
         <v>1</v>
@@ -18683,13 +18677,13 @@
       <c r="A172" s="166"/>
       <c r="B172" s="162"/>
       <c r="C172" s="63" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D172" s="110" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F172" s="72">
         <v>1</v>
@@ -18700,13 +18694,13 @@
       <c r="A173" s="166"/>
       <c r="B173" s="163"/>
       <c r="C173" s="63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F173" s="100">
         <v>1</v>
@@ -18725,16 +18719,16 @@
     </row>
     <row r="176" spans="1:9" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A176" s="165" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B176" s="164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C176" s="62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D176" s="109" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F176" s="36">
         <v>0</v>
@@ -18744,10 +18738,10 @@
       <c r="A177" s="166"/>
       <c r="B177" s="162"/>
       <c r="C177" s="63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D177" s="110" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F177" s="31">
         <v>0</v>
@@ -18756,13 +18750,13 @@
     <row r="178" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A178" s="166"/>
       <c r="B178" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C178" s="66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D178" s="112" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F178" s="34">
         <v>0</v>
@@ -18784,158 +18778,158 @@
     </row>
     <row r="182" spans="1:6" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A182" s="172" t="s">
+        <v>839</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="62" t="s">
         <v>841</v>
       </c>
-      <c r="C182" s="62" t="s">
-        <v>842</v>
-      </c>
       <c r="D182" s="109" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F182" s="36"/>
     </row>
     <row r="183" spans="1:6" s="11" customFormat="1">
       <c r="A183" s="166"/>
       <c r="B183" s="123" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C183" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F183" s="34"/>
     </row>
     <row r="184" spans="1:6" ht="18">
       <c r="A184" s="166"/>
       <c r="B184" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C184" s="63" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D184" s="110" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="18">
       <c r="A185" s="166"/>
       <c r="B185" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C185" s="63" t="s">
+        <v>862</v>
+      </c>
+      <c r="D185" s="110" t="s">
+        <v>864</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="D185" s="110" t="s">
-        <v>865</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="166"/>
       <c r="B186" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C186" s="63" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="18">
       <c r="A187" s="166"/>
       <c r="B187" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D187" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="18">
       <c r="A188" s="166"/>
       <c r="B188" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D188" s="110" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="166"/>
       <c r="B189" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C189" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="166"/>
       <c r="B190" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C190" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="166"/>
       <c r="B191" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C191" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="166"/>
       <c r="B192" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="14.4" thickBot="1">
       <c r="A193" s="167"/>
       <c r="B193" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
       <c r="A194" s="165" t="s">
+        <v>868</v>
+      </c>
+      <c r="B194" s="173" t="s">
+        <v>867</v>
+      </c>
+      <c r="C194" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="B194" s="173" t="s">
-        <v>868</v>
-      </c>
-      <c r="C194" s="62" t="s">
-        <v>870</v>
-      </c>
       <c r="D194" s="109" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E194" s="165" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F194" s="36"/>
     </row>
@@ -18943,10 +18937,10 @@
       <c r="A195" s="166"/>
       <c r="B195" s="174"/>
       <c r="C195" s="63" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D195" s="110" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E195" s="166"/>
     </row>

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8DA0B-B0EB-49C2-82D1-061CC671BB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452934AA-BEA8-4028-B228-00889C123791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="957">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2009,11 +2009,6 @@
   </si>
   <si>
     <t>斯大萝，爱露，水大叔，春奈（A）。亚子，otto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未花，斯大萝，春月，体香。otto，春锅
-大狐狸，水小狐狸（A），春佳，水大叔。水静子，亚子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2512,10 +2507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吹雪，肥猫（A），大叔，兄弟。亚子，千寻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>野外·鸡斯拉
 1档</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2546,22 +2537,6 @@
   </si>
   <si>
     <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兄弟，小春，水大狐狸，伊织。千寻，水白子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹雪，佳门，未花（A），忧。亚子，otto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃美，宫子，星野，未花。春锅，小护士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棒球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4226,13 +4201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姬木芽瑠
-秋泉红叶
-连河切里诺
-池仓真里奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>野外·气垫船</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4453,10 +4421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红甲：水星野，兄弟，爱露，茜。亚子，otto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄甲：和纱（A），未花，茜，兄弟。亚子，otto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4473,14 +4437,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>都不借给我和纱是吧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总力战46</t>
   </si>
   <si>
     <t>总力战47</t>
+  </si>
+  <si>
+    <t>未花，斯大萝，春月，体香。otto，春锅
+大狐狸，水忍忍（A），春佳，水大叔。水静子，亚子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红甲：水大叔，兄弟，爱露，茜。亚子，otto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹雪，和纱（A），星野，兄弟。亚子，千寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都不借给我和纱是吧？
+我的一档时代，启动！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢爱丽丝学弟的女仆爱
+前2000时代，启动！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟，小春，水若藻，伊织。千寻，水白子
+吹雪，佳门，未花（A），忧。亚子，otto
+铃美，宫子，星野，未花。春锅，小护士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬木芽瑠
+连河切里诺
+池仓真里奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动、千禧年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5102,7 +5101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5575,14 +5574,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5625,6 +5624,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5906,11 +5911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N668"/>
+  <dimension ref="A1:N706"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E624" sqref="E624"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C682" sqref="C682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5949,13 +5954,13 @@
         <v>208</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J1" s="153"/>
       <c r="K1" s="154"/>
@@ -5997,7 +6002,7 @@
       <c r="E4" s="76"/>
       <c r="F4" s="79"/>
       <c r="J4" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6008,7 +6013,7 @@
       <c r="E5" s="76"/>
       <c r="F5" s="79"/>
       <c r="J5" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6019,7 +6024,7 @@
       <c r="E6" s="76"/>
       <c r="F6" s="79"/>
       <c r="J6" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -7696,7 +7701,7 @@
       </c>
       <c r="C196" s="139"/>
       <c r="D196" s="138" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E196" s="138" t="s">
         <v>194</v>
@@ -8836,7 +8841,7 @@
       </c>
       <c r="C322" s="139"/>
       <c r="D322" s="138" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E322" s="140" t="s">
         <v>206</v>
@@ -8920,7 +8925,7 @@
       <c r="E331" s="88"/>
       <c r="F331" s="79"/>
       <c r="G331" s="130" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -10158,7 +10163,7 @@
       </c>
       <c r="C471" s="139"/>
       <c r="D471" s="138" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E471" s="138" t="s">
         <v>220</v>
@@ -10705,7 +10710,7 @@
         <v>284</v>
       </c>
       <c r="G534" s="138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -10824,7 +10829,7 @@
       <c r="C548" s="139"/>
       <c r="D548" s="139"/>
       <c r="G548" s="138" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -10880,13 +10885,13 @@
         <v>45694</v>
       </c>
       <c r="C555" s="138" t="s">
+        <v>419</v>
+      </c>
+      <c r="D555" s="138" t="s">
         <v>420</v>
       </c>
-      <c r="D555" s="138" t="s">
+      <c r="E555" s="74" t="s">
         <v>421</v>
-      </c>
-      <c r="E555" s="74" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -10936,16 +10941,16 @@
         <v>45701</v>
       </c>
       <c r="C562" s="138" t="s">
+        <v>422</v>
+      </c>
+      <c r="D562" s="138" t="s">
+        <v>424</v>
+      </c>
+      <c r="E562" s="74" t="s">
         <v>423</v>
       </c>
-      <c r="D562" s="138" t="s">
-        <v>425</v>
-      </c>
-      <c r="E562" s="74" t="s">
-        <v>424</v>
-      </c>
       <c r="G562" s="138" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -11001,13 +11006,13 @@
         <v>45708</v>
       </c>
       <c r="C569" s="138" t="s">
+        <v>425</v>
+      </c>
+      <c r="D569" s="138" t="s">
         <v>426</v>
       </c>
-      <c r="D569" s="138" t="s">
+      <c r="E569" s="138" t="s">
         <v>427</v>
-      </c>
-      <c r="E569" s="138" t="s">
-        <v>428</v>
       </c>
       <c r="F569" s="80">
         <v>1</v>
@@ -11061,11 +11066,11 @@
         <v>45715</v>
       </c>
       <c r="C576" s="138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D576" s="139"/>
       <c r="G576" s="138" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -11121,16 +11126,16 @@
         <v>45722</v>
       </c>
       <c r="B583" s="75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C583" s="127" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D583" s="127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E583" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -11180,22 +11185,22 @@
         <v>45729</v>
       </c>
       <c r="B590" s="75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C590" s="127" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D590" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="E590" s="74" t="s">
         <v>484</v>
-      </c>
-      <c r="E590" s="74" t="s">
-        <v>485</v>
       </c>
       <c r="F590" s="80">
         <v>1</v>
       </c>
       <c r="G590" s="127" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -11251,13 +11256,13 @@
         <v>45736</v>
       </c>
       <c r="C597" s="127" t="s">
+        <v>485</v>
+      </c>
+      <c r="D597" s="127" t="s">
         <v>486</v>
       </c>
-      <c r="D597" s="127" t="s">
-        <v>487</v>
-      </c>
       <c r="E597" s="127" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -11314,7 +11319,7 @@
       <c r="C604" s="128"/>
       <c r="D604" s="128"/>
       <c r="G604" s="127" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -11370,16 +11375,16 @@
         <v>45750</v>
       </c>
       <c r="C611" s="127" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D611" s="127" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E611" s="74" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G611" s="127" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -11435,10 +11440,10 @@
         <v>45757</v>
       </c>
       <c r="C618" s="127" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D618" s="127" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -11474,13 +11479,13 @@
         <v>45762</v>
       </c>
       <c r="C623" s="127" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="D623" s="127" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E623" s="74" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -11497,7 +11502,7 @@
       <c r="C625" s="128"/>
       <c r="D625" s="128"/>
       <c r="G625" s="130" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -11553,19 +11558,19 @@
         <v>45771</v>
       </c>
       <c r="C632" s="127" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="D632" s="131" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E632" s="134" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F632" s="80">
         <v>1</v>
       </c>
       <c r="H632" s="127" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -11625,7 +11630,7 @@
       <c r="C639" s="128"/>
       <c r="D639" s="132"/>
       <c r="G639" s="130" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -11642,10 +11647,10 @@
       </c>
       <c r="C641" s="128"/>
       <c r="D641" s="135" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E641" s="125" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="F641" s="80">
         <v>1</v>
@@ -11703,13 +11708,13 @@
         <v>45787</v>
       </c>
       <c r="C648" s="130" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D648" s="127" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="E648" s="127" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -11719,6 +11724,9 @@
       <c r="C649" s="128"/>
       <c r="D649" s="128"/>
       <c r="E649" s="129"/>
+      <c r="F649" s="80">
+        <v>1</v>
+      </c>
     </row>
     <row r="650" spans="1:7">
       <c r="A650" s="75">
@@ -11727,7 +11735,7 @@
       <c r="C650" s="128"/>
       <c r="D650" s="128"/>
       <c r="E650" s="74" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -11751,7 +11759,7 @@
       <c r="C653" s="128"/>
       <c r="D653" s="128"/>
       <c r="G653" s="130" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -11849,6 +11857,196 @@
     <row r="668" spans="1:7">
       <c r="A668" s="75">
         <v>45807</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="A669" s="75">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
+      <c r="A670" s="75">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
+      <c r="A671" s="75">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="A672" s="75">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="75">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="75">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="75">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="75">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="75">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="75">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="75">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="75">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="75">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="75">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="75">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="75">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="75">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="75">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="75">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="75">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="75">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="75">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="75">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="75">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="75">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="75">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="75">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="75">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="75">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="75">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="75">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="75">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="75">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="75">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="75">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="75">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="75">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="75">
+        <v>45845</v>
       </c>
     </row>
   </sheetData>
@@ -12059,10 +12257,10 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12078,25 +12276,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C1" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="E1" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="F1" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="74" t="s">
-        <v>506</v>
-      </c>
-      <c r="G1" s="74" t="s">
+      <c r="H1" s="74" t="s">
         <v>439</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -12104,7 +12302,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="75">
         <v>44252</v>
@@ -12124,16 +12322,16 @@
     <row r="3" spans="1:8">
       <c r="A3" s="139"/>
       <c r="B3" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="75">
         <v>44529</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F3" s="139"/>
       <c r="G3" s="139"/>
@@ -12142,7 +12340,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="139"/>
       <c r="B4" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C4" s="75">
         <v>45155</v>
@@ -12162,7 +12360,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C5" s="75">
         <v>44315</v>
@@ -12182,16 +12380,16 @@
     <row r="6" spans="1:8">
       <c r="A6" s="139"/>
       <c r="B6" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F6" s="139"/>
       <c r="G6" s="139"/>
@@ -12200,7 +12398,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="139"/>
       <c r="B7" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" s="75">
         <v>45183</v>
@@ -12220,7 +12418,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C8" s="75">
         <v>44377</v>
@@ -12244,16 +12442,16 @@
     <row r="9" spans="1:8">
       <c r="A9" s="139"/>
       <c r="B9" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F9" s="139"/>
       <c r="G9" s="139"/>
@@ -12262,7 +12460,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="139"/>
       <c r="B10" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" s="75">
         <v>45225</v>
@@ -12282,7 +12480,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C11" s="75">
         <v>44406</v>
@@ -12306,16 +12504,16 @@
     <row r="12" spans="1:8">
       <c r="A12" s="139"/>
       <c r="B12" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F12" s="139"/>
       <c r="G12" s="139"/>
@@ -12324,7 +12522,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="139"/>
       <c r="B13" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C13" s="75">
         <v>45267</v>
@@ -12363,13 +12561,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="139"/>
       <c r="C15" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="139"/>
       <c r="G15" s="139"/>
@@ -12414,13 +12612,13 @@
     <row r="18" spans="1:8">
       <c r="A18" s="139"/>
       <c r="C18" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F18" s="139"/>
       <c r="G18" s="139"/>
@@ -12447,10 +12645,10 @@
         <v>44501</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F20" s="139"/>
       <c r="G20" s="139"/>
@@ -12461,13 +12659,13 @@
     <row r="21" spans="1:8">
       <c r="A21" s="139"/>
       <c r="C21" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F21" s="139"/>
       <c r="G21" s="139"/>
@@ -12479,10 +12677,10 @@
         <v>45414</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F22" s="139"/>
       <c r="G22" s="139"/>
@@ -12496,7 +12694,7 @@
         <v>44509</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E23" s="75">
         <v>45315</v>
@@ -12510,13 +12708,13 @@
     <row r="24" spans="1:8">
       <c r="A24" s="139"/>
       <c r="C24" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="F24" s="139"/>
       <c r="G24" s="139"/>
@@ -12528,7 +12726,7 @@
         <v>45281</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F25" s="139"/>
       <c r="G25" s="139"/>
@@ -12552,19 +12750,19 @@
         <v>304</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="139"/>
       <c r="C27" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="139"/>
       <c r="G27" s="139"/>
@@ -12609,13 +12807,13 @@
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="C30" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
@@ -12648,23 +12846,23 @@
         <v>45336</v>
       </c>
       <c r="F32" s="138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G32" s="139"/>
       <c r="H32" s="139" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="139"/>
       <c r="C33" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F33" s="139"/>
       <c r="G33" s="139"/>
@@ -12705,13 +12903,13 @@
     <row r="36" spans="1:8">
       <c r="A36" s="139"/>
       <c r="C36" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F36" s="139"/>
       <c r="G36" s="139"/>
@@ -12752,13 +12950,13 @@
     <row r="39" spans="1:8">
       <c r="A39" s="139"/>
       <c r="C39" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D39" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F39" s="139"/>
       <c r="G39" s="139"/>
@@ -12793,19 +12991,19 @@
       <c r="F41" s="139"/>
       <c r="G41" s="139"/>
       <c r="H41" s="139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="139"/>
       <c r="C42" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D42" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F42" s="139"/>
       <c r="G42" s="139"/>
@@ -12829,10 +13027,10 @@
         <v>137</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E44" s="75">
         <v>45315</v>
@@ -12846,13 +13044,13 @@
     <row r="45" spans="1:8">
       <c r="A45" s="139"/>
       <c r="C45" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D45" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E45" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="F45" s="139"/>
       <c r="G45" s="139"/>
@@ -12864,7 +13062,7 @@
         <v>45421</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F46" s="139"/>
       <c r="G46" s="139"/>
@@ -12896,13 +13094,13 @@
     <row r="48" spans="1:8">
       <c r="A48" s="139"/>
       <c r="C48" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F48" s="139"/>
       <c r="G48" s="139"/>
@@ -12932,7 +13130,7 @@
         <v>45124</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F50" s="139"/>
       <c r="G50" s="139"/>
@@ -12943,13 +13141,13 @@
     <row r="51" spans="1:8">
       <c r="A51" s="139"/>
       <c r="C51" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D51" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E51" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F51" s="139"/>
       <c r="G51" s="139"/>
@@ -12962,7 +13160,7 @@
       </c>
       <c r="D52" s="75"/>
       <c r="E52" s="75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F52" s="139"/>
       <c r="G52" s="139"/>
@@ -12973,10 +13171,10 @@
         <v>140</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E53" s="75">
         <v>45315</v>
@@ -12990,13 +13188,13 @@
     <row r="54" spans="1:8">
       <c r="A54" s="139"/>
       <c r="C54" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D54" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E54" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="E54" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="F54" s="139"/>
       <c r="G54" s="139"/>
@@ -13008,7 +13206,7 @@
         <v>45477</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F55" s="139"/>
       <c r="G55" s="139"/>
@@ -13028,22 +13226,22 @@
         <v>45459</v>
       </c>
       <c r="F56" s="138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G56" s="139" t="s">
         <v>298</v>
       </c>
       <c r="H56" s="139" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="139"/>
       <c r="C57" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D57" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="139"/>
@@ -13085,13 +13283,13 @@
     <row r="60" spans="1:8">
       <c r="A60" s="139"/>
       <c r="C60" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F60" s="139"/>
       <c r="G60" s="139"/>
@@ -13124,7 +13322,7 @@
         <v>45637</v>
       </c>
       <c r="F62" s="130" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G62" s="139" t="s">
         <v>306</v>
@@ -13136,10 +13334,10 @@
     <row r="63" spans="1:8">
       <c r="A63" s="139"/>
       <c r="C63" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E63" s="75"/>
       <c r="F63" s="128"/>
@@ -13181,10 +13379,10 @@
     <row r="66" spans="1:8">
       <c r="A66" s="139"/>
       <c r="C66" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D66" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E66" s="75"/>
       <c r="F66" s="128"/>
@@ -13207,10 +13405,10 @@
         <v>145</v>
       </c>
       <c r="C68" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D68" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E68" s="75">
         <v>45315</v>
@@ -13224,10 +13422,10 @@
     <row r="69" spans="1:8">
       <c r="A69" s="139"/>
       <c r="C69" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F69" s="139"/>
       <c r="G69" s="139"/>
@@ -13239,7 +13437,7 @@
         <v>45526</v>
       </c>
       <c r="D70" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F70" s="139"/>
       <c r="G70" s="139"/>
@@ -13259,7 +13457,7 @@
         <v>45728</v>
       </c>
       <c r="F71" s="139" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G71" s="139" t="s">
         <v>308</v>
@@ -13271,10 +13469,10 @@
     <row r="72" spans="1:8">
       <c r="A72" s="139"/>
       <c r="C72" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D72" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E72" s="75"/>
       <c r="F72" s="139"/>
@@ -13318,10 +13516,10 @@
     <row r="75" spans="1:8">
       <c r="A75" s="139"/>
       <c r="C75" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D75" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E75" s="75"/>
       <c r="F75" s="139"/>
@@ -13347,13 +13545,13 @@
         <v>44950</v>
       </c>
       <c r="D77" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F77" s="138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G77" s="139"/>
       <c r="H77" s="139"/>
@@ -13361,13 +13559,13 @@
     <row r="78" spans="1:8">
       <c r="A78" s="139"/>
       <c r="C78" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F78" s="139"/>
       <c r="G78" s="139"/>
@@ -13379,10 +13577,10 @@
         <v>45603</v>
       </c>
       <c r="D79" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E79" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F79" s="139"/>
       <c r="G79" s="139"/>
@@ -13396,13 +13594,13 @@
         <v>44979</v>
       </c>
       <c r="D80" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E80" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F80" s="138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G80" s="139"/>
       <c r="H80" s="139"/>
@@ -13410,13 +13608,13 @@
     <row r="81" spans="1:8" ht="13.2" customHeight="1">
       <c r="A81" s="139"/>
       <c r="C81" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D81" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E81" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F81" s="139"/>
       <c r="G81" s="139"/>
@@ -13428,10 +13626,10 @@
         <v>45631</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E82" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F82" s="139"/>
       <c r="G82" s="139"/>
@@ -13445,13 +13643,13 @@
         <v>44988</v>
       </c>
       <c r="D83" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F83" s="127" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G83" s="139"/>
       <c r="H83" s="139"/>
@@ -13459,13 +13657,13 @@
     <row r="84" spans="1:8">
       <c r="A84" s="139"/>
       <c r="C84" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D84" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E84" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F84" s="151"/>
       <c r="G84" s="139"/>
@@ -13477,10 +13675,10 @@
         <v>45645</v>
       </c>
       <c r="D85" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E85" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F85" s="151"/>
       <c r="G85" s="139"/>
@@ -13494,10 +13692,10 @@
         <v>44997</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E86" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F86" s="151"/>
       <c r="G86" s="139"/>
@@ -13506,13 +13704,13 @@
     <row r="87" spans="1:8">
       <c r="A87" s="139"/>
       <c r="C87" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D87" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E87" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F87" s="151"/>
       <c r="G87" s="139"/>
@@ -13524,10 +13722,10 @@
         <v>45649</v>
       </c>
       <c r="D88" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E88" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F88" s="152"/>
       <c r="G88" s="139"/>
@@ -13557,10 +13755,10 @@
     <row r="90" spans="1:8">
       <c r="A90" s="139"/>
       <c r="C90" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E90" s="75"/>
       <c r="F90" s="139"/>
@@ -13600,10 +13798,10 @@
     <row r="93" spans="1:8">
       <c r="A93" s="139"/>
       <c r="C93" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E93" s="75"/>
       <c r="F93" s="139"/>
@@ -13645,10 +13843,10 @@
     <row r="96" spans="1:8">
       <c r="A96" s="139"/>
       <c r="C96" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D96" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E96" s="75"/>
       <c r="F96" s="139"/>
@@ -13677,7 +13875,7 @@
         <v>45539</v>
       </c>
       <c r="F98" s="138" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G98" s="139" t="s">
         <v>298</v>
@@ -13689,7 +13887,7 @@
     <row r="99" spans="1:8">
       <c r="A99" s="139"/>
       <c r="C99" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F99" s="139"/>
       <c r="G99" s="139"/>
@@ -13723,10 +13921,10 @@
     <row r="102" spans="1:8">
       <c r="A102" s="139"/>
       <c r="C102" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D102" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F102" s="139"/>
       <c r="G102" s="139"/>
@@ -13754,13 +13952,13 @@
       <c r="F104" s="139"/>
       <c r="G104" s="139"/>
       <c r="H104" s="139" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="139"/>
       <c r="C105" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F105" s="139"/>
       <c r="G105" s="139"/>
@@ -13782,13 +13980,13 @@
       <c r="F107" s="139"/>
       <c r="G107" s="139"/>
       <c r="H107" s="139" t="s">
-        <v>323</v>
+        <v>956</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="139"/>
       <c r="C108" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F108" s="139"/>
       <c r="G108" s="139"/>
@@ -13808,7 +14006,7 @@
         <v>45266</v>
       </c>
       <c r="D110" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E110" s="75">
         <v>45315</v>
@@ -13824,13 +14022,13 @@
     <row r="111" spans="1:8">
       <c r="A111" s="139"/>
       <c r="C111" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D111" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="E111" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="E111" s="74" t="s">
-        <v>451</v>
       </c>
       <c r="F111" s="139"/>
       <c r="G111" s="139"/>
@@ -13842,7 +14040,7 @@
         <v>45526</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F112" s="139"/>
       <c r="G112" s="139"/>
@@ -13871,7 +14069,7 @@
     <row r="114" spans="1:8">
       <c r="A114" s="139"/>
       <c r="C114" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F114" s="139"/>
       <c r="G114" s="139"/>
@@ -13906,7 +14104,7 @@
     <row r="117" spans="1:8">
       <c r="A117" s="139"/>
       <c r="C117" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F117" s="139"/>
       <c r="G117" s="139"/>
@@ -13930,7 +14128,7 @@
       </c>
       <c r="F119" s="139"/>
       <c r="G119" s="139" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H119" s="139" t="s">
         <v>293</v>
@@ -13939,7 +14137,7 @@
     <row r="120" spans="1:8">
       <c r="A120" s="139"/>
       <c r="C120" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F120" s="139"/>
       <c r="G120" s="139"/>
@@ -13963,13 +14161,13 @@
         <v>312</v>
       </c>
       <c r="H122" s="139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="139"/>
       <c r="C123" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F123" s="139"/>
       <c r="G123" s="139"/>
@@ -13999,7 +14197,7 @@
     <row r="126" spans="1:8">
       <c r="A126" s="139"/>
       <c r="C126" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F126" s="139"/>
       <c r="G126" s="139"/>
@@ -14031,7 +14229,7 @@
     <row r="129" spans="1:8">
       <c r="A129" s="139"/>
       <c r="C129" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F129" s="139"/>
       <c r="G129" s="139"/>
@@ -14051,7 +14249,7 @@
         <v>45495</v>
       </c>
       <c r="F131" s="138" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G131" s="139" t="s">
         <v>298</v>
@@ -14063,7 +14261,7 @@
     <row r="132" spans="1:8">
       <c r="A132" s="139"/>
       <c r="C132" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F132" s="139"/>
       <c r="G132" s="139"/>
@@ -14087,13 +14285,13 @@
         <v>316</v>
       </c>
       <c r="H134" s="139" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="139"/>
       <c r="C135" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F135" s="139"/>
       <c r="G135" s="139"/>
@@ -14113,7 +14311,7 @@
         <v>45560</v>
       </c>
       <c r="F137" s="139" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="G137" s="139"/>
       <c r="H137" s="139" t="s">
@@ -14123,10 +14321,10 @@
     <row r="138" spans="1:8">
       <c r="A138" s="139"/>
       <c r="C138" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D138" s="74" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F138" s="139"/>
       <c r="G138" s="139"/>
@@ -14167,7 +14365,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="139" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C143" s="75">
         <v>45602</v>
@@ -14219,16 +14417,16 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="139" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C149" s="75">
         <v>45677</v>
       </c>
       <c r="F149" s="139" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G149" s="139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H149" s="139" t="s">
         <v>294</v>
@@ -14248,7 +14446,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C152" s="75">
         <v>45691</v>
@@ -14273,7 +14471,7 @@
     </row>
     <row r="155" spans="1:8" ht="15.6" customHeight="1">
       <c r="A155" s="155" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B155" s="92"/>
       <c r="C155" s="75">
@@ -14281,7 +14479,7 @@
       </c>
       <c r="F155" s="130"/>
       <c r="G155" s="130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H155" s="130" t="s">
         <v>293</v>
@@ -14305,7 +14503,7 @@
       <c r="A158" s="130"/>
       <c r="F158" s="130"/>
       <c r="G158" s="130" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="H158" s="130" t="s">
         <v>294</v>
@@ -14582,11 +14780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14626,10 +14824,10 @@
         <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>271</v>
@@ -14655,7 +14853,7 @@
         <v>45148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>236</v>
@@ -14768,7 +14966,7 @@
         <v>241</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>253</v>
@@ -14843,7 +15041,7 @@
         <v>45239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>238</v>
@@ -14852,13 +15050,13 @@
         <v>241</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F9" s="1">
         <v>91228</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>256</v>
@@ -14881,7 +15079,7 @@
         <v>45253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>239</v>
@@ -14890,13 +15088,13 @@
         <v>233</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="1">
         <v>93025</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>265</v>
@@ -14919,7 +15117,7 @@
         <v>45267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>242</v>
@@ -14928,7 +15126,7 @@
         <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F11" s="1">
         <v>67203</v>
@@ -14937,7 +15135,7 @@
         <v>235</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>258</v>
@@ -14957,7 +15155,7 @@
         <v>45281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>243</v>
@@ -14966,7 +15164,7 @@
         <v>241</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F12" s="1">
         <v>62577</v>
@@ -14995,7 +15193,7 @@
         <v>45295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>237</v>
@@ -15004,7 +15202,7 @@
         <v>233</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F13" s="1">
         <v>71558</v>
@@ -15018,7 +15216,7 @@
         <v>45309</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>238</v>
@@ -15027,7 +15225,7 @@
         <v>231</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F14" s="1">
         <v>64868</v>
@@ -15041,7 +15239,7 @@
         <v>45323</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>239</v>
@@ -15050,7 +15248,7 @@
         <v>241</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F15" s="1">
         <v>56699</v>
@@ -15064,7 +15262,7 @@
         <v>45335</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>244</v>
@@ -15073,7 +15271,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F16" s="1">
         <v>65196</v>
@@ -15087,7 +15285,7 @@
         <v>45351</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>237</v>
@@ -15102,15 +15300,15 @@
         <v>240</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="160">
+      <c r="A18" s="158">
         <v>45372</v>
       </c>
       <c r="B18" s="159" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C18" s="159" t="s">
         <v>242</v>
@@ -15125,15 +15323,15 @@
       <c r="G18" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="158" t="s">
-        <v>499</v>
-      </c>
-      <c r="I18" s="158" t="s">
+      <c r="H18" s="160" t="s">
         <v>498</v>
       </c>
+      <c r="I18" s="160" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="160"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="159"/>
       <c r="C19" s="159"/>
       <c r="D19" s="159"/>
@@ -15141,14 +15339,14 @@
       <c r="F19" s="159"/>
       <c r="G19" s="159"/>
       <c r="H19" s="159"/>
-      <c r="I19" s="158"/>
+      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45386</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>244</v>
@@ -15168,7 +15366,7 @@
         <v>45393</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>238</v>
@@ -15188,7 +15386,7 @@
         <v>45400</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>243</v>
@@ -15203,7 +15401,7 @@
         <v>240</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -15211,7 +15409,7 @@
         <v>45414</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>236</v>
@@ -15231,7 +15429,7 @@
         <v>45428</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>237</v>
@@ -15246,7 +15444,7 @@
         <v>240</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -15254,7 +15452,7 @@
         <v>45435</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>239</v>
@@ -15274,7 +15472,7 @@
         <v>45442</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>236</v>
@@ -15294,7 +15492,7 @@
         <v>45456</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>242</v>
@@ -15314,7 +15512,7 @@
         <v>45470</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>237</v>
@@ -15334,7 +15532,7 @@
         <v>45484</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>244</v>
@@ -15349,7 +15547,7 @@
         <v>240</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>502</v>
+        <v>951</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -15357,7 +15555,7 @@
         <v>45498</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>243</v>
@@ -15383,7 +15581,7 @@
         <v>45512</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>247</v>
@@ -15403,7 +15601,7 @@
         <v>45526</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>239</v>
@@ -15423,7 +15621,7 @@
         <v>45533</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>238</v>
@@ -15438,15 +15636,15 @@
         <v>240</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="160">
+      <c r="A34" s="158">
         <v>45547</v>
       </c>
       <c r="B34" s="159" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C34" s="159" t="s">
         <v>243</v>
@@ -15463,15 +15661,15 @@
       <c r="G34" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="158" t="s">
-        <v>459</v>
-      </c>
-      <c r="I34" s="158" t="s">
-        <v>475</v>
+      <c r="H34" s="160" t="s">
+        <v>458</v>
+      </c>
+      <c r="I34" s="160" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="160"/>
+      <c r="A35" s="158"/>
       <c r="B35" s="159"/>
       <c r="C35" s="159"/>
       <c r="D35" s="159"/>
@@ -15479,14 +15677,14 @@
       <c r="F35" s="159"/>
       <c r="G35" s="159"/>
       <c r="H35" s="159"/>
-      <c r="I35" s="158"/>
+      <c r="I35" s="160"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>45561</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>237</v>
@@ -15501,7 +15699,7 @@
         <v>245</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -15509,7 +15707,7 @@
         <v>45568</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>242</v>
@@ -15535,7 +15733,7 @@
         <v>45582</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>247</v>
@@ -15550,15 +15748,15 @@
         <v>245</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27.6">
       <c r="A39" s="2">
         <v>45596</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>236</v>
@@ -15576,10 +15774,10 @@
         <v>245</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -15587,7 +15785,7 @@
         <v>45631</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>242</v>
@@ -15605,7 +15803,7 @@
         <v>245</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -15613,7 +15811,7 @@
         <v>45638</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>239</v>
@@ -15631,18 +15829,18 @@
         <v>245</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="160">
+      <c r="A42" s="158">
         <v>45659</v>
       </c>
       <c r="B42" s="159" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C42" s="159" t="s">
         <v>247</v>
@@ -15659,15 +15857,15 @@
       <c r="G42" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="H42" s="158" t="s">
-        <v>395</v>
-      </c>
-      <c r="I42" s="158" t="s">
-        <v>504</v>
+      <c r="H42" s="160" t="s">
+        <v>949</v>
+      </c>
+      <c r="I42" s="160" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="160"/>
+      <c r="A43" s="158"/>
       <c r="B43" s="159"/>
       <c r="C43" s="159"/>
       <c r="D43" s="159"/>
@@ -15675,14 +15873,14 @@
       <c r="F43" s="159"/>
       <c r="G43" s="159"/>
       <c r="H43" s="159"/>
-      <c r="I43" s="158"/>
+      <c r="I43" s="160"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>45673</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>236</v>
@@ -15700,15 +15898,15 @@
         <v>245</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.6">
       <c r="A45" s="2">
         <v>45687</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>237</v>
@@ -15726,10 +15924,10 @@
         <v>245</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>476</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -15737,7 +15935,7 @@
         <v>45701</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>242</v>
@@ -15763,7 +15961,7 @@
         <v>45715</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>243</v>
@@ -15781,18 +15979,18 @@
         <v>245</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="160">
+      <c r="A48" s="158">
         <v>45729</v>
       </c>
       <c r="B48" s="159" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C48" s="159" t="s">
         <v>244</v>
@@ -15807,50 +16005,46 @@
         <v>1654</v>
       </c>
       <c r="G48" s="159" t="s">
-        <v>509</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I48" s="158" t="s">
-        <v>874</v>
+        <v>507</v>
+      </c>
+      <c r="H48" s="160" t="s">
+        <v>954</v>
+      </c>
+      <c r="I48" s="160" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="160"/>
+      <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="159"/>
       <c r="D49" s="159"/>
       <c r="E49" s="159"/>
       <c r="F49" s="159"/>
       <c r="G49" s="159"/>
-      <c r="H49" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I49" s="158"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="160"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="159"/>
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
       <c r="F50" s="159"/>
       <c r="G50" s="159"/>
-      <c r="H50" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I50" s="158"/>
-    </row>
-    <row r="51" spans="1:9" ht="27.6">
+      <c r="H50" s="159"/>
+      <c r="I50" s="160"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>45743</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>241</v>
@@ -15865,18 +16059,18 @@
         <v>245</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="160">
+      <c r="A52" s="158">
         <v>45750</v>
       </c>
       <c r="B52" s="159" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C52" s="159" t="s">
         <v>236</v>
@@ -15897,11 +16091,11 @@
         <v>950</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="160"/>
+      <c r="A53" s="158"/>
       <c r="B53" s="159"/>
       <c r="C53" s="159"/>
       <c r="D53" s="159"/>
@@ -15911,11 +16105,11 @@
         <v>245</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="160"/>
+      <c r="A54" s="158"/>
       <c r="B54" s="159"/>
       <c r="C54" s="159"/>
       <c r="D54" s="159"/>
@@ -15925,10 +16119,10 @@
         <v>245</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -15936,7 +16130,7 @@
         <v>45764</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>247</v>
@@ -15945,7 +16139,7 @@
         <v>231</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -15953,7 +16147,7 @@
         <v>45778</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>238</v>
@@ -15967,10 +16161,10 @@
         <v>45792</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>231</v>
@@ -15979,26 +16173,24 @@
   </sheetData>
   <autoFilter ref="A1:E57" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}"/>
   <dataConsolidate/>
-  <mergeCells count="41">
+  <mergeCells count="42">
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="D52:D54"/>
     <mergeCell ref="E52:E54"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="G48:G50"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -16012,6 +16204,9 @@
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
@@ -16046,13 +16241,13 @@
   <dimension ref="A1:AD197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
@@ -16065,60 +16260,60 @@
     <col min="56" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="45" customFormat="1" ht="14.4" thickBot="1">
+    <row r="1" spans="1:30" s="45" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="B1" s="46"/>
       <c r="E1" s="60" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="96" t="s">
+        <v>491</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>492</v>
+      </c>
+      <c r="N1" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>414</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="K1" s="52" t="s">
+      <c r="O1" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="96" t="s">
-        <v>492</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>493</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="O1" s="45" t="s">
+      <c r="P1" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="Q1" s="54" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:30" s="24" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="124" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>473</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>303</v>
@@ -16187,16 +16382,16 @@
         <v>318</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC2" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A3" s="161" t="s">
         <v>292</v>
       </c>
@@ -16204,13 +16399,13 @@
         <v>337</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D3" s="109" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F3" s="27">
         <v>45141</v>
@@ -16222,17 +16417,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="18">
+    <row r="4" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="162"/>
       <c r="B4" s="171"/>
       <c r="C4" s="63" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E4" s="116" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F4" s="28">
         <v>45141</v>
@@ -16247,17 +16442,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="162"/>
       <c r="B5" s="171"/>
       <c r="C5" s="63" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F5" s="98">
         <v>45141</v>
@@ -16266,14 +16461,14 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18">
+    <row r="6" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="162"/>
       <c r="B6" s="171"/>
       <c r="C6" s="63" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E6" s="110"/>
       <c r="F6" s="28">
@@ -16283,14 +16478,14 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="10" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="1:30" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="167"/>
       <c r="B7" s="174"/>
       <c r="C7" s="64" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E7" s="111"/>
       <c r="F7" s="30">
@@ -16303,7 +16498,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="18.600000000000001" thickTop="1">
+    <row r="8" spans="1:30" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A8" s="162" t="s">
         <v>293</v>
       </c>
@@ -16311,10 +16506,10 @@
         <v>338</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D8" s="110" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="72">
@@ -16324,28 +16519,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="18">
+    <row r="9" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="162"/>
       <c r="B9" s="171"/>
       <c r="C9" s="63" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D9" s="110" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="28">
         <v>45400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="18">
+    <row r="10" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="162"/>
       <c r="B10" s="171"/>
       <c r="C10" s="63" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E10" s="110"/>
       <c r="F10" s="100">
@@ -16355,46 +16550,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="162"/>
       <c r="B11" s="171"/>
       <c r="C11" s="63" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F11" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="12" spans="1:30" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="162"/>
       <c r="B12" s="172"/>
       <c r="C12" s="65" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D12" s="114" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E12" s="114"/>
       <c r="F12" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="18">
+    <row r="13" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="162"/>
       <c r="B13" s="170" t="s">
         <v>339</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F13" s="28">
         <v>45141</v>
@@ -16409,36 +16604,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="18">
+    <row r="14" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="162"/>
       <c r="B14" s="171"/>
       <c r="C14" s="63" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E14" s="116" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F14" s="28">
         <v>45281</v>
       </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
       <c r="S14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="18">
+    <row r="15" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="162"/>
       <c r="B15" s="171"/>
       <c r="C15" s="63" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F15" s="28">
         <v>45141</v>
@@ -16447,14 +16645,14 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="16" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="162"/>
       <c r="B16" s="172"/>
       <c r="C16" s="63" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E16" s="110"/>
       <c r="F16" s="28">
@@ -16464,16 +16662,16 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="17" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="162"/>
       <c r="B17" s="170" t="s">
         <v>340</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="33">
@@ -16486,14 +16684,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="18">
+    <row r="18" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="162"/>
       <c r="B18" s="171"/>
       <c r="C18" s="63" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E18" s="110"/>
       <c r="F18" s="101">
@@ -16506,17 +16704,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18">
+    <row r="19" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="162"/>
       <c r="B19" s="171"/>
       <c r="C19" s="63" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F19" s="101">
         <v>45141</v>
@@ -16531,14 +16729,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="20" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="162"/>
       <c r="B20" s="172"/>
       <c r="C20" s="63" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E20" s="110"/>
       <c r="F20" s="101">
@@ -16554,16 +16752,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="21" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="162"/>
       <c r="B21" s="170" t="s">
         <v>344</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="102">
@@ -16576,14 +16774,14 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.4" thickBot="1">
+    <row r="22" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="162"/>
       <c r="B22" s="172"/>
       <c r="C22" s="63" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F22" s="101">
         <v>45141</v>
@@ -16592,16 +16790,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="11" customFormat="1">
+    <row r="23" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="162"/>
       <c r="B23" s="170" t="s">
         <v>341</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F23" s="33">
         <v>45141</v>
@@ -16613,14 +16811,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="162"/>
       <c r="B24" s="171"/>
       <c r="C24" s="63" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E24" s="113"/>
       <c r="F24" s="101">
@@ -16630,17 +16828,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="18">
+    <row r="25" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="162"/>
       <c r="B25" s="171"/>
       <c r="C25" s="63" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E25" s="116" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F25" s="101">
         <v>45141</v>
@@ -16649,14 +16847,14 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.4" thickBot="1">
+    <row r="26" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="162"/>
       <c r="B26" s="172"/>
       <c r="C26" s="63" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F26" s="28">
         <v>45141</v>
@@ -16668,19 +16866,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="27" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="162"/>
       <c r="B27" s="58" t="s">
         <v>342</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D27" s="112" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E27" s="117" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F27" s="33">
         <v>45335</v>
@@ -16689,79 +16887,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="11" customFormat="1">
+    <row r="28" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="162"/>
       <c r="B28" s="170" t="s">
         <v>343</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F28" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="29" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="162"/>
       <c r="B29" s="172"/>
       <c r="C29" s="63" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E29" s="110"/>
       <c r="F29" s="35">
         <v>45610</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="30" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="162"/>
       <c r="B30" s="170" t="s">
         <v>345</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E30" s="112"/>
       <c r="F30" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="31" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="162"/>
       <c r="B31" s="172"/>
       <c r="C31" s="63" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E31" s="110"/>
       <c r="F31" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="11" customFormat="1">
+    <row r="32" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="162"/>
       <c r="B32" s="58"/>
       <c r="C32" s="66"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:29" ht="14.4" thickBot="1">
+    <row r="33" spans="1:29" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="162"/>
       <c r="B33" s="56"/>
     </row>
-    <row r="34" spans="1:29" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="34" spans="1:29" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A34" s="161" t="s">
         <v>294</v>
       </c>
@@ -16769,10 +16967,10 @@
         <v>346</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E34" s="109"/>
       <c r="F34" s="70">
@@ -16780,17 +16978,17 @@
       </c>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:29" ht="18">
+    <row r="35" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A35" s="162"/>
       <c r="B35" s="171"/>
       <c r="C35" s="63" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E35" s="116" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F35" s="28">
         <v>45141</v>
@@ -16802,14 +17000,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="18">
+    <row r="36" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="162"/>
       <c r="B36" s="171"/>
       <c r="C36" s="63" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E36" s="110"/>
       <c r="F36" s="35">
@@ -16819,14 +17017,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="18.600000000000001" thickBot="1">
+    <row r="37" spans="1:29" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="162"/>
       <c r="B37" s="172"/>
       <c r="C37" s="63" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E37" s="110"/>
       <c r="F37" s="35">
@@ -16839,19 +17037,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="11" customFormat="1">
+    <row r="38" spans="1:29" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A38" s="162"/>
       <c r="B38" s="170" t="s">
         <v>347</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F38" s="33">
         <v>45141</v>
@@ -16863,14 +17061,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="18">
+    <row r="39" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A39" s="162"/>
       <c r="B39" s="171"/>
       <c r="C39" s="63" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E39" s="110"/>
       <c r="F39" s="101">
@@ -16883,14 +17081,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="18">
+    <row r="40" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A40" s="162"/>
       <c r="B40" s="171"/>
       <c r="C40" s="63" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D40" s="110" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E40" s="110"/>
       <c r="F40" s="28">
@@ -16903,14 +17101,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="162"/>
       <c r="B41" s="171"/>
       <c r="C41" s="63" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F41" s="101">
         <v>45141</v>
@@ -16922,17 +17120,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="18.600000000000001" thickBot="1">
+    <row r="42" spans="1:29" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="162"/>
       <c r="B42" s="172"/>
       <c r="C42" s="63" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E42" s="116" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F42" s="29">
         <v>45631</v>
@@ -16944,16 +17142,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="11" customFormat="1" ht="12.6" customHeight="1">
+    <row r="43" spans="1:29" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A43" s="162"/>
       <c r="B43" s="163" t="s">
         <v>348</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="F43" s="33">
         <v>45183</v>
@@ -16965,14 +17163,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="18">
+    <row r="44" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A44" s="162"/>
       <c r="B44" s="164"/>
       <c r="C44" s="63" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D44" s="110" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E44" s="110"/>
       <c r="F44" s="101">
@@ -16985,14 +17183,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="18">
+    <row r="45" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A45" s="162"/>
       <c r="B45" s="164"/>
       <c r="C45" s="63" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E45" s="110"/>
       <c r="F45" s="28">
@@ -17005,17 +17203,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="18">
+    <row r="46" spans="1:29" ht="18.600000000000001" customHeight="1">
       <c r="A46" s="162"/>
       <c r="B46" s="164"/>
       <c r="C46" s="63" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D46" s="110" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E46" s="116" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F46" s="28">
         <v>45169</v>
@@ -17027,31 +17225,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="18.600000000000001" thickBot="1">
+    <row r="47" spans="1:29" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="162"/>
       <c r="B47" s="165"/>
       <c r="C47" s="63" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D47" s="110" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E47" s="116"/>
       <c r="F47" s="31">
         <v>0</v>
       </c>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:29" s="11" customFormat="1">
+      <c r="Q47" s="175"/>
+    </row>
+    <row r="48" spans="1:29" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A48" s="162"/>
       <c r="B48" s="170" t="s">
         <v>349</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F48" s="102">
         <v>45141</v>
@@ -17060,14 +17258,14 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="18">
+    <row r="49" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A49" s="162"/>
       <c r="B49" s="171"/>
       <c r="C49" s="63" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D49" s="110" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E49" s="110"/>
       <c r="F49" s="101">
@@ -17077,14 +17275,14 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.4" thickBot="1">
+    <row r="50" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="162"/>
       <c r="B50" s="172"/>
       <c r="C50" s="63" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F50" s="28">
         <v>45141</v>
@@ -17093,33 +17291,33 @@
         <v>45491</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="51" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A51" s="162"/>
       <c r="B51" s="170" t="s">
         <v>352</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D51" s="112" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E51" s="112"/>
       <c r="F51" s="33">
         <v>45526</v>
       </c>
-      <c r="G51" s="11">
+      <c r="AC51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="52" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="162"/>
       <c r="B52" s="172"/>
       <c r="C52" s="63" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D52" s="110" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E52" s="110"/>
       <c r="F52" s="28">
@@ -17129,16 +17327,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="53" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A53" s="162"/>
       <c r="B53" s="170" t="s">
         <v>350</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D53" s="112" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E53" s="112"/>
       <c r="F53" s="33">
@@ -17151,14 +17349,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A54" s="162"/>
       <c r="B54" s="171"/>
       <c r="C54" s="63" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F54" s="101">
         <v>45141</v>
@@ -17170,14 +17368,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="18">
+    <row r="55" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A55" s="162"/>
       <c r="B55" s="171"/>
       <c r="C55" s="63" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D55" s="110" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E55" s="110"/>
       <c r="F55" s="101">
@@ -17190,14 +17388,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="56" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="162"/>
       <c r="B56" s="172"/>
       <c r="C56" s="63" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D56" s="110" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E56" s="110"/>
       <c r="F56" s="28">
@@ -17210,16 +17408,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="11" customFormat="1" ht="18">
+    <row r="57" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A57" s="162"/>
       <c r="B57" s="170" t="s">
         <v>351</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D57" s="112" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E57" s="112"/>
       <c r="F57" s="33">
@@ -17229,46 +17427,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="58" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A58" s="162"/>
       <c r="B58" s="172"/>
       <c r="C58" s="63" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D58" s="110" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="59" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A59" s="162"/>
       <c r="B59" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>324</v>
       </c>
       <c r="D59" s="112" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F59" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="11" customFormat="1">
+    <row r="60" spans="1:30" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A60" s="162"/>
       <c r="B60" s="58"/>
       <c r="C60" s="66"/>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:30" ht="14.4" thickBot="1">
+    <row r="61" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="162"/>
       <c r="B61" s="56"/>
     </row>
-    <row r="62" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="62" spans="1:30" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A62" s="161" t="s">
         <v>295</v>
       </c>
@@ -17276,42 +17474,42 @@
         <v>353</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D62" s="109" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E62" s="118" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F62" s="37">
         <v>45631</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="18">
+    <row r="63" spans="1:30" ht="18.600000000000001" customHeight="1">
       <c r="A63" s="162"/>
       <c r="B63" s="171"/>
       <c r="C63" s="63" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D63" s="110" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F63" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="18.600000000000001" thickBot="1">
+    <row r="64" spans="1:30" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A64" s="162"/>
       <c r="B64" s="172"/>
       <c r="C64" s="63" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D64" s="113" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E64" s="113" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F64" s="38">
         <v>45603</v>
@@ -17320,16 +17518,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="11" customFormat="1" ht="18">
+    <row r="65" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A65" s="162"/>
       <c r="B65" s="170" t="s">
         <v>354</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E65" s="112"/>
       <c r="F65" s="33">
@@ -17342,17 +17540,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="18">
+    <row r="66" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A66" s="162"/>
       <c r="B66" s="171"/>
       <c r="C66" s="63" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D66" s="110" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E66" s="116" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F66" s="101">
         <v>45141</v>
@@ -17361,17 +17559,17 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="18">
+    <row r="67" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A67" s="162"/>
       <c r="B67" s="171"/>
       <c r="C67" s="63" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E67" s="116" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F67" s="28">
         <v>45148</v>
@@ -17380,14 +17578,14 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="14.4" thickBot="1">
+    <row r="68" spans="1:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="162"/>
       <c r="B68" s="172"/>
       <c r="C68" s="63" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F68" s="31">
         <v>1</v>
@@ -17396,16 +17594,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="11" customFormat="1">
+    <row r="69" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A69" s="162"/>
       <c r="B69" s="170" t="s">
         <v>355</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F69" s="39">
         <v>45620</v>
@@ -17417,17 +17615,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A70" s="162"/>
       <c r="B70" s="171"/>
       <c r="C70" s="63" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F70" s="28">
         <v>45351</v>
@@ -17436,14 +17634,14 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="18.600000000000001" thickBot="1">
+    <row r="71" spans="1:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="162"/>
       <c r="B71" s="172"/>
       <c r="C71" s="63" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D71" s="110" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E71" s="110"/>
       <c r="F71" s="101">
@@ -17456,19 +17654,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="11" customFormat="1" ht="18">
+    <row r="72" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A72" s="162"/>
       <c r="B72" s="170" t="s">
         <v>356</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D72" s="112" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E72" s="117" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F72" s="33">
         <v>45589</v>
@@ -17477,14 +17675,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="18">
+    <row r="73" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A73" s="162"/>
       <c r="B73" s="171"/>
       <c r="C73" s="63" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D73" s="110" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E73" s="110"/>
       <c r="F73" s="101">
@@ -17494,14 +17692,14 @@
         <v>45547</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14.4" thickBot="1">
+    <row r="74" spans="1:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A74" s="162"/>
       <c r="B74" s="172"/>
       <c r="C74" s="63" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F74" s="101">
         <v>45141</v>
@@ -17513,45 +17711,45 @@
         <v>45547</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="11" customFormat="1" ht="18">
+    <row r="75" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A75" s="162"/>
       <c r="B75" s="170" t="s">
         <v>360</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D75" s="112" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E75" s="112"/>
       <c r="F75" s="102">
         <v>45141</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="18.600000000000001" thickBot="1">
+    <row r="76" spans="1:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="162"/>
       <c r="B76" s="172"/>
       <c r="C76" s="63" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D76" s="110" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F76" s="35">
         <v>45694</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="11" customFormat="1" ht="18">
+    <row r="77" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A77" s="162"/>
       <c r="B77" s="170" t="s">
         <v>357</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D77" s="112" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E77" s="112"/>
       <c r="F77" s="33">
@@ -17561,32 +17759,32 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="18.600000000000001" thickBot="1">
+    <row r="78" spans="1:26" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A78" s="162"/>
       <c r="B78" s="172"/>
       <c r="C78" s="63" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D78" s="110" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F78" s="101">
         <v>45141</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="11" customFormat="1" ht="18">
+    <row r="79" spans="1:26" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A79" s="162"/>
       <c r="B79" s="170" t="s">
         <v>358</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D79" s="112" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E79" s="117" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F79" s="33">
         <v>45141</v>
@@ -17595,14 +17793,14 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="18">
+    <row r="80" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A80" s="162"/>
       <c r="B80" s="171"/>
       <c r="C80" s="63" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D80" s="110" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E80" s="110"/>
       <c r="F80" s="101">
@@ -17612,14 +17810,14 @@
         <v>45780</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="18">
+    <row r="81" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A81" s="162"/>
       <c r="B81" s="171"/>
       <c r="C81" s="63" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D81" s="110" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E81" s="110"/>
       <c r="F81" s="28">
@@ -17629,14 +17827,14 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="82" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A82" s="162"/>
       <c r="B82" s="172"/>
       <c r="C82" s="63" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D82" s="110" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E82" s="110"/>
       <c r="F82" s="28">
@@ -17646,16 +17844,16 @@
         <v>45771</v>
       </c>
     </row>
-    <row r="83" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="83" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A83" s="162"/>
       <c r="B83" s="170" t="s">
         <v>359</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D83" s="112" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F83" s="102">
         <v>45141</v>
@@ -17664,14 +17862,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A84" s="162"/>
       <c r="B84" s="171"/>
       <c r="C84" s="63" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F84" s="28">
         <v>45477</v>
@@ -17680,14 +17878,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="18">
+    <row r="85" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A85" s="162"/>
       <c r="B85" s="171"/>
       <c r="C85" s="63" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D85" s="110" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E85" s="110"/>
       <c r="F85" s="28">
@@ -17697,14 +17895,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="86" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A86" s="162"/>
       <c r="B86" s="172"/>
       <c r="C86" s="63" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E86" s="110"/>
       <c r="F86" s="101">
@@ -17714,17 +17912,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="11" customFormat="1">
+    <row r="87" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A87" s="162"/>
       <c r="B87" s="58"/>
       <c r="C87" s="66"/>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:25" ht="14.4" thickBot="1">
+    <row r="88" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A88" s="167"/>
       <c r="B88" s="56"/>
     </row>
-    <row r="89" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="89" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A89" s="161" t="s">
         <v>297</v>
       </c>
@@ -17732,10 +17930,10 @@
         <v>361</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D89" s="109" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E89" s="109"/>
       <c r="F89" s="27">
@@ -17748,30 +17946,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A90" s="162"/>
       <c r="B90" s="171"/>
       <c r="C90" s="63" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F90" s="98">
         <v>45295</v>
       </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
       <c r="Y90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="91" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A91" s="162"/>
       <c r="B91" s="172"/>
       <c r="C91" s="63" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D91" s="110" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E91" s="110"/>
       <c r="F91" s="28">
@@ -17781,16 +17982,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="92" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A92" s="162"/>
       <c r="B92" s="170" t="s">
         <v>364</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D92" s="112" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F92" s="40">
         <v>45183</v>
@@ -17799,14 +18000,14 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="14.4" thickBot="1">
+    <row r="93" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A93" s="162"/>
       <c r="B93" s="172"/>
       <c r="C93" s="63" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F93" s="35">
         <v>45561</v>
@@ -17815,94 +18016,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="11" customFormat="1" ht="14.4" thickBot="1">
+    <row r="94" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A94" s="162"/>
       <c r="B94" s="58" t="s">
         <v>362</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F94" s="39">
         <v>45722</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" s="11" customFormat="1" ht="18">
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A95" s="162"/>
       <c r="B95" s="170" t="s">
         <v>363</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D95" s="112" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="F95" s="33">
+        <v>818</v>
+      </c>
+      <c r="F95" s="39">
         <v>45787</v>
       </c>
       <c r="L95" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="96" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A96" s="162"/>
       <c r="B96" s="172"/>
       <c r="C96" s="63" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D96" s="110" t="s">
-        <v>714</v>
-      </c>
-      <c r="F96" s="28">
+        <v>708</v>
+      </c>
+      <c r="F96" s="176">
         <v>45787</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="11" customFormat="1">
+    <row r="97" spans="1:21" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A97" s="162"/>
       <c r="B97" s="170" t="s">
         <v>365</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F97" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="98" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A98" s="162"/>
       <c r="B98" s="172"/>
       <c r="C98" s="63" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D98" s="110" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F98" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="11" customFormat="1">
+    <row r="99" spans="1:21" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A99" s="162"/>
       <c r="B99" s="58"/>
       <c r="C99" s="66"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:21" ht="14.4" thickBot="1">
+    <row r="100" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A100" s="162"/>
       <c r="B100" s="56"/>
     </row>
-    <row r="101" spans="1:21" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="101" spans="1:21" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A101" s="161" t="s">
         <v>296</v>
       </c>
@@ -17910,36 +18114,36 @@
         <v>366</v>
       </c>
       <c r="C101" s="62" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D101" s="109" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F101" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="18">
+    <row r="102" spans="1:21" ht="18.600000000000001" customHeight="1">
       <c r="A102" s="162"/>
       <c r="B102" s="171"/>
       <c r="C102" s="63" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D102" s="110" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F102" s="35">
         <v>45701</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="103" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A103" s="162"/>
       <c r="B103" s="172"/>
       <c r="C103" s="63" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D103" s="110" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F103" s="101">
         <v>45141</v>
@@ -17948,32 +18152,32 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="11" customFormat="1" ht="18">
+    <row r="104" spans="1:21" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A104" s="162"/>
       <c r="B104" s="170" t="s">
         <v>370</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D104" s="115" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F104" s="102">
         <v>45155</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="103">
         <v>45456</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="18">
+    <row r="105" spans="1:21" ht="18.600000000000001" customHeight="1">
       <c r="A105" s="162"/>
       <c r="B105" s="171"/>
       <c r="C105" s="63" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D105" s="110" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F105" s="101">
         <v>45141</v>
@@ -17982,29 +18186,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="106" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A106" s="162"/>
       <c r="B106" s="172"/>
       <c r="C106" s="63" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D106" s="110" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F106" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="11" customFormat="1">
+    <row r="107" spans="1:21" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A107" s="162"/>
       <c r="B107" s="170" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="66" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F107" s="102">
         <v>45141</v>
@@ -18013,14 +18217,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="18">
+    <row r="108" spans="1:21" ht="18.600000000000001" customHeight="1">
       <c r="A108" s="162"/>
       <c r="B108" s="171"/>
       <c r="C108" s="63" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D108" s="110" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E108" s="110"/>
       <c r="F108" s="28">
@@ -18030,14 +18234,14 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="18.600000000000001" thickBot="1">
+    <row r="109" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A109" s="162"/>
       <c r="B109" s="172"/>
       <c r="C109" s="63" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D109" s="110" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F109" s="41">
         <v>45400</v>
@@ -18046,29 +18250,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="11" customFormat="1" ht="18">
+    <row r="110" spans="1:21" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A110" s="162"/>
       <c r="B110" s="170" t="s">
         <v>368</v>
       </c>
       <c r="C110" s="66" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D110" s="112" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F110" s="105">
         <v>45400</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="18">
+    <row r="111" spans="1:21" ht="18.600000000000001" customHeight="1">
       <c r="A111" s="162"/>
       <c r="B111" s="171"/>
       <c r="C111" s="63" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D111" s="110" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E111" s="110"/>
       <c r="F111" s="28">
@@ -18077,75 +18281,78 @@
       <c r="G111" s="8">
         <v>45461</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="18.600000000000001" thickBot="1">
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A112" s="162"/>
       <c r="B112" s="172"/>
       <c r="C112" s="63" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D112" s="110" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F112" s="28">
         <v>45400</v>
       </c>
     </row>
-    <row r="113" spans="1:25" s="11" customFormat="1">
+    <row r="113" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A113" s="162"/>
       <c r="B113" s="170" t="s">
         <v>369</v>
       </c>
       <c r="C113" s="66" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F113" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A114" s="162"/>
       <c r="B114" s="171"/>
       <c r="C114" s="63" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F114" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="18">
+    <row r="115" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A115" s="162"/>
       <c r="B115" s="171"/>
       <c r="C115" s="63" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D115" s="110" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F115" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="116" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A116" s="162"/>
       <c r="B116" s="172"/>
       <c r="C116" s="63" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D116" s="110" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F116" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="117" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A117" s="162"/>
       <c r="B117" s="170" t="s">
         <v>371</v>
@@ -18154,26 +18361,26 @@
         <v>330</v>
       </c>
       <c r="D117" s="112" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F117" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="118" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A118" s="162"/>
       <c r="B118" s="172"/>
       <c r="C118" s="63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D118" s="110" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F118" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="119" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A119" s="162"/>
       <c r="B119" s="59" t="s">
         <v>386</v>
@@ -18182,25 +18389,25 @@
         <v>335</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F119" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" s="11" customFormat="1" ht="12.6" customHeight="1" thickBot="1">
+    <row r="120" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A120" s="162"/>
       <c r="B120" s="58" t="s">
         <v>372</v>
       </c>
       <c r="C120" s="66" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D120" s="112" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E120" s="117" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F120" s="42">
         <v>45330</v>
@@ -18209,17 +18416,17 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="121" spans="1:25" s="11" customFormat="1">
+    <row r="121" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A121" s="162"/>
       <c r="B121" s="58"/>
       <c r="C121" s="66"/>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="1:25" ht="14.4" thickBot="1">
+    <row r="122" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A122" s="162"/>
       <c r="B122" s="56"/>
     </row>
-    <row r="123" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="123" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A123" s="161" t="s">
         <v>319</v>
       </c>
@@ -18227,10 +18434,10 @@
         <v>373</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D123" s="109" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E123" s="109"/>
       <c r="F123" s="36">
@@ -18240,17 +18447,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="124" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A124" s="162"/>
       <c r="B124" s="172"/>
       <c r="C124" s="63" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D124" s="110" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E124" s="116" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F124" s="35">
         <v>45708</v>
@@ -18259,19 +18466,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="125" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A125" s="162"/>
       <c r="B125" s="170" t="s">
         <v>374</v>
       </c>
       <c r="C125" s="66" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D125" s="112" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E125" s="117" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F125" s="33">
         <v>45141</v>
@@ -18283,17 +18490,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="18">
+    <row r="126" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A126" s="162"/>
       <c r="B126" s="171"/>
       <c r="C126" s="63" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E126" s="116" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F126" s="28">
         <v>45519</v>
@@ -18302,29 +18509,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="14.4" thickBot="1">
+    <row r="127" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A127" s="162"/>
       <c r="B127" s="172"/>
       <c r="C127" s="63" t="s">
         <v>329</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F127" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="128" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A128" s="162"/>
       <c r="B128" s="170" t="s">
         <v>375</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D128" s="112" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F128" s="107">
         <v>45708</v>
@@ -18336,14 +18543,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="14.4" thickBot="1">
+    <row r="129" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A129" s="162"/>
       <c r="B129" s="172"/>
       <c r="C129" s="63" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F129" s="31">
         <v>1</v>
@@ -18352,16 +18559,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="130" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A130" s="162"/>
       <c r="B130" s="58" t="s">
         <v>376</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D130" s="112" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F130" s="43">
         <v>45141</v>
@@ -18370,61 +18577,61 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="131" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="131" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A131" s="162"/>
       <c r="B131" s="58" t="s">
         <v>377</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D131" s="112" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F131" s="34">
         <v>0</v>
       </c>
       <c r="J131" s="13"/>
     </row>
-    <row r="132" spans="1:25" s="11" customFormat="1" ht="14.4" thickBot="1">
+    <row r="132" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A132" s="162"/>
       <c r="B132" s="58" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F132" s="34">
         <v>0</v>
       </c>
       <c r="J132" s="13"/>
     </row>
-    <row r="133" spans="1:25" s="11" customFormat="1" ht="13.2" customHeight="1" thickBot="1">
+    <row r="133" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A133" s="162"/>
       <c r="B133" s="58" t="s">
         <v>372</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D133" s="112" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F133" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" s="11" customFormat="1" ht="13.2" customHeight="1">
+    <row r="134" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A134" s="162"/>
       <c r="B134" s="58"/>
       <c r="C134" s="66"/>
       <c r="F134" s="34"/>
     </row>
-    <row r="135" spans="1:25" ht="14.4" thickBot="1">
+    <row r="135" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A135" s="162"/>
       <c r="B135" s="56"/>
     </row>
-    <row r="136" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="136" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A136" s="161" t="s">
         <v>320</v>
       </c>
@@ -18432,10 +18639,10 @@
         <v>378</v>
       </c>
       <c r="C136" s="62" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D136" s="109" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F136" s="108">
         <v>45610</v>
@@ -18444,29 +18651,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="137" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A137" s="162"/>
       <c r="B137" s="172"/>
       <c r="C137" s="63" t="s">
         <v>334</v>
       </c>
       <c r="D137" s="110" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F137" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="11" customFormat="1" ht="18">
+    <row r="138" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A138" s="162"/>
       <c r="B138" s="170" t="s">
         <v>379</v>
       </c>
       <c r="C138" s="66" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D138" s="112" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F138" s="102">
         <v>45253</v>
@@ -18475,14 +18682,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="18.600000000000001" thickBot="1">
+    <row r="139" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A139" s="162"/>
       <c r="B139" s="172"/>
       <c r="C139" s="63" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D139" s="110" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F139" s="98">
         <v>45330</v>
@@ -18491,17 +18698,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:25" s="11" customFormat="1">
+    <row r="140" spans="1:25" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A140" s="162"/>
       <c r="B140" s="58"/>
       <c r="C140" s="66"/>
       <c r="F140" s="34"/>
     </row>
-    <row r="141" spans="1:25" ht="14.4" thickBot="1">
+    <row r="141" spans="1:25" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A141" s="162"/>
       <c r="B141" s="56"/>
     </row>
-    <row r="142" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="142" spans="1:25" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A142" s="161" t="s">
         <v>321</v>
       </c>
@@ -18509,10 +18716,10 @@
         <v>380</v>
       </c>
       <c r="C142" s="62" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D142" s="109" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E142" s="109"/>
       <c r="F142" s="27">
@@ -18522,14 +18729,14 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="18">
+    <row r="143" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A143" s="162"/>
       <c r="B143" s="171"/>
       <c r="C143" s="63" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D143" s="110" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E143" s="110"/>
       <c r="F143" s="35">
@@ -18539,14 +18746,14 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="18">
+    <row r="144" spans="1:25" ht="18.600000000000001" customHeight="1">
       <c r="A144" s="162"/>
       <c r="B144" s="171"/>
       <c r="C144" s="63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D144" s="110" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F144" s="28">
         <v>45386</v>
@@ -18555,14 +18762,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="18.600000000000001" thickBot="1">
+    <row r="145" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A145" s="162"/>
       <c r="B145" s="172"/>
       <c r="C145" s="63" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D145" s="110" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E145" s="110"/>
       <c r="F145" s="28">
@@ -18572,7 +18779,7 @@
         <v>45736</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" ht="18">
+    <row r="146" spans="1:19" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A146" s="162"/>
       <c r="B146" s="170" t="s">
         <v>381</v>
@@ -18581,63 +18788,63 @@
         <v>325</v>
       </c>
       <c r="D146" s="112" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E146" s="112"/>
       <c r="F146" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="18">
+    <row r="147" spans="1:19" ht="18.600000000000001" customHeight="1">
       <c r="A147" s="162"/>
       <c r="B147" s="171"/>
       <c r="C147" s="63" t="s">
         <v>326</v>
       </c>
       <c r="D147" s="110" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F147" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="18">
+    <row r="148" spans="1:19" ht="18.600000000000001" customHeight="1">
       <c r="A148" s="162"/>
       <c r="B148" s="171"/>
       <c r="C148" s="63" t="s">
         <v>327</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F148" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="18.600000000000001" thickBot="1">
+    <row r="149" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A149" s="162"/>
       <c r="B149" s="172"/>
       <c r="C149" s="63" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D149" s="110" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F149" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1">
+    <row r="150" spans="1:19" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A150" s="162"/>
       <c r="B150" s="58"/>
       <c r="C150" s="66"/>
       <c r="F150" s="34"/>
     </row>
-    <row r="151" spans="1:19" ht="14.4" thickBot="1">
+    <row r="151" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A151" s="162"/>
       <c r="B151" s="56"/>
     </row>
-    <row r="152" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="152" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A152" s="161" t="s">
         <v>322</v>
       </c>
@@ -18645,13 +18852,13 @@
         <v>382</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D152" s="109" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E152" s="118" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F152" s="27">
         <v>45428</v>
@@ -18663,17 +18870,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="18">
+    <row r="153" spans="1:19" ht="18.600000000000001" customHeight="1">
       <c r="A153" s="162"/>
       <c r="B153" s="171"/>
       <c r="C153" s="63" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D153" s="110" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F153" s="28">
         <v>45428</v>
@@ -18682,17 +18889,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="18">
+    <row r="154" spans="1:19" ht="18.600000000000001" customHeight="1">
       <c r="A154" s="162"/>
       <c r="B154" s="171"/>
       <c r="C154" s="63" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D154" s="110" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E154" s="116" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F154" s="35">
         <v>45428</v>
@@ -18701,17 +18908,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="18.600000000000001" thickBot="1">
+    <row r="155" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A155" s="162"/>
       <c r="B155" s="172"/>
       <c r="C155" s="63" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D155" s="110" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F155" s="35">
         <v>45428</v>
@@ -18720,17 +18927,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A156" s="162"/>
       <c r="B156" s="58"/>
       <c r="C156" s="66"/>
       <c r="F156" s="34"/>
     </row>
-    <row r="157" spans="1:19" ht="14.4" thickBot="1">
+    <row r="157" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A157" s="162"/>
       <c r="B157" s="56"/>
     </row>
-    <row r="158" spans="1:19" s="5" customFormat="1" ht="13.2" customHeight="1" thickTop="1">
+    <row r="158" spans="1:19" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A158" s="161" t="s">
         <v>336</v>
       </c>
@@ -18738,41 +18945,41 @@
         <v>383</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D158" s="109" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F158" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="13.2" customHeight="1" thickBot="1">
+    <row r="159" spans="1:19" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A159" s="162"/>
       <c r="B159" s="172"/>
       <c r="C159" s="63" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D159" s="110" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F159" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="13.2" customHeight="1">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A160" s="162"/>
       <c r="B160" s="58"/>
       <c r="C160" s="66"/>
       <c r="F160" s="34"/>
     </row>
-    <row r="161" spans="1:9" s="10" customFormat="1" ht="14.4" thickBot="1">
+    <row r="161" spans="1:9" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A161" s="167"/>
       <c r="B161" s="57"/>
       <c r="C161" s="64"/>
       <c r="F161" s="44"/>
     </row>
-    <row r="162" spans="1:9" s="5" customFormat="1" ht="19.2" thickTop="1" thickBot="1">
+    <row r="162" spans="1:9" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A162" s="161" t="s">
         <v>331</v>
       </c>
@@ -18780,56 +18987,56 @@
         <v>385</v>
       </c>
       <c r="C162" s="62" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D162" s="109" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F162" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="11" customFormat="1" ht="18">
+    <row r="163" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A163" s="162"/>
       <c r="B163" s="170" t="s">
         <v>384</v>
       </c>
       <c r="C163" s="66" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D163" s="112" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F163" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="164" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A164" s="162"/>
       <c r="B164" s="172"/>
       <c r="C164" s="63" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D164" s="110" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F164" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="11" customFormat="1">
+    <row r="165" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A165" s="162"/>
       <c r="B165" s="58"/>
       <c r="C165" s="66"/>
       <c r="F165" s="34"/>
     </row>
-    <row r="166" spans="1:9" s="10" customFormat="1" ht="14.4" thickBot="1">
+    <row r="166" spans="1:9" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A166" s="167"/>
       <c r="B166" s="57"/>
       <c r="C166" s="64"/>
       <c r="F166" s="44"/>
     </row>
-    <row r="167" spans="1:9" ht="19.2" thickTop="1" thickBot="1">
+    <row r="167" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A167" s="161" t="s">
         <v>333</v>
       </c>
@@ -18837,26 +19044,26 @@
         <v>386</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D167" s="110" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F167" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="11" customFormat="1">
+    <row r="168" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A168" s="162"/>
       <c r="B168" s="58"/>
       <c r="C168" s="66"/>
       <c r="F168" s="34"/>
     </row>
-    <row r="169" spans="1:9" ht="14.4" thickBot="1">
+    <row r="169" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A169" s="167"/>
       <c r="B169" s="56"/>
     </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1">
+    <row r="170" spans="1:9" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A170" s="161" t="s">
         <v>323</v>
       </c>
@@ -18864,82 +19071,82 @@
         <v>388</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F170" s="37">
         <v>45414</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="11" customFormat="1" ht="18">
+    <row r="171" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A171" s="162"/>
       <c r="B171" s="170" t="s">
         <v>387</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D171" s="112" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E171" s="112" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F171" s="71">
         <v>1</v>
       </c>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="18">
+    <row r="172" spans="1:9" ht="18.600000000000001" customHeight="1">
       <c r="A172" s="162"/>
       <c r="B172" s="171"/>
       <c r="C172" s="63" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D172" s="110" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F172" s="72">
         <v>1</v>
       </c>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:9" ht="18.600000000000001" thickBot="1">
+    <row r="173" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A173" s="162"/>
       <c r="B173" s="172"/>
       <c r="C173" s="63" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F173" s="100">
         <v>1</v>
       </c>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:9" s="11" customFormat="1">
+    <row r="174" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A174" s="162"/>
       <c r="B174" s="58"/>
       <c r="C174" s="66"/>
       <c r="F174" s="34"/>
     </row>
-    <row r="175" spans="1:9" ht="14.4" thickBot="1">
+    <row r="175" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A175" s="162"/>
       <c r="B175" s="56"/>
     </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="176" spans="1:9" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A176" s="161" t="s">
         <v>328</v>
       </c>
@@ -18947,232 +19154,232 @@
         <v>372</v>
       </c>
       <c r="C176" s="62" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D176" s="109" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F176" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18.600000000000001" thickBot="1">
+    <row r="177" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A177" s="162"/>
       <c r="B177" s="171"/>
       <c r="C177" s="63" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D177" s="110" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F177" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="178" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A178" s="162"/>
       <c r="B178" s="58" t="s">
         <v>386</v>
       </c>
       <c r="C178" s="66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D178" s="112" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F178" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="11" customFormat="1">
+    <row r="179" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A179" s="162"/>
       <c r="B179" s="58"/>
       <c r="C179" s="66"/>
       <c r="F179" s="34"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A180" s="162"/>
       <c r="B180" s="56"/>
     </row>
-    <row r="181" spans="1:6" ht="14.4" thickBot="1">
+    <row r="181" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A181" s="167"/>
       <c r="B181" s="57"/>
     </row>
     <row r="182" spans="1:6" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A182" s="166" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C182" s="62" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="D182" s="109" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F182" s="36"/>
     </row>
-    <row r="183" spans="1:6" s="11" customFormat="1">
+    <row r="183" spans="1:6" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A183" s="162"/>
       <c r="B183" s="123" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C183" s="66" t="s">
+        <v>843</v>
+      </c>
+      <c r="D183" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="D183" s="11" t="s">
-        <v>855</v>
-      </c>
       <c r="F183" s="34"/>
     </row>
-    <row r="184" spans="1:6" ht="18">
+    <row r="184" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A184" s="162"/>
       <c r="B184" s="3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C184" s="63" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D184" s="110" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="18">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A185" s="162"/>
       <c r="B185" s="3" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C185" s="63" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D185" s="110" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A186" s="162"/>
       <c r="B186" s="3" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C186" s="63" t="s">
+        <v>842</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="E186" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="18">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A187" s="162"/>
       <c r="B187" s="3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D187" s="110" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="18">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A188" s="162"/>
       <c r="B188" s="3" t="s">
         <v>386</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D188" s="110" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A189" s="162"/>
       <c r="B189" s="3" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C189" s="63" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A190" s="162"/>
       <c r="B190" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C190" s="63" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A191" s="162"/>
       <c r="B191" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C191" s="63" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A192" s="162"/>
       <c r="B192" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="14.4" thickBot="1">
+    <row r="193" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A193" s="167"/>
       <c r="B193" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="5" customFormat="1" ht="18.600000000000001" thickTop="1">
+    <row r="194" spans="1:6" s="5" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A194" s="161" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B194" s="168" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C194" s="62" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D194" s="109" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E194" s="161" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F194" s="36"/>
     </row>
-    <row r="195" spans="1:6" ht="18.600000000000001" thickBot="1">
+    <row r="195" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A195" s="162"/>
       <c r="B195" s="169"/>
       <c r="C195" s="63" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D195" s="110" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E195" s="162"/>
     </row>
-    <row r="196" spans="1:6" s="121" customFormat="1" ht="14.4" thickBot="1">
+    <row r="196" spans="1:6" s="121" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A196" s="167"/>
       <c r="B196" s="119"/>
       <c r="C196" s="120"/>
       <c r="F196" s="122"/>
     </row>
-    <row r="197" spans="1:6" ht="14.4" thickTop="1"/>
+    <row r="197" spans="1:6" ht="18.600000000000001" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="B171:B173"/>

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9260DA-3AB9-4F1A-8640-C2E1A3B8D61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA0A260-B522-45C1-9D0F-C96E0CDD4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日程（国服）" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1216">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4171,10 +4171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>野外·气垫船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气垫船</t>
   </si>
   <si>
@@ -4375,14 +4371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄甲：和纱（A），未花，茜，兄弟。亚子，otto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝甲：女仆爱（A），兄弟，春佳，茜。亚子，otto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>感谢小春学弟的爱露（虽然没用上）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4395,10 +4383,6 @@
   <si>
     <t>未花，斯大萝，春月，体香。otto，春锅
 大狐狸，水忍忍（A），春佳，水大叔。水静子，亚子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红甲：水大叔，兄弟，爱露，茜。亚子，otto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5563,6 +5547,54 @@
   </si>
   <si>
     <t>大决战1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外·气垫船
+1档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未花，艾米，树忍，佳门。otto，春锅
+水星野，兄弟，芽瑠（A），妮露。亚子，歌原
+小绿，斯大萝，小桃，水忧。小玉，温泉和香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前几天要赶论文，随便打了个tm摆烂轴
+咱家温泉和香的奶量就是打，没得说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// tm难度是黄甲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// tm难度是红甲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红甲：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄甲：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝甲：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红甲：水大叔，兄弟，爱露，茜。亚子，otto #203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄甲：和纱（A），未花，茜，兄弟。亚子，otto #1093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝甲：女仆爱（A），兄弟，春佳，茜。亚子，otto #609</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6718,9 +6750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6742,6 +6771,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6760,6 +6792,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6767,9 +6802,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6796,10 +6828,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7142,8 +7174,8 @@
   <dimension ref="A1:N740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G692" sqref="G692"/>
+      <pane ySplit="1" topLeftCell="A679" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C662" sqref="C662:C666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7170,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C1" s="74" t="s">
         <v>272</v>
@@ -7421,7 +7453,7 @@
         <v>45164</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="156"/>
@@ -7649,7 +7681,7 @@
         <v>45190</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C51" s="156"/>
       <c r="D51" s="156"/>
@@ -7875,7 +7907,7 @@
         <v>45218</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D79" s="156"/>
     </row>
@@ -7934,7 +7966,7 @@
         <v>102</v>
       </c>
       <c r="H86" s="74" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7943,7 +7975,7 @@
       </c>
       <c r="B87" s="86"/>
       <c r="C87" s="155"/>
-      <c r="D87" s="161"/>
+      <c r="D87" s="162"/>
       <c r="E87" s="157"/>
       <c r="F87" s="79">
         <v>1</v>
@@ -7956,7 +7988,7 @@
       </c>
       <c r="B88" s="86"/>
       <c r="C88" s="155"/>
-      <c r="D88" s="161"/>
+      <c r="D88" s="162"/>
       <c r="E88" s="157"/>
       <c r="F88" s="79">
         <v>1</v>
@@ -7969,7 +8001,7 @@
       </c>
       <c r="B89" s="86"/>
       <c r="C89" s="155"/>
-      <c r="D89" s="161"/>
+      <c r="D89" s="162"/>
       <c r="E89" s="87"/>
       <c r="G89" s="156"/>
     </row>
@@ -7979,7 +8011,7 @@
       </c>
       <c r="B90" s="86"/>
       <c r="C90" s="155"/>
-      <c r="D90" s="161"/>
+      <c r="D90" s="162"/>
       <c r="E90" s="87"/>
       <c r="G90" s="156"/>
     </row>
@@ -7989,7 +8021,7 @@
       </c>
       <c r="B91" s="86"/>
       <c r="C91" s="155"/>
-      <c r="D91" s="161"/>
+      <c r="D91" s="162"/>
       <c r="E91" s="87"/>
       <c r="G91" s="156"/>
     </row>
@@ -7999,7 +8031,7 @@
       </c>
       <c r="B92" s="86"/>
       <c r="C92" s="155"/>
-      <c r="D92" s="161"/>
+      <c r="D92" s="162"/>
       <c r="E92" s="87"/>
       <c r="G92" s="156"/>
     </row>
@@ -8009,7 +8041,7 @@
       </c>
       <c r="B93" s="86"/>
       <c r="C93" s="155"/>
-      <c r="D93" s="161"/>
+      <c r="D93" s="162"/>
       <c r="E93" s="87"/>
     </row>
     <row r="94" spans="1:8">
@@ -8018,7 +8050,7 @@
       </c>
       <c r="B94" s="86"/>
       <c r="C94" s="155"/>
-      <c r="D94" s="161"/>
+      <c r="D94" s="162"/>
       <c r="E94" s="87"/>
     </row>
     <row r="95" spans="1:8">
@@ -8027,7 +8059,7 @@
       </c>
       <c r="B95" s="86"/>
       <c r="C95" s="155"/>
-      <c r="D95" s="161"/>
+      <c r="D95" s="162"/>
       <c r="E95" s="87"/>
     </row>
     <row r="96" spans="1:8">
@@ -8036,7 +8068,7 @@
       </c>
       <c r="B96" s="86"/>
       <c r="C96" s="155"/>
-      <c r="D96" s="161"/>
+      <c r="D96" s="162"/>
       <c r="E96" s="87"/>
     </row>
     <row r="97" spans="1:7">
@@ -8045,7 +8077,7 @@
       </c>
       <c r="B97" s="86"/>
       <c r="C97" s="155"/>
-      <c r="D97" s="161"/>
+      <c r="D97" s="162"/>
       <c r="E97" s="87"/>
     </row>
     <row r="98" spans="1:7">
@@ -8054,7 +8086,7 @@
       </c>
       <c r="B98" s="86"/>
       <c r="C98" s="155"/>
-      <c r="D98" s="161"/>
+      <c r="D98" s="162"/>
       <c r="E98" s="87"/>
     </row>
     <row r="99" spans="1:7">
@@ -8063,7 +8095,7 @@
       </c>
       <c r="B99" s="86"/>
       <c r="C99" s="155"/>
-      <c r="D99" s="161"/>
+      <c r="D99" s="162"/>
       <c r="E99" s="87"/>
     </row>
     <row r="100" spans="1:7">
@@ -8190,7 +8222,7 @@
         <v>104</v>
       </c>
       <c r="H114" s="142" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8239,7 +8271,7 @@
         <v>45258</v>
       </c>
       <c r="B119" s="75" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C119" s="156"/>
       <c r="D119" s="156"/>
@@ -8322,7 +8354,7 @@
         <v>105</v>
       </c>
       <c r="H128" s="142" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8330,7 +8362,7 @@
         <v>45268</v>
       </c>
       <c r="C129" s="156"/>
-      <c r="D129" s="161"/>
+      <c r="D129" s="162"/>
       <c r="E129" s="157"/>
       <c r="F129" s="79">
         <v>1</v>
@@ -8343,7 +8375,7 @@
         <v>45269</v>
       </c>
       <c r="C130" s="156"/>
-      <c r="D130" s="161"/>
+      <c r="D130" s="162"/>
       <c r="E130" s="157"/>
       <c r="F130" s="79">
         <v>1</v>
@@ -8355,7 +8387,7 @@
         <v>45270</v>
       </c>
       <c r="C131" s="156"/>
-      <c r="D131" s="161"/>
+      <c r="D131" s="162"/>
       <c r="E131" s="87"/>
       <c r="G131" s="156"/>
     </row>
@@ -8364,7 +8396,7 @@
         <v>45271</v>
       </c>
       <c r="C132" s="156"/>
-      <c r="D132" s="161"/>
+      <c r="D132" s="162"/>
       <c r="E132" s="87"/>
       <c r="G132" s="156"/>
     </row>
@@ -8373,7 +8405,7 @@
         <v>45272</v>
       </c>
       <c r="C133" s="156"/>
-      <c r="D133" s="161"/>
+      <c r="D133" s="162"/>
       <c r="E133" s="87"/>
       <c r="G133" s="156"/>
     </row>
@@ -8382,7 +8414,7 @@
         <v>45273</v>
       </c>
       <c r="C134" s="156"/>
-      <c r="D134" s="161"/>
+      <c r="D134" s="162"/>
       <c r="E134" s="87"/>
       <c r="G134" s="156"/>
     </row>
@@ -8391,7 +8423,7 @@
         <v>45274</v>
       </c>
       <c r="C135" s="156"/>
-      <c r="D135" s="161"/>
+      <c r="D135" s="162"/>
       <c r="E135" s="87"/>
     </row>
     <row r="136" spans="1:8">
@@ -8399,7 +8431,7 @@
         <v>45275</v>
       </c>
       <c r="C136" s="156"/>
-      <c r="D136" s="161"/>
+      <c r="D136" s="162"/>
       <c r="E136" s="87"/>
     </row>
     <row r="137" spans="1:8">
@@ -8407,7 +8439,7 @@
         <v>45276</v>
       </c>
       <c r="C137" s="156"/>
-      <c r="D137" s="161"/>
+      <c r="D137" s="162"/>
       <c r="E137" s="87"/>
     </row>
     <row r="138" spans="1:8">
@@ -8415,7 +8447,7 @@
         <v>45277</v>
       </c>
       <c r="C138" s="156"/>
-      <c r="D138" s="161"/>
+      <c r="D138" s="162"/>
       <c r="E138" s="87"/>
     </row>
     <row r="139" spans="1:8">
@@ -8423,7 +8455,7 @@
         <v>45278</v>
       </c>
       <c r="C139" s="156"/>
-      <c r="D139" s="161"/>
+      <c r="D139" s="162"/>
       <c r="E139" s="87"/>
     </row>
     <row r="140" spans="1:8">
@@ -8431,7 +8463,7 @@
         <v>45279</v>
       </c>
       <c r="C140" s="156"/>
-      <c r="D140" s="161"/>
+      <c r="D140" s="162"/>
       <c r="E140" s="87"/>
     </row>
     <row r="141" spans="1:8">
@@ -8439,7 +8471,7 @@
         <v>45280</v>
       </c>
       <c r="C141" s="156"/>
-      <c r="D141" s="161"/>
+      <c r="D141" s="162"/>
       <c r="E141" s="87"/>
     </row>
     <row r="142" spans="1:8">
@@ -8465,7 +8497,7 @@
         <v>106</v>
       </c>
       <c r="H142" s="142" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8514,7 +8546,7 @@
         <v>45286</v>
       </c>
       <c r="B147" s="75" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C147" s="156"/>
       <c r="D147" s="156"/>
@@ -8727,7 +8759,7 @@
         <v>29</v>
       </c>
       <c r="H170" s="142" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8735,7 +8767,7 @@
         <v>45310</v>
       </c>
       <c r="C171" s="156"/>
-      <c r="D171" s="161"/>
+      <c r="D171" s="162"/>
       <c r="E171" s="157"/>
       <c r="F171" s="79">
         <v>1</v>
@@ -8748,10 +8780,10 @@
         <v>45311</v>
       </c>
       <c r="B172" s="75" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C172" s="156"/>
-      <c r="D172" s="161"/>
+      <c r="D172" s="162"/>
       <c r="E172" s="89"/>
       <c r="F172" s="83"/>
       <c r="G172" s="156"/>
@@ -8762,7 +8794,7 @@
         <v>45312</v>
       </c>
       <c r="C173" s="156"/>
-      <c r="D173" s="161"/>
+      <c r="D173" s="162"/>
       <c r="E173" s="87"/>
       <c r="G173" s="156"/>
       <c r="H173" s="143"/>
@@ -8772,7 +8804,7 @@
         <v>45313</v>
       </c>
       <c r="C174" s="156"/>
-      <c r="D174" s="161"/>
+      <c r="D174" s="162"/>
       <c r="E174" s="87"/>
       <c r="G174" s="156"/>
       <c r="H174" s="143"/>
@@ -8782,7 +8814,7 @@
         <v>45314</v>
       </c>
       <c r="C175" s="156"/>
-      <c r="D175" s="161"/>
+      <c r="D175" s="162"/>
       <c r="E175" s="87"/>
       <c r="G175" s="156"/>
       <c r="H175" s="144"/>
@@ -8792,7 +8824,7 @@
         <v>45315</v>
       </c>
       <c r="C176" s="156"/>
-      <c r="D176" s="161"/>
+      <c r="D176" s="162"/>
       <c r="E176" s="87"/>
       <c r="G176" s="156"/>
     </row>
@@ -8801,7 +8833,7 @@
         <v>45316</v>
       </c>
       <c r="C177" s="156"/>
-      <c r="D177" s="161"/>
+      <c r="D177" s="162"/>
       <c r="E177" s="87"/>
     </row>
     <row r="178" spans="1:8">
@@ -8809,7 +8841,7 @@
         <v>45317</v>
       </c>
       <c r="C178" s="156"/>
-      <c r="D178" s="161"/>
+      <c r="D178" s="162"/>
       <c r="E178" s="87"/>
     </row>
     <row r="179" spans="1:8">
@@ -8817,7 +8849,7 @@
         <v>45318</v>
       </c>
       <c r="C179" s="156"/>
-      <c r="D179" s="161"/>
+      <c r="D179" s="162"/>
       <c r="E179" s="87"/>
     </row>
     <row r="180" spans="1:8">
@@ -8825,7 +8857,7 @@
         <v>45319</v>
       </c>
       <c r="C180" s="156"/>
-      <c r="D180" s="161"/>
+      <c r="D180" s="162"/>
       <c r="E180" s="87"/>
     </row>
     <row r="181" spans="1:8">
@@ -8833,7 +8865,7 @@
         <v>45320</v>
       </c>
       <c r="C181" s="156"/>
-      <c r="D181" s="161"/>
+      <c r="D181" s="162"/>
       <c r="E181" s="87"/>
     </row>
     <row r="182" spans="1:8">
@@ -8841,7 +8873,7 @@
         <v>45321</v>
       </c>
       <c r="C182" s="156"/>
-      <c r="D182" s="161"/>
+      <c r="D182" s="162"/>
       <c r="E182" s="87"/>
     </row>
     <row r="183" spans="1:8">
@@ -8849,7 +8881,7 @@
         <v>45322</v>
       </c>
       <c r="C183" s="156"/>
-      <c r="D183" s="161"/>
+      <c r="D183" s="162"/>
       <c r="E183" s="87"/>
     </row>
     <row r="184" spans="1:8">
@@ -8872,7 +8904,7 @@
         <v>30</v>
       </c>
       <c r="H184" s="142" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9057,9 +9089,9 @@
         <v>45344</v>
       </c>
       <c r="B205" s="75" t="s">
-        <v>975</v>
-      </c>
-      <c r="C205" s="162" t="s">
+        <v>971</v>
+      </c>
+      <c r="C205" s="163" t="s">
         <v>40</v>
       </c>
       <c r="D205" s="155" t="s">
@@ -9076,42 +9108,42 @@
       <c r="A206" s="75">
         <v>45345</v>
       </c>
-      <c r="C206" s="163"/>
+      <c r="C206" s="164"/>
       <c r="D206" s="156"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="75">
         <v>45346</v>
       </c>
-      <c r="C207" s="163"/>
+      <c r="C207" s="164"/>
       <c r="D207" s="156"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="75">
         <v>45347</v>
       </c>
-      <c r="C208" s="163"/>
+      <c r="C208" s="164"/>
       <c r="D208" s="156"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="75">
         <v>45348</v>
       </c>
-      <c r="C209" s="163"/>
+      <c r="C209" s="164"/>
       <c r="D209" s="156"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="75">
         <v>45349</v>
       </c>
-      <c r="C210" s="163"/>
+      <c r="C210" s="164"/>
       <c r="D210" s="156"/>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="75">
         <v>45350</v>
       </c>
-      <c r="C211" s="163"/>
+      <c r="C211" s="164"/>
       <c r="D211" s="156"/>
     </row>
     <row r="212" spans="1:8">
@@ -9134,7 +9166,7 @@
         <v>38</v>
       </c>
       <c r="H212" s="74" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9242,7 +9274,7 @@
       <c r="A226" s="81">
         <v>45365</v>
       </c>
-      <c r="C226" s="162" t="s">
+      <c r="C226" s="163" t="s">
         <v>41</v>
       </c>
       <c r="D226" s="155" t="s">
@@ -9255,14 +9287,14 @@
         <v>1</v>
       </c>
       <c r="H226" s="142" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="75">
         <v>45366</v>
       </c>
-      <c r="C227" s="163"/>
+      <c r="C227" s="164"/>
       <c r="D227" s="156"/>
       <c r="H227" s="143"/>
     </row>
@@ -9270,7 +9302,7 @@
       <c r="A228" s="75">
         <v>45367</v>
       </c>
-      <c r="C228" s="163"/>
+      <c r="C228" s="164"/>
       <c r="D228" s="156"/>
       <c r="H228" s="143"/>
     </row>
@@ -9278,7 +9310,7 @@
       <c r="A229" s="75">
         <v>45368</v>
       </c>
-      <c r="C229" s="163"/>
+      <c r="C229" s="164"/>
       <c r="D229" s="156"/>
       <c r="H229" s="144"/>
     </row>
@@ -9286,21 +9318,21 @@
       <c r="A230" s="75">
         <v>45369</v>
       </c>
-      <c r="C230" s="163"/>
+      <c r="C230" s="164"/>
       <c r="D230" s="156"/>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="75">
         <v>45370</v>
       </c>
-      <c r="C231" s="163"/>
+      <c r="C231" s="164"/>
       <c r="D231" s="156"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="75">
         <v>45371</v>
       </c>
-      <c r="C232" s="163"/>
+      <c r="C232" s="164"/>
       <c r="D232" s="156"/>
     </row>
     <row r="233" spans="1:8">
@@ -9374,7 +9406,7 @@
         <v>45378</v>
       </c>
       <c r="B239" s="75" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C239" s="156"/>
       <c r="D239" s="156"/>
@@ -9449,7 +9481,7 @@
         <v>45</v>
       </c>
       <c r="H247" s="142" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9640,7 +9672,7 @@
       <c r="C268" s="156"/>
       <c r="D268" s="156"/>
       <c r="H268" s="74" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9692,7 +9724,7 @@
       <c r="C275" s="155" t="s">
         <v>283</v>
       </c>
-      <c r="D275" s="164" t="s">
+      <c r="D275" s="161" t="s">
         <v>53</v>
       </c>
       <c r="E275" s="91" t="s">
@@ -9710,7 +9742,7 @@
         <v>45415</v>
       </c>
       <c r="C276" s="156"/>
-      <c r="D276" s="161"/>
+      <c r="D276" s="162"/>
       <c r="E276" s="87"/>
       <c r="G276" s="156"/>
     </row>
@@ -9719,7 +9751,7 @@
         <v>45416</v>
       </c>
       <c r="C277" s="156"/>
-      <c r="D277" s="161"/>
+      <c r="D277" s="162"/>
       <c r="E277" s="87"/>
       <c r="G277" s="156"/>
     </row>
@@ -9728,7 +9760,7 @@
         <v>45417</v>
       </c>
       <c r="C278" s="156"/>
-      <c r="D278" s="161"/>
+      <c r="D278" s="162"/>
       <c r="E278" s="87"/>
       <c r="G278" s="156"/>
     </row>
@@ -9737,7 +9769,7 @@
         <v>45418</v>
       </c>
       <c r="C279" s="156"/>
-      <c r="D279" s="161"/>
+      <c r="D279" s="162"/>
       <c r="E279" s="87"/>
       <c r="G279" s="156"/>
     </row>
@@ -9746,10 +9778,10 @@
         <v>45419</v>
       </c>
       <c r="B280" s="75" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C280" s="156"/>
-      <c r="D280" s="161"/>
+      <c r="D280" s="162"/>
       <c r="E280" s="87"/>
       <c r="G280" s="156"/>
     </row>
@@ -9758,7 +9790,7 @@
         <v>45420</v>
       </c>
       <c r="C281" s="156"/>
-      <c r="D281" s="161"/>
+      <c r="D281" s="162"/>
       <c r="E281" s="87"/>
       <c r="G281" s="156"/>
     </row>
@@ -9769,7 +9801,7 @@
       <c r="C282" s="155" t="s">
         <v>284</v>
       </c>
-      <c r="D282" s="161"/>
+      <c r="D282" s="162"/>
       <c r="E282" s="87"/>
     </row>
     <row r="283" spans="1:7">
@@ -9777,7 +9809,7 @@
         <v>45422</v>
       </c>
       <c r="C283" s="156"/>
-      <c r="D283" s="161"/>
+      <c r="D283" s="162"/>
       <c r="E283" s="87"/>
     </row>
     <row r="284" spans="1:7">
@@ -9785,7 +9817,7 @@
         <v>45423</v>
       </c>
       <c r="C284" s="156"/>
-      <c r="D284" s="161"/>
+      <c r="D284" s="162"/>
       <c r="E284" s="87"/>
     </row>
     <row r="285" spans="1:7">
@@ -9793,7 +9825,7 @@
         <v>45424</v>
       </c>
       <c r="C285" s="156"/>
-      <c r="D285" s="161"/>
+      <c r="D285" s="162"/>
       <c r="E285" s="87"/>
     </row>
     <row r="286" spans="1:7">
@@ -9801,7 +9833,7 @@
         <v>45425</v>
       </c>
       <c r="C286" s="156"/>
-      <c r="D286" s="161"/>
+      <c r="D286" s="162"/>
       <c r="E286" s="87"/>
     </row>
     <row r="287" spans="1:7">
@@ -9809,7 +9841,7 @@
         <v>45426</v>
       </c>
       <c r="C287" s="156"/>
-      <c r="D287" s="161"/>
+      <c r="D287" s="162"/>
       <c r="E287" s="87"/>
     </row>
     <row r="288" spans="1:7">
@@ -9817,7 +9849,7 @@
         <v>45427</v>
       </c>
       <c r="C288" s="156"/>
-      <c r="D288" s="161"/>
+      <c r="D288" s="162"/>
       <c r="E288" s="87"/>
     </row>
     <row r="289" spans="1:8">
@@ -9843,7 +9875,7 @@
         <v>58</v>
       </c>
       <c r="H289" s="74" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9915,7 +9947,7 @@
         <v>59</v>
       </c>
       <c r="H296" s="74" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10030,7 +10062,7 @@
         <v>45448</v>
       </c>
       <c r="B309" s="75" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C309" s="156"/>
       <c r="D309" s="156"/>
@@ -10105,7 +10137,7 @@
         <v>66</v>
       </c>
       <c r="H317" s="142" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10184,7 +10216,7 @@
       <c r="C324" s="156"/>
       <c r="D324" s="156"/>
       <c r="H324" s="74" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10241,7 +10273,7 @@
       </c>
       <c r="E331" s="88"/>
       <c r="F331" s="79"/>
-      <c r="G331" s="147" t="s">
+      <c r="G331" s="154" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10350,7 +10382,7 @@
         <v>45483</v>
       </c>
       <c r="B344" s="75" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C344" s="156"/>
       <c r="D344" s="156"/>
@@ -10428,7 +10460,7 @@
       </c>
       <c r="F352" s="79"/>
       <c r="H352" s="142" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10562,16 +10594,16 @@
         <v>45506</v>
       </c>
       <c r="C367" s="156"/>
-      <c r="D367" s="161"/>
-      <c r="E367" s="161"/>
+      <c r="D367" s="162"/>
+      <c r="E367" s="162"/>
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="75">
         <v>45507</v>
       </c>
       <c r="C368" s="156"/>
-      <c r="D368" s="161"/>
-      <c r="E368" s="161"/>
+      <c r="D368" s="162"/>
+      <c r="E368" s="162"/>
       <c r="F368" s="80">
         <v>1</v>
       </c>
@@ -10581,7 +10613,7 @@
         <v>45508</v>
       </c>
       <c r="C369" s="156"/>
-      <c r="D369" s="161"/>
+      <c r="D369" s="162"/>
       <c r="E369" s="87"/>
     </row>
     <row r="370" spans="1:8">
@@ -10589,7 +10621,7 @@
         <v>45509</v>
       </c>
       <c r="C370" s="156"/>
-      <c r="D370" s="161"/>
+      <c r="D370" s="162"/>
       <c r="E370" s="87"/>
     </row>
     <row r="371" spans="1:8">
@@ -10597,7 +10629,7 @@
         <v>45510</v>
       </c>
       <c r="C371" s="156"/>
-      <c r="D371" s="161"/>
+      <c r="D371" s="162"/>
       <c r="E371" s="87"/>
     </row>
     <row r="372" spans="1:8">
@@ -10605,7 +10637,7 @@
         <v>45511</v>
       </c>
       <c r="C372" s="156"/>
-      <c r="D372" s="161"/>
+      <c r="D372" s="162"/>
       <c r="E372" s="87"/>
     </row>
     <row r="373" spans="1:8">
@@ -10613,7 +10645,7 @@
         <v>45512</v>
       </c>
       <c r="C373" s="156"/>
-      <c r="D373" s="161"/>
+      <c r="D373" s="162"/>
       <c r="E373" s="87"/>
       <c r="G373" s="156" t="s">
         <v>73</v>
@@ -10624,7 +10656,7 @@
         <v>45513</v>
       </c>
       <c r="C374" s="156"/>
-      <c r="D374" s="161"/>
+      <c r="D374" s="162"/>
       <c r="E374" s="87"/>
       <c r="G374" s="156"/>
     </row>
@@ -10633,7 +10665,7 @@
         <v>45514</v>
       </c>
       <c r="C375" s="156"/>
-      <c r="D375" s="161"/>
+      <c r="D375" s="162"/>
       <c r="E375" s="87"/>
       <c r="G375" s="156"/>
     </row>
@@ -10642,7 +10674,7 @@
         <v>45515</v>
       </c>
       <c r="C376" s="156"/>
-      <c r="D376" s="161"/>
+      <c r="D376" s="162"/>
       <c r="E376" s="87"/>
       <c r="G376" s="156"/>
     </row>
@@ -10651,7 +10683,7 @@
         <v>45516</v>
       </c>
       <c r="C377" s="156"/>
-      <c r="D377" s="161"/>
+      <c r="D377" s="162"/>
       <c r="E377" s="87"/>
       <c r="G377" s="156"/>
     </row>
@@ -10660,7 +10692,7 @@
         <v>45517</v>
       </c>
       <c r="C378" s="156"/>
-      <c r="D378" s="161"/>
+      <c r="D378" s="162"/>
       <c r="E378" s="87"/>
       <c r="G378" s="156"/>
     </row>
@@ -10669,7 +10701,7 @@
         <v>45518</v>
       </c>
       <c r="C379" s="156"/>
-      <c r="D379" s="161"/>
+      <c r="D379" s="162"/>
       <c r="E379" s="87"/>
       <c r="G379" s="156"/>
     </row>
@@ -10690,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="H380" s="74" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10758,7 +10790,7 @@
         <v>78</v>
       </c>
       <c r="H387" s="74" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10804,7 +10836,7 @@
         <v>45532</v>
       </c>
       <c r="B393" s="75" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C393" s="156"/>
       <c r="D393" s="156"/>
@@ -10883,7 +10915,7 @@
       <c r="E401" s="85"/>
       <c r="F401" s="79"/>
       <c r="H401" s="142" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10891,7 +10923,7 @@
         <v>45541</v>
       </c>
       <c r="C402" s="156"/>
-      <c r="D402" s="161"/>
+      <c r="D402" s="162"/>
       <c r="E402" s="87"/>
       <c r="H402" s="145"/>
     </row>
@@ -10900,7 +10932,7 @@
         <v>45542</v>
       </c>
       <c r="C403" s="156"/>
-      <c r="D403" s="161"/>
+      <c r="D403" s="162"/>
       <c r="E403" s="87"/>
     </row>
     <row r="404" spans="1:8">
@@ -10908,7 +10940,7 @@
         <v>45543</v>
       </c>
       <c r="C404" s="156"/>
-      <c r="D404" s="161"/>
+      <c r="D404" s="162"/>
       <c r="E404" s="87"/>
     </row>
     <row r="405" spans="1:8">
@@ -10916,7 +10948,7 @@
         <v>45544</v>
       </c>
       <c r="C405" s="156"/>
-      <c r="D405" s="161"/>
+      <c r="D405" s="162"/>
       <c r="E405" s="87"/>
     </row>
     <row r="406" spans="1:8">
@@ -10924,7 +10956,7 @@
         <v>45545</v>
       </c>
       <c r="C406" s="156"/>
-      <c r="D406" s="161"/>
+      <c r="D406" s="162"/>
       <c r="E406" s="87"/>
     </row>
     <row r="407" spans="1:8">
@@ -10932,7 +10964,7 @@
         <v>45546</v>
       </c>
       <c r="C407" s="156"/>
-      <c r="D407" s="161"/>
+      <c r="D407" s="162"/>
       <c r="E407" s="87"/>
     </row>
     <row r="408" spans="1:8">
@@ -11072,7 +11104,7 @@
         <v>89</v>
       </c>
       <c r="H422" s="74" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11193,7 +11225,7 @@
         <v>45574</v>
       </c>
       <c r="B435" s="75" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C435" s="156"/>
       <c r="D435" s="156"/>
@@ -11206,7 +11238,7 @@
       <c r="C436" s="156"/>
       <c r="D436" s="156"/>
       <c r="H436" s="74" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11269,7 +11301,7 @@
         <v>109</v>
       </c>
       <c r="H443" s="74" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11337,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="H450" s="74" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -11463,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="H464" s="142" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -11639,12 +11671,12 @@
         <v>45624</v>
       </c>
       <c r="B485" s="75" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C485" s="156"/>
       <c r="D485" s="156"/>
       <c r="H485" s="74" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -11717,7 +11749,7 @@
         <v>45632</v>
       </c>
       <c r="C493" s="156"/>
-      <c r="D493" s="161"/>
+      <c r="D493" s="162"/>
       <c r="E493" s="157"/>
       <c r="F493" s="79">
         <v>1</v>
@@ -11729,7 +11761,7 @@
         <v>45633</v>
       </c>
       <c r="C494" s="156"/>
-      <c r="D494" s="161"/>
+      <c r="D494" s="162"/>
       <c r="E494" s="87"/>
       <c r="G494" s="156"/>
     </row>
@@ -11738,7 +11770,7 @@
         <v>45634</v>
       </c>
       <c r="C495" s="156"/>
-      <c r="D495" s="161"/>
+      <c r="D495" s="162"/>
       <c r="E495" s="87"/>
       <c r="G495" s="156"/>
     </row>
@@ -11747,7 +11779,7 @@
         <v>45635</v>
       </c>
       <c r="C496" s="156"/>
-      <c r="D496" s="161"/>
+      <c r="D496" s="162"/>
       <c r="E496" s="87"/>
     </row>
     <row r="497" spans="1:7">
@@ -11755,7 +11787,7 @@
         <v>45636</v>
       </c>
       <c r="C497" s="156"/>
-      <c r="D497" s="161"/>
+      <c r="D497" s="162"/>
       <c r="E497" s="87"/>
     </row>
     <row r="498" spans="1:7">
@@ -11763,7 +11795,7 @@
         <v>45637</v>
       </c>
       <c r="C498" s="156"/>
-      <c r="D498" s="161"/>
+      <c r="D498" s="162"/>
       <c r="E498" s="87"/>
     </row>
     <row r="499" spans="1:7">
@@ -11771,7 +11803,7 @@
         <v>45638</v>
       </c>
       <c r="C499" s="156"/>
-      <c r="D499" s="161"/>
+      <c r="D499" s="162"/>
       <c r="E499" s="87"/>
       <c r="G499" s="155" t="s">
         <v>270</v>
@@ -11782,7 +11814,7 @@
         <v>45639</v>
       </c>
       <c r="C500" s="156"/>
-      <c r="D500" s="161"/>
+      <c r="D500" s="162"/>
       <c r="E500" s="87"/>
       <c r="G500" s="156"/>
     </row>
@@ -11791,7 +11823,7 @@
         <v>45640</v>
       </c>
       <c r="C501" s="156"/>
-      <c r="D501" s="161"/>
+      <c r="D501" s="162"/>
       <c r="E501" s="87"/>
       <c r="G501" s="156"/>
     </row>
@@ -11800,7 +11832,7 @@
         <v>45641</v>
       </c>
       <c r="C502" s="156"/>
-      <c r="D502" s="161"/>
+      <c r="D502" s="162"/>
       <c r="E502" s="87"/>
       <c r="G502" s="156"/>
     </row>
@@ -11809,7 +11841,7 @@
         <v>45642</v>
       </c>
       <c r="C503" s="156"/>
-      <c r="D503" s="161"/>
+      <c r="D503" s="162"/>
       <c r="E503" s="87"/>
       <c r="G503" s="156"/>
     </row>
@@ -11818,7 +11850,7 @@
         <v>45643</v>
       </c>
       <c r="C504" s="156"/>
-      <c r="D504" s="161"/>
+      <c r="D504" s="162"/>
       <c r="E504" s="87"/>
       <c r="G504" s="156"/>
     </row>
@@ -11827,7 +11859,7 @@
         <v>45644</v>
       </c>
       <c r="C505" s="156"/>
-      <c r="D505" s="161"/>
+      <c r="D505" s="162"/>
       <c r="E505" s="87"/>
       <c r="G505" s="156"/>
     </row>
@@ -11891,7 +11923,7 @@
         <v>45651</v>
       </c>
       <c r="B512" s="75" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C512" s="156"/>
       <c r="D512" s="156"/>
@@ -11903,7 +11935,7 @@
       <c r="C513" s="156"/>
       <c r="D513" s="156"/>
       <c r="H513" s="74" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -11971,7 +12003,7 @@
         <v>387</v>
       </c>
       <c r="H520" s="142" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -12035,7 +12067,7 @@
       <c r="C527" s="156"/>
       <c r="D527" s="156"/>
       <c r="H527" s="74" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -12097,7 +12129,7 @@
         <v>402</v>
       </c>
       <c r="H534" s="74" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -12165,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="H541" s="142" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -12173,7 +12205,7 @@
         <v>45681</v>
       </c>
       <c r="B542" s="75" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C542" s="156"/>
       <c r="D542" s="156"/>
@@ -12288,7 +12320,7 @@
         <v>419</v>
       </c>
       <c r="H555" s="142" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -12476,7 +12508,7 @@
         <v>45716</v>
       </c>
       <c r="B577" s="75" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C577" s="156"/>
       <c r="D577" s="156"/>
@@ -12539,7 +12571,7 @@
         <v>479</v>
       </c>
       <c r="H583" s="74" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -12724,12 +12756,12 @@
         <v>45743</v>
       </c>
       <c r="B604" s="75" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C604" s="146"/>
       <c r="D604" s="146"/>
       <c r="G604" s="142" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -12794,7 +12826,7 @@
         <v>867</v>
       </c>
       <c r="G611" s="142" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -12850,7 +12882,7 @@
         <v>45757</v>
       </c>
       <c r="C618" s="142" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D618" s="142" t="s">
         <v>870</v>
@@ -12889,7 +12921,7 @@
         <v>45762</v>
       </c>
       <c r="C623" s="142" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D623" s="142" t="s">
         <v>872</v>
@@ -12912,7 +12944,7 @@
       <c r="C625" s="146"/>
       <c r="D625" s="146"/>
       <c r="G625" s="142" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -12970,17 +13002,17 @@
       <c r="C632" s="142" t="s">
         <v>873</v>
       </c>
-      <c r="D632" s="148" t="s">
+      <c r="D632" s="147" t="s">
         <v>874</v>
       </c>
-      <c r="E632" s="151" t="s">
-        <v>885</v>
+      <c r="E632" s="150" t="s">
+        <v>884</v>
       </c>
       <c r="F632" s="80">
         <v>1</v>
       </c>
       <c r="H632" s="142" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -12988,8 +13020,8 @@
         <v>45772</v>
       </c>
       <c r="C633" s="146"/>
-      <c r="D633" s="149"/>
-      <c r="E633" s="149"/>
+      <c r="D633" s="148"/>
+      <c r="E633" s="148"/>
       <c r="F633" s="80">
         <v>1</v>
       </c>
@@ -13000,8 +13032,8 @@
         <v>45773</v>
       </c>
       <c r="C634" s="146"/>
-      <c r="D634" s="149"/>
-      <c r="E634" s="150"/>
+      <c r="D634" s="148"/>
+      <c r="E634" s="149"/>
       <c r="F634" s="80">
         <v>1</v>
       </c>
@@ -13012,37 +13044,37 @@
         <v>45774</v>
       </c>
       <c r="C635" s="146"/>
-      <c r="D635" s="149"/>
+      <c r="D635" s="148"/>
     </row>
     <row r="636" spans="1:8">
       <c r="A636" s="75">
         <v>45775</v>
       </c>
       <c r="C636" s="146"/>
-      <c r="D636" s="149"/>
+      <c r="D636" s="148"/>
     </row>
     <row r="637" spans="1:8">
       <c r="A637" s="75">
         <v>45776</v>
       </c>
       <c r="C637" s="146"/>
-      <c r="D637" s="149"/>
+      <c r="D637" s="148"/>
     </row>
     <row r="638" spans="1:8">
       <c r="A638" s="75">
         <v>45777</v>
       </c>
       <c r="C638" s="146"/>
-      <c r="D638" s="149"/>
+      <c r="D638" s="148"/>
     </row>
     <row r="639" spans="1:8">
       <c r="A639" s="75">
         <v>45778</v>
       </c>
       <c r="C639" s="146"/>
-      <c r="D639" s="149"/>
+      <c r="D639" s="148"/>
       <c r="G639" s="142" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -13050,7 +13082,7 @@
         <v>45779</v>
       </c>
       <c r="C640" s="146"/>
-      <c r="D640" s="150"/>
+      <c r="D640" s="149"/>
       <c r="G640" s="146"/>
     </row>
     <row r="641" spans="1:7">
@@ -13058,7 +13090,7 @@
         <v>45780</v>
       </c>
       <c r="C641" s="146"/>
-      <c r="D641" s="152" t="s">
+      <c r="D641" s="151" t="s">
         <v>878</v>
       </c>
       <c r="E641" s="124" t="s">
@@ -13074,7 +13106,7 @@
         <v>45781</v>
       </c>
       <c r="C642" s="146"/>
-      <c r="D642" s="153"/>
+      <c r="D642" s="152"/>
       <c r="G642" s="146"/>
     </row>
     <row r="643" spans="1:7">
@@ -13082,7 +13114,7 @@
         <v>45782</v>
       </c>
       <c r="C643" s="146"/>
-      <c r="D643" s="153"/>
+      <c r="D643" s="152"/>
       <c r="G643" s="146"/>
     </row>
     <row r="644" spans="1:7">
@@ -13090,7 +13122,7 @@
         <v>45783</v>
       </c>
       <c r="C644" s="146"/>
-      <c r="D644" s="153"/>
+      <c r="D644" s="152"/>
       <c r="G644" s="146"/>
     </row>
     <row r="645" spans="1:7">
@@ -13098,7 +13130,7 @@
         <v>45784</v>
       </c>
       <c r="C645" s="146"/>
-      <c r="D645" s="153"/>
+      <c r="D645" s="152"/>
       <c r="G645" s="145"/>
     </row>
     <row r="646" spans="1:7">
@@ -13106,24 +13138,24 @@
         <v>45785</v>
       </c>
       <c r="C646" s="146"/>
-      <c r="D646" s="153"/>
+      <c r="D646" s="152"/>
     </row>
     <row r="647" spans="1:7">
       <c r="A647" s="75">
         <v>45786</v>
       </c>
       <c r="C647" s="145"/>
-      <c r="D647" s="154"/>
+      <c r="D647" s="153"/>
     </row>
     <row r="648" spans="1:7">
       <c r="A648" s="75">
         <v>45787</v>
       </c>
-      <c r="C648" s="147" t="s">
+      <c r="C648" s="154" t="s">
         <v>881</v>
       </c>
       <c r="D648" s="142" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="E648" s="142" t="s">
         <v>882</v>
@@ -13147,7 +13179,7 @@
       <c r="C650" s="146"/>
       <c r="D650" s="146"/>
       <c r="E650" s="74" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -13169,14 +13201,14 @@
         <v>45792</v>
       </c>
       <c r="B653" s="75" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C653" s="142" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D653" s="146"/>
-      <c r="G653" s="147" t="s">
-        <v>883</v>
+      <c r="G653" s="142" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -13234,7 +13266,7 @@
       <c r="C660" s="143"/>
       <c r="D660" s="146"/>
       <c r="H660" s="74" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -13249,13 +13281,13 @@
         <v>45801</v>
       </c>
       <c r="C662" s="142" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D662" s="142" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E662" s="74" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -13291,11 +13323,11 @@
         <v>45806</v>
       </c>
       <c r="C667" s="142" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D667" s="146"/>
       <c r="G667" s="142" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -13350,17 +13382,17 @@
       <c r="A674" s="81">
         <v>45813</v>
       </c>
-      <c r="C674" s="147" t="s">
+      <c r="C674" s="154" t="s">
         <v>159</v>
       </c>
       <c r="D674" s="142" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E674" s="142" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="H674" s="142" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -13414,8 +13446,8 @@
       </c>
       <c r="C681" s="146"/>
       <c r="D681" s="146"/>
-      <c r="G681" s="147" t="s">
-        <v>1198</v>
+      <c r="G681" s="154" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -13470,17 +13502,17 @@
       <c r="A688" s="81">
         <v>45827</v>
       </c>
-      <c r="C688" s="147" t="s">
+      <c r="C688" s="154" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D688" s="142" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E688" s="142" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H688" s="142" t="s">
         <v>1201</v>
-      </c>
-      <c r="D688" s="142" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E688" s="142" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H688" s="142" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -13538,7 +13570,7 @@
       <c r="C695" s="146"/>
       <c r="D695" s="146"/>
       <c r="G695" s="142" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -14020,8 +14052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174900A-500F-4D9E-B37A-2A32C96980DD}">
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F104" sqref="F104:F106"/>
@@ -14452,7 +14484,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="156" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C23" s="75">
         <v>44509</v>
@@ -15086,7 +15118,7 @@
         <v>45637</v>
       </c>
       <c r="F62" s="142" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="G62" s="156" t="s">
         <v>304</v>
@@ -15749,7 +15781,7 @@
       <c r="F107" s="156"/>
       <c r="G107" s="156"/>
       <c r="H107" s="156" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -16084,7 +16116,7 @@
         <v>45560</v>
       </c>
       <c r="F137" s="156" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G137" s="156"/>
       <c r="H137" s="156" t="s">
@@ -16256,11 +16288,11 @@
       <c r="C155" s="75">
         <v>45714</v>
       </c>
-      <c r="F155" s="147"/>
-      <c r="G155" s="147" t="s">
+      <c r="F155" s="154"/>
+      <c r="G155" s="154" t="s">
         <v>471</v>
       </c>
-      <c r="H155" s="147" t="s">
+      <c r="H155" s="154" t="s">
         <v>291</v>
       </c>
     </row>
@@ -16279,17 +16311,17 @@
       <c r="H157" s="145"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="147" t="s">
-        <v>955</v>
+      <c r="A158" s="154" t="s">
+        <v>951</v>
       </c>
       <c r="C158" s="75">
         <v>45742</v>
       </c>
-      <c r="F158" s="147"/>
-      <c r="G158" s="147" t="s">
+      <c r="F158" s="154"/>
+      <c r="G158" s="154" t="s">
         <v>455</v>
       </c>
-      <c r="H158" s="147" t="s">
+      <c r="H158" s="154" t="s">
         <v>292</v>
       </c>
     </row>
@@ -16306,15 +16338,15 @@
       <c r="H160" s="145"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="147" t="s">
-        <v>954</v>
+      <c r="A161" s="154" t="s">
+        <v>950</v>
       </c>
       <c r="C161" s="75">
         <v>45769</v>
       </c>
-      <c r="F161" s="147"/>
-      <c r="G161" s="147"/>
-      <c r="H161" s="147" t="s">
+      <c r="F161" s="154"/>
+      <c r="G161" s="154"/>
+      <c r="H161" s="154" t="s">
         <v>329</v>
       </c>
     </row>
@@ -16331,15 +16363,15 @@
       <c r="H163" s="145"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="147" t="s">
-        <v>1015</v>
+      <c r="A164" s="154" t="s">
+        <v>1011</v>
       </c>
       <c r="C164" s="75">
         <v>45784</v>
       </c>
-      <c r="F164" s="147"/>
-      <c r="G164" s="147"/>
-      <c r="H164" s="147" t="s">
+      <c r="F164" s="154"/>
+      <c r="G164" s="154"/>
+      <c r="H164" s="154" t="s">
         <v>292</v>
       </c>
     </row>
@@ -16356,10 +16388,10 @@
       <c r="H166" s="145"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="147"/>
-      <c r="F167" s="147"/>
-      <c r="G167" s="147"/>
-      <c r="H167" s="147"/>
+      <c r="A167" s="154"/>
+      <c r="F167" s="154"/>
+      <c r="G167" s="154"/>
+      <c r="H167" s="154"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="146"/>
@@ -16374,10 +16406,10 @@
       <c r="H169" s="145"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="147"/>
-      <c r="F170" s="147"/>
-      <c r="G170" s="147"/>
-      <c r="H170" s="147"/>
+      <c r="A170" s="154"/>
+      <c r="F170" s="154"/>
+      <c r="G170" s="154"/>
+      <c r="H170" s="154"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="146"/>
@@ -16624,13 +16656,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16699,7 +16731,7 @@
         <v>45148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>234</v>
@@ -16887,7 +16919,7 @@
         <v>45239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>236</v>
@@ -16925,7 +16957,7 @@
         <v>45253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>237</v>
@@ -16963,7 +16995,7 @@
         <v>45267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>240</v>
@@ -16981,7 +17013,7 @@
         <v>233</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>256</v>
@@ -17001,7 +17033,7 @@
         <v>45281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>241</v>
@@ -17039,7 +17071,7 @@
         <v>45295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>235</v>
@@ -17062,7 +17094,7 @@
         <v>45309</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>236</v>
@@ -17085,7 +17117,7 @@
         <v>45323</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>237</v>
@@ -17108,7 +17140,7 @@
         <v>45335</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>242</v>
@@ -17131,7 +17163,7 @@
         <v>45351</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>235</v>
@@ -17150,23 +17182,23 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="173">
+      <c r="A18" s="174">
         <v>45372</v>
       </c>
-      <c r="B18" s="174" t="s">
-        <v>903</v>
-      </c>
-      <c r="C18" s="174" t="s">
+      <c r="B18" s="173" t="s">
+        <v>902</v>
+      </c>
+      <c r="C18" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="173" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174">
+      <c r="E18" s="173"/>
+      <c r="F18" s="173">
         <v>8082</v>
       </c>
-      <c r="G18" s="174" t="s">
+      <c r="G18" s="173" t="s">
         <v>238</v>
       </c>
       <c r="H18" s="175" t="s">
@@ -17177,14 +17209,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
       <c r="I19" s="175"/>
     </row>
     <row r="20" spans="1:9">
@@ -17192,7 +17224,7 @@
         <v>45386</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>242</v>
@@ -17212,7 +17244,7 @@
         <v>45393</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>236</v>
@@ -17232,7 +17264,7 @@
         <v>45400</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>241</v>
@@ -17255,7 +17287,7 @@
         <v>45414</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>234</v>
@@ -17275,7 +17307,7 @@
         <v>45428</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>235</v>
@@ -17298,7 +17330,7 @@
         <v>45435</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>237</v>
@@ -17318,7 +17350,7 @@
         <v>45442</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>234</v>
@@ -17338,7 +17370,7 @@
         <v>45456</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>240</v>
@@ -17358,7 +17390,7 @@
         <v>45470</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>235</v>
@@ -17378,7 +17410,7 @@
         <v>45484</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>242</v>
@@ -17393,7 +17425,7 @@
         <v>238</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -17401,7 +17433,7 @@
         <v>45498</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>241</v>
@@ -17427,7 +17459,7 @@
         <v>45512</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>245</v>
@@ -17447,7 +17479,7 @@
         <v>45526</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>237</v>
@@ -17467,7 +17499,7 @@
         <v>45533</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>236</v>
@@ -17482,29 +17514,29 @@
         <v>238</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="173">
+      <c r="A34" s="174">
         <v>45547</v>
       </c>
-      <c r="B34" s="174" t="s">
-        <v>913</v>
-      </c>
-      <c r="C34" s="174" t="s">
+      <c r="B34" s="173" t="s">
+        <v>912</v>
+      </c>
+      <c r="C34" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="174" t="s">
+      <c r="E34" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="F34" s="174">
+      <c r="F34" s="173">
         <v>6377</v>
       </c>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="173" t="s">
         <v>243</v>
       </c>
       <c r="H34" s="175" t="s">
@@ -17515,14 +17547,14 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
+      <c r="A35" s="174"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
       <c r="I35" s="175"/>
     </row>
     <row r="36" spans="1:9">
@@ -17530,7 +17562,7 @@
         <v>45561</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>235</v>
@@ -17553,7 +17585,7 @@
         <v>45568</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>240</v>
@@ -17579,7 +17611,7 @@
         <v>45582</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>245</v>
@@ -17602,7 +17634,7 @@
         <v>45596</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>234</v>
@@ -17623,7 +17655,7 @@
         <v>395</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -17631,7 +17663,7 @@
         <v>45631</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>240</v>
@@ -17657,7 +17689,7 @@
         <v>45638</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>237</v>
@@ -17682,43 +17714,43 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="173">
+      <c r="A42" s="174">
         <v>45659</v>
       </c>
-      <c r="B42" s="174" t="s">
-        <v>918</v>
-      </c>
-      <c r="C42" s="174" t="s">
+      <c r="B42" s="173" t="s">
+        <v>917</v>
+      </c>
+      <c r="C42" s="173" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="174" t="s">
+      <c r="D42" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="E42" s="174" t="s">
+      <c r="E42" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="174">
+      <c r="F42" s="173">
         <v>2721</v>
       </c>
-      <c r="G42" s="174" t="s">
+      <c r="G42" s="173" t="s">
         <v>243</v>
       </c>
       <c r="H42" s="175" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="I42" s="175" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="173"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="174"/>
+      <c r="A43" s="174"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
       <c r="I43" s="175"/>
     </row>
     <row r="44" spans="1:9">
@@ -17726,7 +17758,7 @@
         <v>45673</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>234</v>
@@ -17752,7 +17784,7 @@
         <v>45687</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>235</v>
@@ -17773,7 +17805,7 @@
         <v>426</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -17781,7 +17813,7 @@
         <v>45701</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>240</v>
@@ -17807,7 +17839,7 @@
         <v>45715</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>241</v>
@@ -17832,53 +17864,53 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A48" s="173">
+      <c r="A48" s="174">
         <v>45729</v>
       </c>
-      <c r="B48" s="174" t="s">
-        <v>923</v>
-      </c>
-      <c r="C48" s="174" t="s">
+      <c r="B48" s="173" t="s">
+        <v>922</v>
+      </c>
+      <c r="C48" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="174" t="s">
+      <c r="D48" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="174" t="s">
+      <c r="E48" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="174">
+      <c r="F48" s="173">
         <v>1654</v>
       </c>
-      <c r="G48" s="174" t="s">
+      <c r="G48" s="173" t="s">
         <v>504</v>
       </c>
       <c r="H48" s="175" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I48" s="175" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="173"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
+      <c r="A49" s="174"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
       <c r="H49" s="175"/>
       <c r="I49" s="175"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="173"/>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="174"/>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
+      <c r="A50" s="174"/>
+      <c r="B50" s="173"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="175"/>
       <c r="I50" s="175"/>
     </row>
@@ -17887,7 +17919,7 @@
         <v>45743</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>485</v>
@@ -17905,67 +17937,70 @@
         <v>243</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="173">
+      <c r="A52" s="174">
         <v>45750</v>
       </c>
-      <c r="B52" s="174" t="s">
-        <v>959</v>
-      </c>
-      <c r="C52" s="174" t="s">
+      <c r="B52" s="173" t="s">
+        <v>955</v>
+      </c>
+      <c r="C52" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="173" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="174" t="s">
+      <c r="E52" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="174">
+      <c r="F52" s="173">
         <v>751</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>243</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>939</v>
+        <v>1213</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="173"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
+      <c r="A53" s="174"/>
+      <c r="B53" s="173"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
       <c r="G53" s="1" t="s">
         <v>243</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>933</v>
+        <v>1214</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="173"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
+      <c r="A54" s="174"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
       <c r="G54" s="1" t="s">
         <v>243</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>934</v>
+        <v>1215</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>473</v>
@@ -17976,7 +18011,7 @@
         <v>45764</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>245</v>
@@ -17994,10 +18029,10 @@
         <v>243</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="27.6">
@@ -18005,7 +18040,7 @@
         <v>45778</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>236</v>
@@ -18023,72 +18058,150 @@
         <v>504</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="41.4">
       <c r="A57" s="2">
         <v>45792</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="2">
+      <c r="A58" s="174">
         <v>45806</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="173" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C58" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="173" t="s">
         <v>231</v>
       </c>
+      <c r="E58" s="173"/>
+      <c r="F58" s="173"/>
+      <c r="H58" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="2">
+      <c r="A59" s="174"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="174"/>
+      <c r="B60" s="173"/>
+      <c r="C60" s="173"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
+      <c r="G60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2">
         <v>45820</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2">
+    <row r="62" spans="1:9">
+      <c r="A62" s="174">
         <v>45834</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="173" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C62" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="174"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="173"/>
+      <c r="D63" s="173"/>
+      <c r="H63" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>239</v>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="174"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="173"/>
+      <c r="G64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E57" xr:uid="{1CEE5BFA-5E4A-433B-AF44-B7E0BF4C811C}"/>
   <dataConsolidate/>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
@@ -18131,19 +18244,29 @@
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E34 E36:E42 E2:E18 E44:E48 E51:E52 E55:E1048576" xr:uid="{F79B75D9-2FC7-4867-AF95-6C11973CC200}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E34 E36:E42 E2:E18 E44:E48 E51:E52 E55:E58 E61:E1048576" xr:uid="{F79B75D9-2FC7-4867-AF95-6C11973CC200}">
       <formula1>"一档,二档,三档,四档"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D34 D36:D42 D2:D18 D44:D48 D51:D52 D55:D1048576" xr:uid="{52174696-2274-4E37-A830-E25AC656904C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D34 D36:D42 D2:D18 D44:D48 D51:D52 D65:D1048576 D55:D58 D61:D62" xr:uid="{52174696-2274-4E37-A830-E25AC656904C}">
       <formula1>"街区,野外,室内"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18 G20:G48 G51:G1048576" xr:uid="{7106043A-7F7F-493C-85C0-9B7BAD5032DD}">
       <formula1>"N,HD,VH,HC,EX,INS,TM,LU"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C18 C20:C48 C51:C52 C55:C1048576" xr:uid="{79AD0C39-A281-4023-A9E2-93120626CCD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C18 C20:C48 C51:C52 C65:C1048576 C55:C58 C61:C62" xr:uid="{79AD0C39-A281-4023-A9E2-93120626CCD2}">
       <formula1>"大蛇,球,黑白,主教,寿司人,鸡斯拉,霍德,格兹,格里高利,气垫船,黑影"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18156,10 +18279,10 @@
   <dimension ref="A1:AD198"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
@@ -18386,7 +18509,7 @@
         <v>607</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F6" s="28">
         <v>45141</v>
@@ -18405,7 +18528,7 @@
         <v>606</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F7" s="30">
         <v>45141</v>
@@ -19507,7 +19630,7 @@
         <v>689</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F68" s="35">
         <v>45813</v>
@@ -19725,7 +19848,7 @@
         <v>662</v>
       </c>
       <c r="E80" s="115" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F80" s="100">
         <v>45197</v>
@@ -19744,7 +19867,7 @@
         <v>663</v>
       </c>
       <c r="E81" s="109" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F81" s="28">
         <v>45197</v>
@@ -19763,7 +19886,7 @@
         <v>664</v>
       </c>
       <c r="E82" s="109" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F82" s="28">
         <v>45211</v>
@@ -19800,7 +19923,7 @@
         <v>665</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F84" s="28">
         <v>45477</v>
@@ -20051,7 +20174,7 @@
         <v>728</v>
       </c>
       <c r="F101" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="18.600000000000001" customHeight="1">
@@ -20241,7 +20364,7 @@
         <v>729</v>
       </c>
       <c r="F113" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -20958,13 +21081,13 @@
     <row r="165" spans="1:9" s="135" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A165" s="177"/>
       <c r="B165" s="59" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C165" s="134" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D165" s="137" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F165" s="136">
         <v>1</v>
@@ -21407,7 +21530,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -21422,19 +21545,19 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="138" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C1" s="138" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D1" s="138" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E1" s="138" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F1" s="190" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G1" s="190"/>
       <c r="H1" s="190"/>
@@ -21445,944 +21568,944 @@
     </row>
     <row r="2" spans="1:12" hidden="1">
       <c r="A2" s="191" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D2" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F2" s="138" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="138" t="s">
         <v>1086</v>
       </c>
-      <c r="G2" s="138" t="s">
-        <v>1090</v>
-      </c>
       <c r="H2" s="139" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="192"/>
       <c r="B3" s="138" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D3" s="138" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F3" s="138" t="s">
         <v>1041</v>
       </c>
-      <c r="F3" s="138" t="s">
-        <v>1045</v>
-      </c>
       <c r="G3" s="139" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H3" s="139" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I3" s="138" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="192"/>
       <c r="B4" s="138" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C4" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D4" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G4" s="138" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H4" s="140" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="192"/>
       <c r="B5" s="138" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F5" s="138" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G5" s="138" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="192"/>
       <c r="B6" s="138" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D6" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F6" s="138" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G6" s="138" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H6" s="140" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I6" s="138" t="s">
         <v>1080</v>
-      </c>
-      <c r="I6" s="138" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="192"/>
       <c r="B7" s="138" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C7" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D7" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F7" s="138" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="H7" s="140" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1">
       <c r="A8" s="192"/>
       <c r="B8" s="138" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D8" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F8" s="138" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G8" s="138" t="s">
         <v>1089</v>
       </c>
-      <c r="G8" s="138" t="s">
-        <v>1093</v>
-      </c>
       <c r="H8" s="140" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="192"/>
       <c r="B9" s="138" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C9" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D9" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="192"/>
       <c r="B10" s="138" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C10" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D10" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F10" s="138" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G10" s="138" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="192"/>
       <c r="B11" s="138" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D11" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F11" s="138" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G11" s="140" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H11" s="138" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="192"/>
       <c r="B12" s="138" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C12" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D12" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F12" s="138" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G12" s="138" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1">
       <c r="A13" s="192"/>
       <c r="B13" s="138" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F13" s="138" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="G13" s="138" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1">
       <c r="A14" s="192"/>
       <c r="B14" s="138" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D14" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F14" s="138" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G14" s="139" t="s">
         <v>1095</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1">
       <c r="A15" s="192"/>
       <c r="B15" s="138" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C15" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D15" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F15" s="138" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="G15" s="139" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1">
       <c r="A16" s="192"/>
       <c r="B16" s="138" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C16" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F16" s="138" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G16" s="139" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="192"/>
       <c r="B17" s="138" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C17" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F17" s="138" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="192"/>
       <c r="B18" s="138" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="C18" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D18" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F18" s="138" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G18" s="139" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="192"/>
       <c r="B19" s="138" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C19" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F19" s="138" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="G19" s="138" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="192"/>
       <c r="B20" s="138" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C20" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D20" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F20" s="138" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="G20" s="138" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="192"/>
       <c r="B21" s="138" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C21" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F21" s="139" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="G21" s="138" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="192"/>
       <c r="B22" s="138" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F22" s="139" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="192"/>
       <c r="B23" s="138" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C23" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="192"/>
       <c r="B24" s="138" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C24" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D24" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F24" s="138" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G24" s="138" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="192"/>
       <c r="B25" s="138" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>1042</v>
+        <v>1124</v>
       </c>
       <c r="F25" s="138" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="192"/>
       <c r="B26" s="138" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F26" s="140" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="G26" s="138" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="192"/>
       <c r="B27" s="138" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C27" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F27" s="140" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="J27" s="141"/>
     </row>
     <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="192"/>
       <c r="B28" s="138" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C28" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D28" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F28" s="140" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="192"/>
       <c r="B29" s="138" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C29" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F29" s="138" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="192"/>
       <c r="B30" s="138" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F30" s="138" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="192"/>
       <c r="B31" s="138" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C31" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F31" s="138" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="192"/>
       <c r="B32" s="138" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F32" s="138" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="192"/>
       <c r="B33" s="138" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C33" s="138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D33" s="138" t="s">
         <v>1037</v>
       </c>
-      <c r="C33" s="138" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D33" s="138" t="s">
-        <v>1041</v>
-      </c>
       <c r="F33" s="138" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="192"/>
       <c r="B34" s="138" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D34" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F34" s="140" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="192"/>
       <c r="B35" s="138" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C35" s="138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D35" s="138" t="s">
         <v>1039</v>
       </c>
-      <c r="C35" s="138" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D35" s="138" t="s">
-        <v>1043</v>
-      </c>
       <c r="F35" s="138" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="192"/>
       <c r="B36" s="138" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C36" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D36" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F36" s="138" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="192"/>
       <c r="B37" s="138" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="138" t="s">
         <v>1040</v>
       </c>
-      <c r="C37" s="138" t="s">
-        <v>1044</v>
-      </c>
       <c r="D37" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F37" s="138" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="192"/>
       <c r="B38" s="138" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C38" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D38" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E38" s="138" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="192"/>
       <c r="B39" s="138" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C39" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D39" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="192"/>
       <c r="B40" s="138" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C40" s="138" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D40" s="138" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E40" s="138" t="s">
         <v>1133</v>
-      </c>
-      <c r="D40" s="138" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E40" s="138" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="192"/>
       <c r="B41" s="138" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C41" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="192"/>
       <c r="B42" s="138" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C42" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E42" s="138" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="192"/>
       <c r="B43" s="138" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C43" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D43" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E43" s="138" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="192"/>
       <c r="B44" s="138" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C44" s="138" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D44" s="138" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E44" s="138" t="s">
         <v>1133</v>
-      </c>
-      <c r="D44" s="138" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E44" s="138" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="192"/>
       <c r="B45" s="138" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C45" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E45" s="138" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="192"/>
       <c r="B46" s="138" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C46" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D46" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E46" s="138" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="192"/>
       <c r="B47" s="138" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C47" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D47" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E47" s="138" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="192"/>
       <c r="B48" s="138" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C48" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D48" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E48" s="138" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="192"/>
       <c r="B49" s="138" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C49" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D49" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E49" s="138" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="192"/>
       <c r="B50" s="138" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C50" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D50" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E50" s="138" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="192"/>
       <c r="B51" s="138" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C51" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D51" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E51" s="138" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="192"/>
       <c r="B52" s="138" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C52" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D52" s="138" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E52" s="138" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="192"/>
       <c r="B53" s="138" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C53" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D53" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E53" s="138" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="192"/>
       <c r="B54" s="138" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C54" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D54" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E54" s="138" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="192"/>
       <c r="B55" s="138" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C55" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D55" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E55" s="138" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="192"/>
       <c r="B56" s="138" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C56" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D56" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E56" s="138" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="192"/>
       <c r="B57" s="138" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E57" s="138" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -22396,319 +22519,319 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="191" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D61" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E61" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="192"/>
       <c r="B62" s="138" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C62" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D62" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E62" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="192"/>
       <c r="B63" s="138" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C63" s="138" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D63" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E63" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="192"/>
       <c r="B64" s="138" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C64" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D64" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E64" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="192"/>
       <c r="B65" s="138" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C65" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D65" s="138" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E65" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="192"/>
       <c r="B66" s="138" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C66" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D66" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E66" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="192"/>
       <c r="B67" s="138" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C67" s="138" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E67" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="192"/>
       <c r="B68" s="138" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C68" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D68" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E68" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="192"/>
       <c r="B69" s="138" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C69" s="138" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D69" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E69" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="192"/>
       <c r="B70" s="138" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C70" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D70" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E70" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="192"/>
       <c r="B71" s="138" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C71" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D71" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E71" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="192"/>
       <c r="B72" s="138" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C72" s="138" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D72" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E72" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="192"/>
       <c r="B73" s="138" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C73" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D73" s="138" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E73" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="192"/>
       <c r="B74" s="138" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C74" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D74" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E74" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="192"/>
       <c r="B75" s="138" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C75" s="138" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D75" s="138" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E75" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="192"/>
       <c r="B76" s="138" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C76" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D76" s="138" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E76" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="192"/>
       <c r="B77" s="138" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C77" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D77" s="138" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E77" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="192"/>
       <c r="B78" s="138" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C78" s="138" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D78" s="138" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E78" s="138" t="s">
         <v>1181</v>
-      </c>
-      <c r="C78" s="138" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D78" s="138" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E78" s="138" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="192"/>
       <c r="B79" s="138" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C79" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D79" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E79" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="192"/>
       <c r="B80" s="138" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C80" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D80" s="138" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E80" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="192"/>
       <c r="B81" s="138" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C81" s="138" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D81" s="138" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E81" s="138" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="82" spans="1:5">

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738AE932-79FA-4695-A63D-B8B837FCD8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A2D57-4E76-44D5-BEDE-51F65750EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8475,7 +8475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E827" sqref="E827"/>
+      <selection pane="bottomLeft" activeCell="H816" sqref="H816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/files/BA.xlsx
+++ b/files/BA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\yanagiha.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A2D57-4E76-44D5-BEDE-51F65750EF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E253C4-F023-4E7C-AE74-49D2DC05C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8475,7 +8475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A808" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H816" sqref="H816"/>
+      <selection pane="bottomLeft" activeCell="D814" sqref="D814:D827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
